--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -1555,55 +1555,79 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>memberService</t>
+  </si>
+  <si>
+    <t>promotionService</t>
+  </si>
+  <si>
+    <t>cartItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
+  </si>
+  <si>
     <t>productDao</t>
   </si>
   <si>
-    <t>promotionService</t>
-  </si>
-  <si>
-    <t>memberService</t>
-  </si>
-  <si>
-    <t>cartItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
-  </si>
-  <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>productRelationList</t>
+  </si>
+  <si>
     <t>coupon</t>
   </si>
   <si>
     <t>categoryRelationList</t>
   </si>
   <si>
-    <t>productRelationList</t>
+    <t>productLadderList</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
+    <t>productAttributeList</t>
   </si>
   <si>
     <t>couponList</t>
   </si>
   <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>productFullReductionList</t>
   </si>
   <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>productLadderList</t>
+    <t>productMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>brandMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsBrandMapper</t>
+  </si>
+  <si>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
     <t>productLadderMapper</t>
@@ -1612,16 +1636,16 @@
     <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
-  </si>
-  <si>
-    <t>productMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductMapper</t>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
   </si>
   <si>
     <t>productCategoryMapper</t>
@@ -1630,30 +1654,6 @@
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
-    <t>brandMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsBrandMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
     <t>portalProductDao</t>
   </si>
   <si>
@@ -1678,30 +1678,30 @@
     <t>children</t>
   </si>
   <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
     <t>couponMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponMapper</t>
   </si>
   <si>
+    <t>couponHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
+  </si>
+  <si>
     <t>couponProductRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
   </si>
   <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>couponHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
-  </si>
-  <si>
     <t>couponHistoryDao</t>
   </si>
   <si>
@@ -1711,132 +1711,132 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
     <t>promotionAmount</t>
   </si>
   <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
     <t>payAmount</t>
   </si>
   <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>brandLogo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
     <t>brandId</t>
   </si>
   <si>
-    <t>brandLogo</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>createTime</t>
+    <t>memberCouponService</t>
   </si>
   <si>
     <t>cartItemService</t>
   </si>
   <si>
-    <t>memberCouponService</t>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
+    <t>productName</t>
   </si>
   <si>
     <t>productPrice</t>
   </si>
   <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>cartPromotionItemList</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
     <t>memberIntegration</t>
   </si>
   <si>
+    <t>couponHistoryDetailList</t>
+  </si>
+  <si>
+    <t>calcAmount</t>
+  </si>
+  <si>
     <t>integrationConsumeSetting</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>cartPromotionItemList</t>
-  </si>
-  <si>
-    <t>couponHistoryDetailList</t>
-  </si>
-  <si>
-    <t>calcAmount</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
     <t>outTradeNo</t>
   </si>
   <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
     <t>proofPics</t>
   </si>
   <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>productAttr</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -1855,24 +1855,24 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.macro.mall.common.service.RedisService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_MEMBER</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_AUTH_CODE</t>
+  </si>
+  <si>
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.macro.mall.common.service.RedisService</t>
-  </si>
-  <si>
     <t>REDIS_EXPIRE_AUTH_CODE</t>
   </si>
   <si>
-    <t>REDIS_KEY_MEMBER</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_AUTH_CODE</t>
-  </si>
-  <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
@@ -1885,6 +1885,24 @@
     <t>memberCacheService</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>memberMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberMapper</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
     <t>authService</t>
   </si>
   <si>
@@ -1894,40 +1912,25 @@
     <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
   </si>
   <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>memberMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberMapper</t>
-  </si>
-  <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>QUEUE_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>QUEUE_TTL_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>exchange</t>
   </si>
   <si>
     <t>routeKey</t>
   </si>
   <si>
-    <t>QUEUE_TTL_ORDER_CANCEL</t>
-  </si>
-  <si>
-    <t>QUEUE_ORDER_CANCEL</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>alipayClient</t>
   </si>
   <si>
     <t>orderMapper</t>
@@ -1936,169 +1939,166 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
-    <t>alipayClient</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
+    <t>memberReceiveAddressId</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>useIntegration</t>
+  </si>
+  <si>
+    <t>cartIds</t>
+  </si>
+  <si>
     <t>payType</t>
   </si>
   <si>
-    <t>cartIds</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressId</t>
-  </si>
-  <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>useIntegration</t>
+    <t>flashPromotionCount</t>
+  </si>
+  <si>
+    <t>flashPromotionLimit</t>
   </si>
   <si>
     <t>flashPromotionPrice</t>
   </si>
   <si>
-    <t>flashPromotionLimit</t>
-  </si>
-  <si>
-    <t>flashPromotionCount</t>
+    <t>hotProductList</t>
+  </si>
+  <si>
+    <t>newProductList</t>
+  </si>
+  <si>
+    <t>brandList</t>
+  </si>
+  <si>
+    <t>subjectList</t>
   </si>
   <si>
     <t>advertiseList</t>
   </si>
   <si>
-    <t>brandList</t>
-  </si>
-  <si>
-    <t>newProductList</t>
-  </si>
-  <si>
-    <t>hotProductList</t>
-  </si>
-  <si>
     <t>homeFlashPromotion</t>
   </si>
   <si>
-    <t>subjectList</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
+    <t>memberReceiveAddressService</t>
+  </si>
+  <si>
+    <t>integrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>portalOrderDao</t>
+  </si>
+  <si>
     <t>orderSettingMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
   </si>
   <si>
+    <t>orderItemDao</t>
+  </si>
+  <si>
     <t>cancelOrderSender</t>
   </si>
   <si>
-    <t>integrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressService</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
-    <t>portalOrderDao</t>
-  </si>
-  <si>
-    <t>orderItemDao</t>
+    <t>productList</t>
+  </si>
+  <si>
+    <t>startTime</t>
   </si>
   <si>
     <t>nextStartTime</t>
   </si>
   <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>nextEndTime</t>
   </si>
   <si>
-    <t>productList</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
+    <t>promotionMessage</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>integration</t>
   </si>
   <si>
     <t>reduceAmount</t>
   </si>
   <si>
-    <t>promotionMessage</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>realStock</t>
   </si>
   <si>
+    <t>notifyUrl</t>
+  </si>
+  <si>
     <t>alipayPublicKey</t>
   </si>
   <si>
+    <t>gatewayUrl</t>
+  </si>
+  <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>appPrivateKey</t>
+  </si>
+  <si>
     <t>signType</t>
   </si>
   <si>
-    <t>notifyUrl</t>
-  </si>
-  <si>
-    <t>gatewayUrl</t>
-  </si>
-  <si>
     <t>charset</t>
   </si>
   <si>
     <t>returnUrl</t>
   </si>
   <si>
-    <t>appPrivateKey</t>
-  </si>
-  <si>
-    <t>appId</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
+    <t>flashPromotionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
+  </si>
+  <si>
+    <t>advertiseMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
+  </si>
+  <si>
+    <t>promotionSessionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
+  </si>
+  <si>
     <t>subjectMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
-    <t>advertiseMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
-  </si>
-  <si>
-    <t>promotionSessionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
-  </si>
-  <si>
-    <t>flashPromotionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
   </si>
   <si>
     <t>orderItemList</t>
@@ -20421,7 +20421,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>300</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -20449,7 +20449,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>97</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
@@ -20457,13 +20457,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>515</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -20491,7 +20491,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -20505,7 +20505,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -20547,7 +20547,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -20603,7 +20603,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -20807,13 +20807,13 @@
         <v>111</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -20821,13 +20821,13 @@
         <v>111</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -20877,13 +20877,13 @@
         <v>124</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>557</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -20891,13 +20891,13 @@
         <v>124</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37">
@@ -20905,13 +20905,13 @@
         <v>124</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38">
@@ -20919,13 +20919,13 @@
         <v>124</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>97</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39">
@@ -20989,13 +20989,13 @@
         <v>168</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>281</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44">
@@ -21003,13 +21003,13 @@
         <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45">
@@ -21149,7 +21149,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -21163,7 +21163,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56">
@@ -21191,7 +21191,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">
@@ -21205,7 +21205,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -21213,13 +21213,13 @@
         <v>492</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>577</v>
+        <v>511</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60">
@@ -21227,7 +21227,7 @@
         <v>492</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -21241,13 +21241,13 @@
         <v>492</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>97</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -21255,7 +21255,7 @@
         <v>208</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -21269,7 +21269,7 @@
         <v>208</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -21283,7 +21283,7 @@
         <v>208</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -21303,7 +21303,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66">
@@ -21317,7 +21317,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -21325,7 +21325,7 @@
         <v>215</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -21339,13 +21339,13 @@
         <v>215</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -21353,7 +21353,7 @@
         <v>215</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -21367,13 +21367,13 @@
         <v>215</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -21395,13 +21395,13 @@
         <v>215</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -21409,7 +21409,7 @@
         <v>215</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -21457,7 +21457,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>232</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -21471,7 +21471,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>239</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -21485,7 +21485,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79">
@@ -21513,7 +21513,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81">
@@ -21527,7 +21527,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>170</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
@@ -21549,7 +21549,7 @@
         <v>241</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -21577,13 +21577,13 @@
         <v>247</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86">
@@ -21591,7 +21591,7 @@
         <v>247</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -21605,13 +21605,13 @@
         <v>247</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88">
@@ -21619,13 +21619,13 @@
         <v>247</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89">
@@ -21633,7 +21633,7 @@
         <v>247</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
@@ -21647,13 +21647,13 @@
         <v>247</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -21703,13 +21703,13 @@
         <v>247</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -21717,13 +21717,13 @@
         <v>247</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -21731,7 +21731,7 @@
         <v>247</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -21745,13 +21745,13 @@
         <v>247</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -21759,7 +21759,7 @@
         <v>247</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -21773,7 +21773,7 @@
         <v>247</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
@@ -21787,13 +21787,13 @@
         <v>247</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101">
@@ -21801,13 +21801,13 @@
         <v>273</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102">
@@ -21815,13 +21815,13 @@
         <v>273</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>38</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103">
@@ -21829,13 +21829,13 @@
         <v>273</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>533</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -21843,7 +21843,7 @@
         <v>292</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
@@ -21933,7 +21933,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>180</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111">
@@ -21941,13 +21941,13 @@
         <v>295</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>613</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -21961,7 +21961,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -21975,7 +21975,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114">
@@ -21989,7 +21989,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115">
@@ -22011,13 +22011,13 @@
         <v>47</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117">
@@ -22025,7 +22025,7 @@
         <v>47</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -22039,7 +22039,7 @@
         <v>47</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
@@ -22053,7 +22053,7 @@
         <v>47</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
@@ -22067,7 +22067,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -22081,7 +22081,7 @@
         <v>47</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
@@ -22095,7 +22095,7 @@
         <v>47</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
@@ -22109,7 +22109,7 @@
         <v>47</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
@@ -22123,7 +22123,7 @@
         <v>47</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
@@ -22137,13 +22137,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126">
@@ -22179,13 +22179,13 @@
         <v>303</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>546</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129">
@@ -22193,13 +22193,13 @@
         <v>303</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>202</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130">
@@ -22213,7 +22213,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>428</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131">
@@ -22221,13 +22221,13 @@
         <v>303</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132">
@@ -22235,7 +22235,7 @@
         <v>303</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
@@ -22249,13 +22249,13 @@
         <v>303</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>626</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134">
@@ -22269,7 +22269,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>180</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135">
@@ -22322,10 +22322,10 @@
         <v>632</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139">
@@ -22336,10 +22336,10 @@
         <v>633</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140">
@@ -22375,13 +22375,13 @@
         <v>327</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>430</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143">
@@ -22389,13 +22389,13 @@
         <v>327</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>637</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144">
@@ -22403,13 +22403,13 @@
         <v>327</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>279</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145">
@@ -22417,13 +22417,13 @@
         <v>327</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>516</v>
+        <v>639</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>281</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146">
@@ -22431,13 +22431,13 @@
         <v>327</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>639</v>
+        <v>516</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147">
@@ -22451,7 +22451,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>232</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148">
@@ -22465,7 +22465,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149">
@@ -22479,7 +22479,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150">
@@ -22493,7 +22493,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
@@ -22521,7 +22521,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153">
@@ -22549,7 +22549,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
@@ -22557,13 +22557,13 @@
         <v>346</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156">
@@ -22571,13 +22571,13 @@
         <v>346</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>281</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157">
@@ -22585,13 +22585,13 @@
         <v>501</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>97</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158">
@@ -22599,13 +22599,13 @@
         <v>501</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>577</v>
+        <v>511</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159">
@@ -22675,7 +22675,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>353</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -22689,7 +22689,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>15</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165">
@@ -22697,13 +22697,13 @@
         <v>368</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>513</v>
+        <v>654</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166">
@@ -22711,13 +22711,13 @@
         <v>368</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>654</v>
+        <v>511</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167">
@@ -22725,13 +22725,13 @@
         <v>369</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168">
@@ -22753,13 +22753,13 @@
         <v>369</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>20</v>
+        <v>390</v>
       </c>
     </row>
     <row r="170">
@@ -22767,13 +22767,13 @@
         <v>369</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>637</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171">
@@ -22781,13 +22781,13 @@
         <v>369</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="172">
@@ -22795,13 +22795,13 @@
         <v>369</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>658</v>
+        <v>511</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
@@ -22809,13 +22809,13 @@
         <v>369</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>480</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
@@ -22823,13 +22823,13 @@
         <v>369</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>613</v>
+        <v>658</v>
       </c>
     </row>
     <row r="175">
@@ -22857,7 +22857,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177">
@@ -22865,13 +22865,13 @@
         <v>369</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>662</v>
+        <v>556</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>663</v>
+        <v>557</v>
       </c>
     </row>
     <row r="178">
@@ -22879,13 +22879,13 @@
         <v>369</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>280</v>
+        <v>663</v>
       </c>
     </row>
     <row r="179">
@@ -22893,13 +22893,13 @@
         <v>369</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>59</v>
+        <v>612</v>
       </c>
     </row>
     <row r="180">
@@ -22907,13 +22907,13 @@
         <v>369</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>97</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181">
@@ -22927,7 +22927,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>390</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182">
@@ -22935,7 +22935,7 @@
         <v>369</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
@@ -22949,13 +22949,13 @@
         <v>369</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>540</v>
+        <v>665</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>541</v>
+        <v>95</v>
       </c>
     </row>
     <row r="184">
@@ -22983,7 +22983,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
@@ -23011,7 +23011,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188">
@@ -23053,7 +23053,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -23067,7 +23067,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="192">
@@ -23095,7 +23095,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194">
@@ -23131,7 +23131,7 @@
         <v>18</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -23271,13 +23271,13 @@
         <v>456</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="207">
@@ -23313,13 +23313,13 @@
         <v>456</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>690</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210">
@@ -23327,13 +23327,13 @@
         <v>456</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>605</v>
+        <v>689</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>38</v>
+        <v>690</v>
       </c>
     </row>
     <row r="211">
@@ -23341,13 +23341,13 @@
         <v>456</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>532</v>
+        <v>691</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>533</v>
+        <v>692</v>
       </c>
     </row>
     <row r="212">
@@ -23355,13 +23355,13 @@
         <v>456</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>691</v>
+        <v>542</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>692</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213">
@@ -23369,7 +23369,7 @@
         <v>504</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -23397,7 +23397,7 @@
         <v>479</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
@@ -23439,7 +23439,7 @@
         <v>507</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -30491,7 +30491,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>714</v>
@@ -30508,7 +30508,7 @@
         <v>310</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>704</v>
@@ -30525,7 +30525,7 @@
         <v>310</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>714</v>
@@ -30542,7 +30542,7 @@
         <v>310</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>704</v>
@@ -30559,7 +30559,7 @@
         <v>310</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>704</v>
@@ -30576,7 +30576,7 @@
         <v>310</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>704</v>
@@ -30593,7 +30593,7 @@
         <v>310</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>704</v>
@@ -30610,7 +30610,7 @@
         <v>310</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>704</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8142" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9953" uniqueCount="778">
   <si>
     <t>Class Name</t>
   </si>
@@ -1555,55 +1557,97 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productDao</t>
+  </si>
+  <si>
     <t>memberService</t>
   </si>
   <si>
+    <t>cartItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
+  </si>
+  <si>
     <t>promotionService</t>
   </si>
   <si>
-    <t>cartItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
-  </si>
-  <si>
-    <t>productDao</t>
-  </si>
-  <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>coupon</t>
+  </si>
+  <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>coupon</t>
-  </si>
-  <si>
     <t>categoryRelationList</t>
   </si>
   <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>productLadderList</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>productAttributeList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>couponList</t>
+  </si>
+  <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>couponList</t>
-  </si>
-  <si>
-    <t>productFullReductionList</t>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>brandMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsBrandMapper</t>
+  </si>
+  <si>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
     <t>productMapper</t>
@@ -1612,63 +1656,21 @@
     <t>com.macro.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>brandMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsBrandMapper</t>
-  </si>
-  <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
-  </si>
-  <si>
     <t>portalProductDao</t>
   </si>
   <si>
+    <t>amqpTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.amqp.core.AmqpTemplate</t>
+  </si>
+  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>amqpTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.amqp.core.AmqpTemplate</t>
-  </si>
-  <si>
     <t>homeService</t>
   </si>
   <si>
@@ -1678,24 +1680,24 @@
     <t>children</t>
   </si>
   <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
+    <t>couponHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
+  </si>
+  <si>
     <t>couponProductCategoryRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
   </si>
   <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
-    <t>couponHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
-  </si>
-  <si>
     <t>couponProductRelationMapper</t>
   </si>
   <si>
@@ -1729,60 +1731,63 @@
     <t>memberId</t>
   </si>
   <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>brandLogo</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
     <t>memberIcon</t>
   </si>
   <si>
-    <t>brandLogo</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
     <t>memberCouponService</t>
   </si>
   <si>
     <t>cartItemService</t>
   </si>
   <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
     <t>productId</t>
   </si>
   <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
     <t>productPrice</t>
   </si>
   <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>integrationConsumeSetting</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
     <t>cartPromotionItemList</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
     <t>memberIntegration</t>
   </si>
   <si>
@@ -1792,51 +1797,48 @@
     <t>calcAmount</t>
   </si>
   <si>
-    <t>integrationConsumeSetting</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
     <t>outTradeNo</t>
   </si>
   <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
     <t>returnPhone</t>
   </si>
   <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>orderId</t>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>proofPics</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
   </si>
   <si>
     <t>productAttr</t>
   </si>
   <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -1846,12 +1848,12 @@
     <t>memberAttentionService</t>
   </si>
   <si>
+    <t>alipayService</t>
+  </si>
+  <si>
     <t>alipayConfig</t>
   </si>
   <si>
-    <t>alipayService</t>
-  </si>
-  <si>
     <t>returnApplyService</t>
   </si>
   <si>
@@ -1864,15 +1866,15 @@
     <t>REDIS_KEY_MEMBER</t>
   </si>
   <si>
+    <t>REDIS_EXPIRE_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
     <t>REDIS_KEY_AUTH_CODE</t>
   </si>
   <si>
-    <t>REDIS_EXPIRE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE_AUTH_CODE</t>
-  </si>
-  <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
@@ -1885,51 +1887,51 @@
     <t>memberCacheService</t>
   </si>
   <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>memberMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberMapper</t>
+  </si>
+  <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
     <t>request</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>memberMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberMapper</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
     <t>authService</t>
   </si>
   <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+    <t>QUEUE_TTL_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>QUEUE_ORDER_CANCEL</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>QUEUE_ORDER_CANCEL</t>
+    <t>routeKey</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>QUEUE_TTL_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
-    <t>routeKey</t>
-  </si>
-  <si>
     <t>alipayClient</t>
   </si>
   <si>
@@ -1942,21 +1944,21 @@
     <t>log</t>
   </si>
   <si>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>useIntegration</t>
+  </si>
+  <si>
     <t>memberReceiveAddressId</t>
   </si>
   <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>useIntegration</t>
-  </si>
-  <si>
     <t>cartIds</t>
   </si>
   <si>
-    <t>payType</t>
-  </si>
-  <si>
     <t>flashPromotionCount</t>
   </si>
   <si>
@@ -1966,37 +1968,49 @@
     <t>flashPromotionPrice</t>
   </si>
   <si>
+    <t>brandList</t>
+  </si>
+  <si>
+    <t>newProductList</t>
+  </si>
+  <si>
+    <t>subjectList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
+  </si>
+  <si>
     <t>hotProductList</t>
   </si>
   <si>
-    <t>newProductList</t>
-  </si>
-  <si>
-    <t>brandList</t>
-  </si>
-  <si>
-    <t>subjectList</t>
-  </si>
-  <si>
     <t>advertiseList</t>
   </si>
   <si>
-    <t>homeFlashPromotion</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
+    <t>integrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
+  </si>
+  <si>
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
     <t>memberReceiveAddressService</t>
   </si>
   <si>
-    <t>integrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
+    <t>portalOrderDao</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
+    <t>orderItemDao</t>
   </si>
   <si>
     <t>orderItemMapper</t>
@@ -2005,84 +2019,78 @@
     <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
   </si>
   <si>
-    <t>portalOrderDao</t>
-  </si>
-  <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>orderItemDao</t>
-  </si>
-  <si>
     <t>cancelOrderSender</t>
   </si>
   <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>nextEndTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>productList</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
     <t>nextStartTime</t>
   </si>
   <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>nextEndTime</t>
+    <t>reduceAmount</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>promotionMessage</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>reduceAmount</t>
-  </si>
-  <si>
     <t>realStock</t>
   </si>
   <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>alipayPublicKey</t>
+  </si>
+  <si>
     <t>notifyUrl</t>
   </si>
   <si>
-    <t>alipayPublicKey</t>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>signType</t>
+  </si>
+  <si>
+    <t>returnUrl</t>
   </si>
   <si>
     <t>gatewayUrl</t>
   </si>
   <si>
-    <t>appId</t>
-  </si>
-  <si>
     <t>appPrivateKey</t>
   </si>
   <si>
-    <t>signType</t>
-  </si>
-  <si>
-    <t>charset</t>
-  </si>
-  <si>
-    <t>returnUrl</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>flashPromotionMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
   </si>
   <si>
+    <t>subjectMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectMapper</t>
+  </si>
+  <si>
     <t>advertiseMapper</t>
   </si>
   <si>
@@ -2095,12 +2103,6 @@
     <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
-    <t>subjectMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
     <t>orderItemList</t>
   </si>
   <si>
@@ -2204,6 +2206,156 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>com.macro.mall.portal.config.RedisConfig</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -19451,6 +19603,6731 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C545"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D66"/>
@@ -20421,7 +27298,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>97</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -20435,7 +27312,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -20463,7 +27340,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>300</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -20491,7 +27368,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -20505,7 +27382,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -20547,7 +27424,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -20561,7 +27438,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -20631,7 +27508,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -20807,7 +27684,7 @@
         <v>111</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -20849,13 +27726,13 @@
         <v>124</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>553</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -20863,13 +27740,13 @@
         <v>124</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35">
@@ -20877,13 +27754,13 @@
         <v>124</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>97</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36">
@@ -20891,13 +27768,13 @@
         <v>124</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>529</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37">
@@ -20905,13 +27782,13 @@
         <v>124</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38">
@@ -20919,13 +27796,13 @@
         <v>124</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>559</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39">
@@ -20933,13 +27810,13 @@
         <v>124</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>480</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40">
@@ -20989,13 +27866,13 @@
         <v>168</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
@@ -21003,13 +27880,13 @@
         <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>281</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45">
@@ -21107,7 +27984,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52">
@@ -21163,7 +28040,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56">
@@ -21191,7 +28068,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -21213,7 +28090,7 @@
         <v>492</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -21255,7 +28132,7 @@
         <v>208</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -21269,7 +28146,7 @@
         <v>208</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -21283,7 +28160,7 @@
         <v>208</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -21303,7 +28180,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -21325,13 +28202,13 @@
         <v>215</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -21339,13 +28216,13 @@
         <v>215</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -21353,7 +28230,7 @@
         <v>215</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -21367,13 +28244,13 @@
         <v>215</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71">
@@ -21387,7 +28264,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
@@ -21395,7 +28272,7 @@
         <v>215</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -21409,7 +28286,7 @@
         <v>215</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -21457,7 +28334,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>15</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77">
@@ -21485,7 +28362,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>232</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -21499,7 +28376,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>15</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80">
@@ -21513,7 +28390,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>170</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -21527,7 +28404,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>239</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82">
@@ -21577,13 +28454,13 @@
         <v>247</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -21591,7 +28468,7 @@
         <v>247</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -21611,7 +28488,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
@@ -21619,13 +28496,13 @@
         <v>247</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -21633,13 +28510,13 @@
         <v>247</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90">
@@ -21647,13 +28524,13 @@
         <v>247</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91">
@@ -21661,7 +28538,7 @@
         <v>247</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -21675,13 +28552,13 @@
         <v>247</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -21737,7 +28614,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -21745,13 +28622,13 @@
         <v>247</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
@@ -21759,7 +28636,7 @@
         <v>247</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -21773,7 +28650,7 @@
         <v>247</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
@@ -21787,13 +28664,13 @@
         <v>247</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
@@ -21801,13 +28678,13 @@
         <v>273</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102">
@@ -21815,13 +28692,13 @@
         <v>273</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>529</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103">
@@ -21829,13 +28706,13 @@
         <v>273</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>605</v>
+        <v>532</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>38</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
@@ -21843,7 +28720,7 @@
         <v>292</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
@@ -21891,7 +28768,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108">
@@ -21905,7 +28782,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>305</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109">
@@ -21961,7 +28838,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113">
@@ -21989,7 +28866,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -22011,13 +28888,13 @@
         <v>47</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -22025,7 +28902,7 @@
         <v>47</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -22039,7 +28916,7 @@
         <v>47</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
@@ -22059,7 +28936,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120">
@@ -22067,7 +28944,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -22081,13 +28958,13 @@
         <v>47</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122">
@@ -22095,13 +28972,13 @@
         <v>47</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
@@ -22109,13 +28986,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
@@ -22123,7 +29000,7 @@
         <v>47</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
@@ -22137,13 +29014,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -22193,13 +29070,13 @@
         <v>303</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130">
@@ -22213,7 +29090,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>622</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -22221,13 +29098,13 @@
         <v>303</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132">
@@ -22235,13 +29112,13 @@
         <v>303</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>20</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133">
@@ -22269,7 +29146,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>428</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135">
@@ -22277,13 +29154,13 @@
         <v>303</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>629</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136">
@@ -22294,10 +29171,10 @@
         <v>630</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>20</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137">
@@ -22325,7 +29202,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
@@ -22336,10 +29213,10 @@
         <v>633</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -22353,7 +29230,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141">
@@ -22389,7 +29266,7 @@
         <v>327</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
@@ -22417,13 +29294,13 @@
         <v>327</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>639</v>
+        <v>516</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>546</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146">
@@ -22431,13 +29308,13 @@
         <v>327</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>516</v>
+        <v>639</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>281</v>
+        <v>548</v>
       </c>
     </row>
     <row r="147">
@@ -22451,7 +29328,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148">
@@ -22493,7 +29370,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151">
@@ -22507,7 +29384,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>232</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -22571,13 +29448,13 @@
         <v>346</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157">
@@ -22585,13 +29462,13 @@
         <v>501</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158">
@@ -22599,13 +29476,13 @@
         <v>501</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>97</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159">
@@ -22661,7 +29538,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>15</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163">
@@ -22689,7 +29566,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>353</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
@@ -22697,13 +29574,13 @@
         <v>368</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166">
@@ -22711,13 +29588,13 @@
         <v>368</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>511</v>
+        <v>654</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167">
@@ -22725,13 +29602,13 @@
         <v>369</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>538</v>
+        <v>655</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>539</v>
+        <v>656</v>
       </c>
     </row>
     <row r="168">
@@ -22739,13 +29616,13 @@
         <v>369</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>20</v>
+        <v>390</v>
       </c>
     </row>
     <row r="169">
@@ -22753,13 +29630,13 @@
         <v>369</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>390</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170">
@@ -22767,13 +29644,13 @@
         <v>369</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -22781,13 +29658,13 @@
         <v>369</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>637</v>
+        <v>512</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>638</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172">
@@ -22795,13 +29672,13 @@
         <v>369</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>511</v>
+        <v>617</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -22809,13 +29686,13 @@
         <v>369</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174">
@@ -22823,13 +29700,13 @@
         <v>369</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>658</v>
+        <v>555</v>
       </c>
     </row>
     <row r="175">
@@ -22837,13 +29714,13 @@
         <v>369</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>660</v>
+        <v>612</v>
       </c>
     </row>
     <row r="176">
@@ -22851,13 +29728,13 @@
         <v>369</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177">
@@ -22865,13 +29742,13 @@
         <v>369</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>556</v>
+        <v>659</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>557</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178">
@@ -22879,13 +29756,13 @@
         <v>369</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>663</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179">
@@ -22893,13 +29770,13 @@
         <v>369</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>612</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180">
@@ -22907,13 +29784,13 @@
         <v>369</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>480</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181">
@@ -22921,13 +29798,13 @@
         <v>369</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>280</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182">
@@ -22935,13 +29812,13 @@
         <v>369</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>415</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183">
@@ -22983,7 +29860,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186">
@@ -23025,7 +29902,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -23053,7 +29930,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191">
@@ -23095,7 +29972,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -23117,7 +29994,7 @@
         <v>18</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -23131,7 +30008,7 @@
         <v>18</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -23271,13 +30148,13 @@
         <v>456</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>528</v>
+        <v>685</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>529</v>
+        <v>686</v>
       </c>
     </row>
     <row r="207">
@@ -23285,13 +30162,13 @@
         <v>456</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="208">
@@ -23299,13 +30176,13 @@
         <v>456</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="209">
@@ -23327,13 +30204,13 @@
         <v>456</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="211">
@@ -23341,13 +30218,13 @@
         <v>456</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>691</v>
+        <v>528</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>692</v>
+        <v>529</v>
       </c>
     </row>
     <row r="212">
@@ -23369,7 +30246,7 @@
         <v>504</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -23397,7 +30274,7 @@
         <v>479</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
@@ -23439,7 +30316,7 @@
         <v>507</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -30491,7 +37368,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>714</v>
@@ -30542,7 +37419,7 @@
         <v>310</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>704</v>
@@ -30559,7 +37436,7 @@
         <v>310</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>704</v>
@@ -30576,7 +37453,7 @@
         <v>310</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>704</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -1563,15 +1563,15 @@
     <t>memberService</t>
   </si>
   <si>
+    <t>promotionService</t>
+  </si>
+  <si>
     <t>cartItemMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsCartItemMapper</t>
   </si>
   <si>
-    <t>promotionService</t>
-  </si>
-  <si>
     <t>portalOrderService</t>
   </si>
   <si>
@@ -1584,28 +1584,37 @@
     <t>categoryRelationList</t>
   </si>
   <si>
+    <t>couponList</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
+    <t>productLadderList</t>
+  </si>
+  <si>
     <t>productFullReductionList</t>
   </si>
   <si>
-    <t>productLadderList</t>
+    <t>productAttributeList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>couponList</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>portalProductDao</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
     <t>productCategoryMapper</t>
@@ -1614,6 +1623,12 @@
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
+  </si>
+  <si>
     <t>productFullReductionMapper</t>
   </si>
   <si>
@@ -1626,10 +1641,16 @@
     <t>com.macro.mall.mapper.PmsBrandMapper</t>
   </si>
   <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>productMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
     <t>productAttributeValueMapper</t>
@@ -1638,25 +1659,10 @@
     <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
   </si>
   <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>productMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductMapper</t>
-  </si>
-  <si>
-    <t>portalProductDao</t>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>amqpTemplate</t>
@@ -1665,12 +1671,6 @@
     <t>org.springframework.amqp.core.AmqpTemplate</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>homeService</t>
   </si>
   <si>
@@ -1680,6 +1680,15 @@
     <t>children</t>
   </si>
   <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>couponHistoryDao</t>
+  </si>
+  <si>
     <t>couponMapper</t>
   </si>
   <si>
@@ -1692,27 +1701,21 @@
     <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
   </si>
   <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
     <t>couponProductRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
   </si>
   <si>
-    <t>couponHistoryDao</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>payAmount</t>
+  </si>
+  <si>
     <t>totalAmount</t>
   </si>
   <si>
@@ -1722,49 +1725,49 @@
     <t>promotionAmount</t>
   </si>
   <si>
-    <t>payAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
     <t>memberId</t>
   </si>
   <si>
+    <t>brandLogo</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
     <t>createTime</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
     <t>memberNickname</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>brandLogo</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
     <t>memberCouponService</t>
   </si>
   <si>
     <t>cartItemService</t>
   </si>
   <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
     <t>productPic</t>
   </si>
   <si>
-    <t>productSubTitle</t>
+    <t>productPrice</t>
   </si>
   <si>
     <t>productName</t>
@@ -1773,72 +1776,69 @@
     <t>productId</t>
   </si>
   <si>
-    <t>productPrice</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>couponHistoryDetailList</t>
+  </si>
+  <si>
+    <t>cartPromotionItemList</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
+    <t>calcAmount</t>
+  </si>
+  <si>
     <t>integrationConsumeSetting</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>cartPromotionItemList</t>
-  </si>
-  <si>
     <t>memberIntegration</t>
   </si>
   <si>
-    <t>couponHistoryDetailList</t>
-  </si>
-  <si>
-    <t>calcAmount</t>
+    <t>outTradeNo</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t>outTradeNo</t>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>proofPics</t>
+  </si>
+  <si>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
   </si>
   <si>
     <t>returnName</t>
   </si>
   <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>orderSn</t>
+    <t>productBrand</t>
   </si>
   <si>
     <t>orderId</t>
   </si>
   <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>productAttr</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -1857,27 +1857,27 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>REDIS_EXPIRE_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_MEMBER</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
     <t>com.macro.mall.common.service.RedisService</t>
   </si>
   <si>
-    <t>REDIS_KEY_MEMBER</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE</t>
+    <t>REDIS_DATABASE</t>
   </si>
   <si>
     <t>REDIS_KEY_AUTH_CODE</t>
   </si>
   <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
     <t>val$delayTimes</t>
   </si>
   <si>
@@ -1887,51 +1887,54 @@
     <t>memberCacheService</t>
   </si>
   <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
+    <t>authService</t>
+  </si>
+  <si>
     <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
   </si>
   <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
     <t>memberMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMemberMapper</t>
   </si>
   <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
-  </si>
-  <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
     <t>request</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>authService</t>
+    <t>QUEUE_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>routeKey</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
   </si>
   <si>
     <t>QUEUE_TTL_ORDER_CANCEL</t>
   </si>
   <si>
-    <t>QUEUE_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>routeKey</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>alipayClient</t>
   </si>
   <si>
@@ -1941,7 +1944,10 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
-    <t>log</t>
+    <t>cartIds</t>
+  </si>
+  <si>
+    <t>useIntegration</t>
   </si>
   <si>
     <t>payType</t>
@@ -1950,45 +1956,63 @@
     <t>couponId</t>
   </si>
   <si>
-    <t>useIntegration</t>
-  </si>
-  <si>
     <t>memberReceiveAddressId</t>
   </si>
   <si>
-    <t>cartIds</t>
+    <t>flashPromotionPrice</t>
+  </si>
+  <si>
+    <t>flashPromotionLimit</t>
   </si>
   <si>
     <t>flashPromotionCount</t>
   </si>
   <si>
-    <t>flashPromotionLimit</t>
-  </si>
-  <si>
-    <t>flashPromotionPrice</t>
-  </si>
-  <si>
     <t>brandList</t>
   </si>
   <si>
+    <t>subjectList</t>
+  </si>
+  <si>
+    <t>hotProductList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
+  </si>
+  <si>
+    <t>advertiseList</t>
+  </si>
+  <si>
     <t>newProductList</t>
   </si>
   <si>
-    <t>subjectList</t>
-  </si>
-  <si>
-    <t>homeFlashPromotion</t>
-  </si>
-  <si>
-    <t>hotProductList</t>
-  </si>
-  <si>
-    <t>advertiseList</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressService</t>
+  </si>
+  <si>
+    <t>orderItemDao</t>
+  </si>
+  <si>
+    <t>portalOrderDao</t>
+  </si>
+  <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
     <t>integrationConsumeSettingMapper</t>
   </si>
   <si>
@@ -1998,85 +2022,61 @@
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
-    <t>memberReceiveAddressService</t>
-  </si>
-  <si>
-    <t>portalOrderDao</t>
-  </si>
-  <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>orderItemDao</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
-    <t>cancelOrderSender</t>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>productList</t>
   </si>
   <si>
     <t>startTime</t>
   </si>
   <si>
+    <t>nextStartTime</t>
+  </si>
+  <si>
     <t>nextEndTime</t>
   </si>
   <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>productList</t>
-  </si>
-  <si>
-    <t>nextStartTime</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>realStock</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>promotionMessage</t>
   </si>
   <si>
     <t>reduceAmount</t>
   </si>
   <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>promotionMessage</t>
-  </si>
-  <si>
-    <t>realStock</t>
+    <t>gatewayUrl</t>
+  </si>
+  <si>
+    <t>appPrivateKey</t>
+  </si>
+  <si>
+    <t>charset</t>
   </si>
   <si>
     <t>appId</t>
   </si>
   <si>
+    <t>returnUrl</t>
+  </si>
+  <si>
+    <t>notifyUrl</t>
+  </si>
+  <si>
+    <t>alipayPublicKey</t>
+  </si>
+  <si>
+    <t>signType</t>
+  </si>
+  <si>
     <t>format</t>
-  </si>
-  <si>
-    <t>alipayPublicKey</t>
-  </si>
-  <si>
-    <t>notifyUrl</t>
-  </si>
-  <si>
-    <t>charset</t>
-  </si>
-  <si>
-    <t>signType</t>
-  </si>
-  <si>
-    <t>returnUrl</t>
-  </si>
-  <si>
-    <t>gatewayUrl</t>
-  </si>
-  <si>
-    <t>appPrivateKey</t>
   </si>
   <si>
     <t>flashPromotionMapper</t>
@@ -27326,7 +27326,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>514</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -27334,13 +27334,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>166</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6">
@@ -27424,7 +27424,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -27438,7 +27438,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -27508,7 +27508,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -27522,7 +27522,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>529</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -27530,13 +27530,13 @@
         <v>85</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20">
@@ -27544,13 +27544,13 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21">
@@ -27558,13 +27558,13 @@
         <v>85</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22">
@@ -27572,13 +27572,13 @@
         <v>85</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23">
@@ -27586,13 +27586,13 @@
         <v>85</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24">
@@ -27600,13 +27600,13 @@
         <v>85</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25">
@@ -27614,13 +27614,13 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26">
@@ -27628,13 +27628,13 @@
         <v>85</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>300</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27">
@@ -27760,7 +27760,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>555</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36">
@@ -27768,13 +27768,13 @@
         <v>124</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37">
@@ -27782,13 +27782,13 @@
         <v>124</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38">
@@ -27796,13 +27796,13 @@
         <v>124</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39">
@@ -27810,13 +27810,13 @@
         <v>124</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40">
@@ -27880,13 +27880,13 @@
         <v>168</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45">
@@ -27984,7 +27984,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -28012,7 +28012,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54">
@@ -28040,7 +28040,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -28054,7 +28054,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57">
@@ -28090,13 +28090,13 @@
         <v>492</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>97</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60">
@@ -28104,13 +28104,13 @@
         <v>492</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>280</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
@@ -28118,13 +28118,13 @@
         <v>492</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
@@ -28132,7 +28132,7 @@
         <v>208</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -28146,7 +28146,7 @@
         <v>208</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -28160,7 +28160,7 @@
         <v>208</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -28202,13 +28202,13 @@
         <v>215</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -28216,7 +28216,7 @@
         <v>215</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -28230,7 +28230,7 @@
         <v>215</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -28244,13 +28244,13 @@
         <v>215</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -28258,13 +28258,13 @@
         <v>215</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -28272,7 +28272,7 @@
         <v>215</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -28286,13 +28286,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74">
@@ -28300,13 +28300,13 @@
         <v>215</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
@@ -28334,7 +28334,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>239</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -28376,7 +28376,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
@@ -28390,7 +28390,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>15</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81">
@@ -28404,7 +28404,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82">
@@ -28412,13 +28412,13 @@
         <v>241</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
@@ -28426,13 +28426,13 @@
         <v>241</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -28468,7 +28468,7 @@
         <v>247</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -28482,13 +28482,13 @@
         <v>247</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
@@ -28502,7 +28502,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
@@ -28510,13 +28510,13 @@
         <v>247</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -28524,13 +28524,13 @@
         <v>247</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -28538,7 +28538,7 @@
         <v>247</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -28552,13 +28552,13 @@
         <v>247</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93">
@@ -28566,7 +28566,7 @@
         <v>247</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -28580,7 +28580,7 @@
         <v>247</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
@@ -28594,7 +28594,7 @@
         <v>247</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
@@ -28614,7 +28614,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97">
@@ -28622,13 +28622,13 @@
         <v>247</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -28636,7 +28636,7 @@
         <v>247</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -28650,13 +28650,13 @@
         <v>247</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100">
@@ -28670,7 +28670,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101">
@@ -28678,13 +28678,13 @@
         <v>273</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>543</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -28692,13 +28692,13 @@
         <v>273</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>38</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103">
@@ -28706,13 +28706,13 @@
         <v>273</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104">
@@ -28810,7 +28810,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>612</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111">
@@ -28818,13 +28818,13 @@
         <v>295</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112">
@@ -28832,13 +28832,13 @@
         <v>295</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -28846,13 +28846,13 @@
         <v>295</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>180</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114">
@@ -28888,7 +28888,7 @@
         <v>47</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -28902,7 +28902,7 @@
         <v>47</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -28916,7 +28916,7 @@
         <v>47</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
@@ -28930,13 +28930,13 @@
         <v>47</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -28944,7 +28944,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -28958,13 +28958,13 @@
         <v>47</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
@@ -28972,13 +28972,13 @@
         <v>47</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123">
@@ -28986,13 +28986,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124">
@@ -29000,13 +29000,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125">
@@ -29014,7 +29014,7 @@
         <v>47</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -29070,13 +29070,13 @@
         <v>303</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130">
@@ -29090,7 +29090,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>20</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131">
@@ -29098,13 +29098,13 @@
         <v>303</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>623</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132">
@@ -29118,7 +29118,7 @@
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>625</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -29126,7 +29126,7 @@
         <v>303</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
@@ -29140,13 +29140,13 @@
         <v>303</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135">
@@ -29154,13 +29154,13 @@
         <v>303</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>428</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136">
@@ -29185,10 +29185,10 @@
         <v>631</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
@@ -29202,7 +29202,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139">
@@ -29213,10 +29213,10 @@
         <v>633</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>20</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140">
@@ -29230,7 +29230,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -29252,13 +29252,13 @@
         <v>327</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>279</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143">
@@ -29266,13 +29266,13 @@
         <v>327</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>609</v>
+        <v>516</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>430</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144">
@@ -29280,13 +29280,13 @@
         <v>327</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>638</v>
+        <v>546</v>
       </c>
     </row>
     <row r="145">
@@ -29294,13 +29294,13 @@
         <v>327</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>516</v>
+        <v>637</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146">
@@ -29308,13 +29308,13 @@
         <v>327</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>548</v>
+        <v>639</v>
       </c>
     </row>
     <row r="147">
@@ -29328,7 +29328,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>232</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -29342,7 +29342,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149">
@@ -29384,7 +29384,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152">
@@ -29398,7 +29398,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153">
@@ -29426,7 +29426,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155">
@@ -29448,13 +29448,13 @@
         <v>346</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157">
@@ -29462,13 +29462,13 @@
         <v>501</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>97</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158">
@@ -29476,13 +29476,13 @@
         <v>501</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159">
@@ -29574,13 +29574,13 @@
         <v>368</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>512</v>
+        <v>654</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166">
@@ -29588,13 +29588,13 @@
         <v>368</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167">
@@ -29602,13 +29602,13 @@
         <v>369</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>655</v>
+        <v>554</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>656</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168">
@@ -29616,13 +29616,13 @@
         <v>369</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>390</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
@@ -29630,13 +29630,13 @@
         <v>369</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170">
@@ -29644,13 +29644,13 @@
         <v>369</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>657</v>
+        <v>577</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171">
@@ -29658,13 +29658,13 @@
         <v>369</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>512</v>
+        <v>655</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>97</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172">
@@ -29672,13 +29672,13 @@
         <v>369</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>617</v>
+        <v>512</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
@@ -29686,13 +29686,13 @@
         <v>369</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>280</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174">
@@ -29700,13 +29700,13 @@
         <v>369</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>554</v>
+        <v>657</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>555</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175">
@@ -29714,13 +29714,13 @@
         <v>369</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>612</v>
+        <v>415</v>
       </c>
     </row>
     <row r="176">
@@ -29728,13 +29728,13 @@
         <v>369</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>658</v>
+        <v>557</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>116</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177">
@@ -29742,13 +29742,13 @@
         <v>369</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>59</v>
+        <v>639</v>
       </c>
     </row>
     <row r="178">
@@ -29756,13 +29756,13 @@
         <v>369</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>560</v>
+        <v>659</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>480</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179">
@@ -29770,13 +29770,13 @@
         <v>369</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>660</v>
+        <v>614</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>661</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180">
@@ -29784,13 +29784,13 @@
         <v>369</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>638</v>
+        <v>661</v>
       </c>
     </row>
     <row r="181">
@@ -29804,7 +29804,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>415</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182">
@@ -29832,7 +29832,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
@@ -29840,7 +29840,7 @@
         <v>391</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -29874,7 +29874,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -29902,7 +29902,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>15</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189">
@@ -29930,7 +29930,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191">
@@ -29986,7 +29986,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195">
@@ -29994,7 +29994,7 @@
         <v>18</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -30008,7 +30008,7 @@
         <v>18</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -30148,13 +30148,13 @@
         <v>456</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>685</v>
+        <v>605</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>686</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207">
@@ -30162,13 +30162,13 @@
         <v>456</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>687</v>
+        <v>531</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>688</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208">
@@ -30176,13 +30176,13 @@
         <v>456</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="209">
@@ -30190,13 +30190,13 @@
         <v>456</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>38</v>
+        <v>688</v>
       </c>
     </row>
     <row r="210">
@@ -30204,13 +30204,13 @@
         <v>456</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="211">
@@ -30218,13 +30218,13 @@
         <v>456</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212">
@@ -30232,13 +30232,13 @@
         <v>456</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>542</v>
+        <v>691</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>543</v>
+        <v>692</v>
       </c>
     </row>
     <row r="213">
@@ -30316,7 +30316,7 @@
         <v>507</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -37368,7 +37368,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>714</v>
@@ -37385,7 +37385,7 @@
         <v>310</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>704</v>
@@ -37402,7 +37402,7 @@
         <v>310</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>714</v>
@@ -37419,7 +37419,7 @@
         <v>310</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>704</v>
@@ -37436,7 +37436,7 @@
         <v>310</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>704</v>
@@ -37453,7 +37453,7 @@
         <v>310</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>704</v>
@@ -37470,7 +37470,7 @@
         <v>310</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>704</v>
@@ -37487,7 +37487,7 @@
         <v>310</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>704</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10142" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10142" uniqueCount="846">
   <si>
     <t>Class Name</t>
   </si>
@@ -2241,13 +2241,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>155</t>
+    <t>177</t>
   </si>
   <si>
     <t>6</t>
@@ -2295,225 +2292,228 @@
     <t>26</t>
   </si>
   <si>
-    <t>111</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>com.macro.mall.portal.config.RedisConfig</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>OmsCartItemServiceImpl()</t>
+  </si>
+  <si>
+    <t>OmsPortalOrderController()</t>
+  </si>
+  <si>
+    <t>SmsCouponHistoryDetail()</t>
+  </si>
+  <si>
+    <t>PmsPortalProductDetail()</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>PmsPortalProductServiceImpl()</t>
+  </si>
+  <si>
+    <t>CancelOrderSender()</t>
+  </si>
+  <si>
+    <t>HomeController()</t>
+  </si>
+  <si>
+    <t>SpringTaskConfig()</t>
+  </si>
+  <si>
+    <t>MemberCollectionServiceImpl()</t>
+  </si>
+  <si>
+    <t>PmsProductCategoryNode()</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>UmsMemberCouponServiceImpl()</t>
+  </si>
+  <si>
+    <t>OmsPromotionServiceImpl$2(com.macro.mall.portal.service.impl.OmsPromotionServiceImpl)</t>
+  </si>
+  <si>
+    <t>OmsPromotionServiceImpl$1(com.macro.mall.portal.service.impl.OmsPromotionServiceImpl)</t>
+  </si>
+  <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
+    <t>PortalBrandController()</t>
+  </si>
+  <si>
+    <t>OrderTimeOutCancelTask()</t>
+  </si>
+  <si>
+    <t>ConfirmOrderResult$CalcAmount()</t>
+  </si>
+  <si>
+    <t>PmsPortalProductController()</t>
+  </si>
+  <si>
+    <t>MemberBrandAttention()</t>
+  </si>
+  <si>
+    <t>UmsMemberCouponController()</t>
+  </si>
+  <si>
+    <t>PromotionProduct()</t>
+  </si>
+  <si>
+    <t>DateUtil()</t>
+  </si>
+  <si>
+    <t>MemberReadHistory()</t>
+  </si>
+  <si>
+    <t>MemberReadHistoryController()</t>
+  </si>
+  <si>
+    <t>ConfirmOrderResult()</t>
+  </si>
+  <si>
+    <t>AliPayParam()</t>
+  </si>
+  <si>
+    <t>OmsOrderReturnApplyParam()</t>
+  </si>
+  <si>
+    <t>PortalBrandServiceImpl()</t>
+  </si>
+  <si>
+    <t>AlipayClientConfig()</t>
+  </si>
+  <si>
+    <t>MemberAttentionServiceImpl()</t>
+  </si>
+  <si>
+    <t>MemberAttentionController()</t>
+  </si>
+  <si>
+    <t>AlipayController()</t>
+  </si>
+  <si>
+    <t>OmsPortalOrderReturnApplyController()</t>
+  </si>
+  <si>
+    <t>UmsMemberCacheServiceImpl()</t>
+  </si>
+  <si>
+    <t>MyBatisConfig()</t>
+  </si>
+  <si>
+    <t>MemberProductCollection()</t>
+  </si>
+  <si>
+    <t>CancelOrderSender$1(com.macro.mall.portal.component.CancelOrderSender, long)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>UmsMemberServiceImpl()</t>
+  </si>
+  <si>
+    <t>QueueEnum(java.lang.String, int, java.lang.String, java.lang.String, java.lang.String)</t>
+  </si>
+  <si>
+    <t>AlipayServiceImpl()</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>OrderParam()</t>
+  </si>
+  <si>
+    <t>FlashPromotionProduct()</t>
+  </si>
+  <si>
+    <t>CancelOrderReceiver()</t>
+  </si>
+  <si>
+    <t>JacksonConfig()</t>
+  </si>
+  <si>
+    <t>OmsCartItemController()</t>
+  </si>
+  <si>
+    <t>HomeContentResult()</t>
+  </si>
+  <si>
+    <t>MemberReadHistoryServiceImpl()</t>
+  </si>
+  <si>
+    <t>RedisConfig()</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>com.macro.mall.portal.config.RedisConfig</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>OmsCartItemServiceImpl()</t>
-  </si>
-  <si>
-    <t>OmsPortalOrderController()</t>
-  </si>
-  <si>
-    <t>SmsCouponHistoryDetail()</t>
-  </si>
-  <si>
-    <t>PmsPortalProductDetail()</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>PmsPortalProductServiceImpl()</t>
-  </si>
-  <si>
-    <t>CancelOrderSender()</t>
-  </si>
-  <si>
-    <t>HomeController()</t>
-  </si>
-  <si>
-    <t>SpringTaskConfig()</t>
-  </si>
-  <si>
-    <t>MemberCollectionServiceImpl()</t>
-  </si>
-  <si>
-    <t>PmsProductCategoryNode()</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>UmsMemberCouponServiceImpl()</t>
-  </si>
-  <si>
-    <t>OmsPromotionServiceImpl$2(com.macro.mall.portal.service.impl.OmsPromotionServiceImpl)</t>
-  </si>
-  <si>
-    <t>OmsPromotionServiceImpl$1(com.macro.mall.portal.service.impl.OmsPromotionServiceImpl)</t>
-  </si>
-  <si>
-    <t>SwaggerConfig()</t>
-  </si>
-  <si>
-    <t>PortalBrandController()</t>
-  </si>
-  <si>
-    <t>OrderTimeOutCancelTask()</t>
-  </si>
-  <si>
-    <t>ConfirmOrderResult$CalcAmount()</t>
-  </si>
-  <si>
-    <t>PmsPortalProductController()</t>
-  </si>
-  <si>
-    <t>MemberBrandAttention()</t>
-  </si>
-  <si>
-    <t>UmsMemberCouponController()</t>
-  </si>
-  <si>
-    <t>PromotionProduct()</t>
-  </si>
-  <si>
-    <t>DateUtil()</t>
-  </si>
-  <si>
-    <t>MemberReadHistory()</t>
-  </si>
-  <si>
-    <t>MemberReadHistoryController()</t>
-  </si>
-  <si>
-    <t>ConfirmOrderResult()</t>
-  </si>
-  <si>
-    <t>AliPayParam()</t>
-  </si>
-  <si>
-    <t>OmsOrderReturnApplyParam()</t>
-  </si>
-  <si>
-    <t>PortalBrandServiceImpl()</t>
-  </si>
-  <si>
-    <t>AlipayClientConfig()</t>
-  </si>
-  <si>
-    <t>MemberAttentionServiceImpl()</t>
-  </si>
-  <si>
-    <t>MemberAttentionController()</t>
-  </si>
-  <si>
-    <t>AlipayController()</t>
-  </si>
-  <si>
-    <t>OmsPortalOrderReturnApplyController()</t>
-  </si>
-  <si>
-    <t>UmsMemberCacheServiceImpl()</t>
-  </si>
-  <si>
-    <t>MyBatisConfig()</t>
-  </si>
-  <si>
-    <t>MemberProductCollection()</t>
-  </si>
-  <si>
-    <t>CancelOrderSender$1(com.macro.mall.portal.component.CancelOrderSender, long)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>UmsMemberServiceImpl()</t>
-  </si>
-  <si>
-    <t>QueueEnum(java.lang.String, int, java.lang.String, java.lang.String, java.lang.String)</t>
-  </si>
-  <si>
-    <t>AlipayServiceImpl()</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>OrderParam()</t>
-  </si>
-  <si>
-    <t>FlashPromotionProduct()</t>
-  </si>
-  <si>
-    <t>CancelOrderReceiver()</t>
-  </si>
-  <si>
-    <t>JacksonConfig()</t>
-  </si>
-  <si>
-    <t>OmsCartItemController()</t>
-  </si>
-  <si>
-    <t>HomeContentResult()</t>
-  </si>
-  <si>
-    <t>MemberReadHistoryServiceImpl()</t>
-  </si>
-  <si>
-    <t>RedisConfig()</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>OmsPortalOrderServiceImpl()</t>
   </si>
   <si>
@@ -2533,9 +2533,6 @@
   </si>
   <si>
     <t>AlipayConfig()</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>HomeServiceImpl()</t>
@@ -19919,7 +19916,7 @@
         <v>110</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14">
@@ -19927,7 +19924,7 @@
         <v>111</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15">
@@ -19951,7 +19948,7 @@
         <v>124</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18">
@@ -19959,7 +19956,7 @@
         <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19">
@@ -19967,7 +19964,7 @@
         <v>155</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20">
@@ -19975,7 +19972,7 @@
         <v>157</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21">
@@ -19983,7 +19980,7 @@
         <v>490</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22">
@@ -20015,7 +20012,7 @@
         <v>170</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26">
@@ -20023,7 +20020,7 @@
         <v>491</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27">
@@ -20031,7 +20028,7 @@
         <v>165</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28">
@@ -20039,7 +20036,7 @@
         <v>492</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29">
@@ -20087,7 +20084,7 @@
         <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35">
@@ -20095,7 +20092,7 @@
         <v>215</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="36">
@@ -20103,7 +20100,7 @@
         <v>494</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37">
@@ -20111,7 +20108,7 @@
         <v>226</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38">
@@ -20119,7 +20116,7 @@
         <v>241</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39">
@@ -20127,7 +20124,7 @@
         <v>247</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40">
@@ -20135,7 +20132,7 @@
         <v>273</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41">
@@ -20167,7 +20164,7 @@
         <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45">
@@ -20175,7 +20172,7 @@
         <v>495</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46">
@@ -20207,7 +20204,7 @@
         <v>295</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50">
@@ -20215,7 +20212,7 @@
         <v>296</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51">
@@ -20223,7 +20220,7 @@
         <v>47</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="52">
@@ -20231,7 +20228,7 @@
         <v>297</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53">
@@ -20247,7 +20244,7 @@
         <v>303</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55">
@@ -20263,7 +20260,7 @@
         <v>310</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="57">
@@ -20271,7 +20268,7 @@
         <v>327</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58">
@@ -20279,7 +20276,7 @@
         <v>328</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59">
@@ -20295,7 +20292,7 @@
         <v>346</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61">
@@ -20311,7 +20308,7 @@
         <v>501</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="63">
@@ -20319,7 +20316,7 @@
         <v>351</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="64">
@@ -20343,15 +20340,15 @@
         <v>368</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68">
@@ -20359,7 +20356,7 @@
         <v>369</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69">
@@ -20375,7 +20372,7 @@
         <v>391</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71">
@@ -20383,7 +20380,7 @@
         <v>353</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72">
@@ -20399,7 +20396,7 @@
         <v>417</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74">
@@ -20415,7 +20412,7 @@
         <v>18</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="76">
@@ -20423,7 +20420,7 @@
         <v>430</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77">
@@ -20431,7 +20428,7 @@
         <v>449</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78">
@@ -20439,7 +20436,7 @@
         <v>456</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79">
@@ -20447,7 +20444,7 @@
         <v>504</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="80">
@@ -20471,7 +20468,7 @@
         <v>466</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83">
@@ -20487,7 +20484,7 @@
         <v>479</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85">
@@ -20495,7 +20492,7 @@
         <v>506</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86">
@@ -20503,7 +20500,7 @@
         <v>507</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87">
@@ -20554,7 +20551,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3">
@@ -20565,7 +20562,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4">
@@ -20631,7 +20628,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10">
@@ -20653,7 +20650,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12">
@@ -20661,10 +20658,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13">
@@ -20837,10 +20834,10 @@
         <v>487</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29">
@@ -20958,10 +20955,10 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40">
@@ -21200,10 +21197,10 @@
         <v>66</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62">
@@ -21214,7 +21211,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63">
@@ -21225,7 +21222,7 @@
         <v>89</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="64">
@@ -21236,7 +21233,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65">
@@ -21258,7 +21255,7 @@
         <v>91</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67">
@@ -21269,7 +21266,7 @@
         <v>92</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68">
@@ -21280,7 +21277,7 @@
         <v>87</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69">
@@ -21291,7 +21288,7 @@
         <v>94</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70">
@@ -21299,10 +21296,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71">
@@ -21321,10 +21318,10 @@
         <v>95</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73">
@@ -21497,10 +21494,10 @@
         <v>489</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89">
@@ -21508,10 +21505,10 @@
         <v>110</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90">
@@ -21522,7 +21519,7 @@
         <v>113</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91">
@@ -21574,10 +21571,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96">
@@ -21662,10 +21659,10 @@
         <v>88</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104">
@@ -21676,7 +21673,7 @@
         <v>132</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>786</v>
+        <v>739</v>
       </c>
     </row>
     <row r="105">
@@ -21687,7 +21684,7 @@
         <v>128</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="106">
@@ -21698,7 +21695,7 @@
         <v>130</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="107">
@@ -21709,7 +21706,7 @@
         <v>125</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108">
@@ -21753,7 +21750,7 @@
         <v>129</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="112">
@@ -21764,7 +21761,7 @@
         <v>134</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="113">
@@ -21772,10 +21769,10 @@
         <v>124</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114">
@@ -21786,7 +21783,7 @@
         <v>146</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>739</v>
+        <v>708</v>
       </c>
     </row>
     <row r="115">
@@ -21797,7 +21794,7 @@
         <v>145</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116">
@@ -21805,10 +21802,10 @@
         <v>135</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
@@ -21819,7 +21816,7 @@
         <v>156</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>739</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118">
@@ -21830,7 +21827,7 @@
         <v>145</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119">
@@ -21838,10 +21835,10 @@
         <v>155</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120">
@@ -21871,10 +21868,10 @@
         <v>157</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="123">
@@ -21915,10 +21912,10 @@
         <v>490</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127">
@@ -21992,7 +21989,7 @@
         <v>168</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>708</v>
@@ -22091,10 +22088,10 @@
         <v>170</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143">
@@ -22135,10 +22132,10 @@
         <v>491</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="147">
@@ -22344,10 +22341,10 @@
         <v>165</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166">
@@ -22410,10 +22407,10 @@
         <v>492</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172">
@@ -22619,10 +22616,10 @@
         <v>208</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191">
@@ -22696,10 +22693,10 @@
         <v>212</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198">
@@ -22927,10 +22924,10 @@
         <v>215</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="219">
@@ -22982,10 +22979,10 @@
         <v>494</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="224">
@@ -23117,7 +23114,7 @@
         <v>229</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>739</v>
+        <v>708</v>
       </c>
     </row>
     <row r="236">
@@ -23125,10 +23122,10 @@
         <v>226</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="237">
@@ -23205,7 +23202,7 @@
         <v>8</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="244">
@@ -23246,10 +23243,10 @@
         <v>241</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="248">
@@ -23609,10 +23606,10 @@
         <v>247</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="281">
@@ -23653,10 +23650,10 @@
         <v>273</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="285">
@@ -23675,10 +23672,10 @@
         <v>277</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="287">
@@ -23865,7 +23862,7 @@
         <v>293</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="304">
@@ -23917,10 +23914,10 @@
         <v>292</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="309">
@@ -23983,10 +23980,10 @@
         <v>495</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="315">
@@ -24030,7 +24027,7 @@
         <v>498</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="319">
@@ -24041,7 +24038,7 @@
         <v>499</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="320">
@@ -24071,10 +24068,10 @@
         <v>496</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="323">
@@ -24093,10 +24090,10 @@
         <v>500</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="325">
@@ -24159,10 +24156,10 @@
         <v>295</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="331">
@@ -24170,10 +24167,10 @@
         <v>296</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="332">
@@ -24401,10 +24398,10 @@
         <v>47</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="353">
@@ -24415,7 +24412,7 @@
         <v>298</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="354">
@@ -24423,10 +24420,10 @@
         <v>297</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="355">
@@ -24492,7 +24489,7 @@
         <v>100</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="361">
@@ -24503,7 +24500,7 @@
         <v>102</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>815</v>
+        <v>737</v>
       </c>
     </row>
     <row r="362">
@@ -24514,7 +24511,7 @@
         <v>101</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>739</v>
+        <v>813</v>
       </c>
     </row>
     <row r="363">
@@ -24525,7 +24522,7 @@
         <v>98</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="364">
@@ -24547,7 +24544,7 @@
         <v>108</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="366">
@@ -24558,7 +24555,7 @@
         <v>105</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="367">
@@ -24577,10 +24574,10 @@
         <v>303</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="369">
@@ -24635,7 +24632,7 @@
         <v>316</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="374">
@@ -24646,7 +24643,7 @@
         <v>311</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="375">
@@ -24690,7 +24687,7 @@
         <v>324</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="379">
@@ -24698,10 +24695,10 @@
         <v>310</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="380">
@@ -24712,7 +24709,7 @@
         <v>308</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="381">
@@ -24723,7 +24720,7 @@
         <v>307</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="382">
@@ -24734,7 +24731,7 @@
         <v>309</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="383">
@@ -24745,7 +24742,7 @@
         <v>306</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="384">
@@ -24753,10 +24750,10 @@
         <v>327</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="385">
@@ -24888,7 +24885,7 @@
         <v>8</v>
       </c>
       <c r="C396" t="s" s="0">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="397">
@@ -24910,7 +24907,7 @@
         <v>28</v>
       </c>
       <c r="C398" t="s" s="0">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="399">
@@ -24918,10 +24915,10 @@
         <v>328</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C399" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="400">
@@ -24995,10 +24992,10 @@
         <v>339</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="407">
@@ -25017,10 +25014,10 @@
         <v>346</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="409">
@@ -25039,10 +25036,10 @@
         <v>348</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="411">
@@ -25138,10 +25135,10 @@
         <v>501</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="420">
@@ -25281,10 +25278,10 @@
         <v>351</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="433">
@@ -25339,7 +25336,7 @@
         <v>210</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="438">
@@ -25350,7 +25347,7 @@
         <v>211</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="439">
@@ -25380,21 +25377,21 @@
         <v>368</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="0">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="443">
@@ -25405,7 +25402,7 @@
         <v>287</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="444">
@@ -25416,7 +25413,7 @@
         <v>285</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="445">
@@ -25438,7 +25435,7 @@
         <v>169</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>786</v>
+        <v>827</v>
       </c>
     </row>
     <row r="447">
@@ -25449,7 +25446,7 @@
         <v>291</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="448">
@@ -25471,7 +25468,7 @@
         <v>290</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="450">
@@ -25482,7 +25479,7 @@
         <v>288</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="451">
@@ -25493,7 +25490,7 @@
         <v>86</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="452">
@@ -25504,7 +25501,7 @@
         <v>284</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="453">
@@ -25526,7 +25523,7 @@
         <v>380</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="455">
@@ -25537,7 +25534,7 @@
         <v>375</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>739</v>
+        <v>715</v>
       </c>
     </row>
     <row r="456">
@@ -25570,7 +25567,7 @@
         <v>377</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="459">
@@ -25581,7 +25578,7 @@
         <v>370</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="460">
@@ -25592,7 +25589,7 @@
         <v>385</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="461">
@@ -25647,7 +25644,7 @@
         <v>388</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>767</v>
+        <v>829</v>
       </c>
     </row>
     <row r="466">
@@ -25658,7 +25655,7 @@
         <v>382</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="467">
@@ -25680,7 +25677,7 @@
         <v>373</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="469">
@@ -25724,7 +25721,7 @@
         <v>386</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="473">
@@ -25735,7 +25732,7 @@
         <v>379</v>
       </c>
       <c r="C473" t="s" s="0">
-        <v>739</v>
+        <v>766</v>
       </c>
     </row>
     <row r="474">
@@ -25746,7 +25743,7 @@
         <v>384</v>
       </c>
       <c r="C474" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="475">
@@ -25757,7 +25754,7 @@
         <v>830</v>
       </c>
       <c r="C475" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="476">
@@ -25878,7 +25875,7 @@
         <v>397</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="487">
@@ -25900,7 +25897,7 @@
         <v>396</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="489">
@@ -25911,7 +25908,7 @@
         <v>401</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="490">
@@ -25933,7 +25930,7 @@
         <v>392</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="492">
@@ -25988,7 +25985,7 @@
         <v>832</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="497">
@@ -26109,7 +26106,7 @@
         <v>833</v>
       </c>
       <c r="C507" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="508">
@@ -26241,7 +26238,7 @@
         <v>834</v>
       </c>
       <c r="C519" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="520">
@@ -26307,7 +26304,7 @@
         <v>835</v>
       </c>
       <c r="C525" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="526">
@@ -26593,7 +26590,7 @@
         <v>450</v>
       </c>
       <c r="C551" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="552">
@@ -26604,7 +26601,7 @@
         <v>453</v>
       </c>
       <c r="C552" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="553">
@@ -26615,7 +26612,7 @@
         <v>455</v>
       </c>
       <c r="C553" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="554">
@@ -26626,7 +26623,7 @@
         <v>452</v>
       </c>
       <c r="C554" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="555">
@@ -26659,7 +26656,7 @@
         <v>352</v>
       </c>
       <c r="C557" t="s" s="0">
-        <v>837</v>
+        <v>757</v>
       </c>
     </row>
     <row r="558">
@@ -26670,7 +26667,7 @@
         <v>460</v>
       </c>
       <c r="C558" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="559">
@@ -26681,7 +26678,7 @@
         <v>459</v>
       </c>
       <c r="C559" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="560">
@@ -26692,7 +26689,7 @@
         <v>457</v>
       </c>
       <c r="C560" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="561">
@@ -26703,7 +26700,7 @@
         <v>462</v>
       </c>
       <c r="C561" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="562">
@@ -26711,10 +26708,10 @@
         <v>456</v>
       </c>
       <c r="B562" t="s" s="0">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C562" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="563">
@@ -26788,10 +26785,10 @@
         <v>504</v>
       </c>
       <c r="B569" t="s" s="0">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C569" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="570">
@@ -26821,10 +26818,10 @@
         <v>64</v>
       </c>
       <c r="B572" t="s" s="0">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C572" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="573">
@@ -26953,10 +26950,10 @@
         <v>466</v>
       </c>
       <c r="B584" t="s" s="0">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C584" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="585">
@@ -26975,10 +26972,10 @@
         <v>477</v>
       </c>
       <c r="B586" t="s" s="0">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C586" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="587">
@@ -27000,7 +26997,7 @@
         <v>114</v>
       </c>
       <c r="C588" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="589">
@@ -27011,7 +27008,7 @@
         <v>117</v>
       </c>
       <c r="C589" t="s" s="0">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="590">
@@ -27022,7 +27019,7 @@
         <v>119</v>
       </c>
       <c r="C590" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="591">
@@ -27033,7 +27030,7 @@
         <v>120</v>
       </c>
       <c r="C591" t="s" s="0">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="592">
@@ -27041,10 +27038,10 @@
         <v>479</v>
       </c>
       <c r="B592" t="s" s="0">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C592" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="593">
@@ -27107,10 +27104,10 @@
         <v>506</v>
       </c>
       <c r="B598" t="s" s="0">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C598" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="599">
@@ -27173,10 +27170,10 @@
         <v>507</v>
       </c>
       <c r="B604" t="s" s="0">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C604" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
     <row r="605">
@@ -27217,10 +27214,10 @@
         <v>483</v>
       </c>
       <c r="B608" t="s" s="0">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C608" t="s" s="0">
-        <v>739</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10364" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10388" uniqueCount="846">
   <si>
     <t>Class Name</t>
   </si>
@@ -1752,54 +1752,66 @@
     <t>promotionService</t>
   </si>
   <si>
+    <t>memberService</t>
+  </si>
+  <si>
     <t>cartItemMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsCartItemMapper</t>
   </si>
   <si>
-    <t>memberService</t>
-  </si>
-  <si>
     <t>productDao</t>
   </si>
   <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>categoryRelationList</t>
+  </si>
+  <si>
+    <t>productRelationList</t>
+  </si>
+  <si>
     <t>coupon</t>
   </si>
   <si>
-    <t>productRelationList</t>
-  </si>
-  <si>
-    <t>categoryRelationList</t>
+    <t>productLadderList</t>
+  </si>
+  <si>
+    <t>couponList</t>
+  </si>
+  <si>
+    <t>productAttributeList</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>couponList</t>
+    <t>skuStockList</t>
   </si>
   <si>
     <t>productAttributeValueList</t>
   </si>
   <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
     <t>productFullReductionList</t>
   </si>
   <si>
+    <t>brandMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsBrandMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
     <t>productMapper</t>
   </si>
   <si>
@@ -1815,42 +1827,30 @@
     <t>portalProductDao</t>
   </si>
   <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
     <t>productAttributeMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
     <t>productCategoryMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>brandMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsBrandMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -1875,24 +1875,24 @@
     <t>couponHistoryDao</t>
   </si>
   <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>couponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
     <t>couponHistoryMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
   </si>
   <si>
-    <t>couponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
     <t>couponMapper</t>
   </si>
   <si>
@@ -1905,132 +1905,132 @@
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>promotionAmount</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
     <t>payAmount</t>
   </si>
   <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
-    <t>promotionAmount</t>
-  </si>
-  <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
     <t>brandLogo</t>
   </si>
   <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>memberId</t>
   </si>
   <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
     <t>brandId</t>
   </si>
   <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>createTime</t>
   </si>
   <si>
+    <t>cartItemService</t>
+  </si>
+  <si>
     <t>memberCouponService</t>
   </si>
   <si>
-    <t>cartItemService</t>
+    <t>productId</t>
   </si>
   <si>
     <t>productName</t>
   </si>
   <si>
+    <t>productPrice</t>
+  </si>
+  <si>
     <t>productPic</t>
   </si>
   <si>
-    <t>productId</t>
-  </si>
-  <si>
     <t>productSubTitle</t>
   </si>
   <si>
-    <t>productPrice</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>calcAmount</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
+    <t>cartPromotionItemList</t>
+  </si>
+  <si>
+    <t>memberIntegration</t>
+  </si>
+  <si>
     <t>couponHistoryDetailList</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
     <t>integrationConsumeSetting</t>
   </si>
   <si>
-    <t>cartPromotionItemList</t>
-  </si>
-  <si>
-    <t>memberIntegration</t>
-  </si>
-  <si>
-    <t>calcAmount</t>
-  </si>
-  <si>
     <t>outTradeNo</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
     <t>proofPics</t>
   </si>
   <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>productAttr</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -2049,81 +2049,84 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>REDIS_KEY_MEMBER</t>
+  </si>
+  <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.macro.mall.common.service.RedisService</t>
+  </si>
+  <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
     <t>REDIS_EXPIRE_AUTH_CODE</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.macro.mall.common.service.RedisService</t>
-  </si>
-  <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
     <t>REDIS_KEY_AUTH_CODE</t>
   </si>
   <si>
-    <t>REDIS_KEY_MEMBER</t>
-  </si>
-  <si>
     <t>val$delayTimes</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>authService</t>
+  </si>
+  <si>
+    <t>memberCacheService</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>memberMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberMapper</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
     <t>AUTH_CODE_EXPIRE_SECONDS</t>
   </si>
   <si>
-    <t>memberMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberMapper</t>
-  </si>
-  <si>
-    <t>memberCacheService</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
-  </si>
-  <si>
-    <t>authService</t>
-  </si>
-  <si>
     <t>memberLevelMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
   </si>
   <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+    <t>QUEUE_ORDER_CANCEL</t>
   </si>
   <si>
     <t>routeKey</t>
   </si>
   <si>
-    <t>QUEUE_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
+    <t>QUEUE_TTL_ORDER_CANCEL</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>QUEUE_TTL_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
     <t>orderMapper</t>
   </si>
   <si>
@@ -2133,45 +2136,42 @@
     <t>alipayClient</t>
   </si>
   <si>
-    <t>log</t>
+    <t>cartIds</t>
   </si>
   <si>
     <t>useIntegration</t>
   </si>
   <si>
-    <t>cartIds</t>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>couponId</t>
   </si>
   <si>
     <t>memberReceiveAddressId</t>
   </si>
   <si>
-    <t>payType</t>
-  </si>
-  <si>
-    <t>couponId</t>
+    <t>flashPromotionPrice</t>
+  </si>
+  <si>
+    <t>flashPromotionCount</t>
   </si>
   <si>
     <t>flashPromotionLimit</t>
   </si>
   <si>
-    <t>flashPromotionPrice</t>
-  </si>
-  <si>
-    <t>flashPromotionCount</t>
+    <t>newProductList</t>
+  </si>
+  <si>
+    <t>advertiseList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
   </si>
   <si>
     <t>brandList</t>
   </si>
   <si>
-    <t>homeFlashPromotion</t>
-  </si>
-  <si>
-    <t>advertiseList</t>
-  </si>
-  <si>
-    <t>newProductList</t>
-  </si>
-  <si>
     <t>hotProductList</t>
   </si>
   <si>
@@ -2181,52 +2181,58 @@
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>portalOrderDao</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressService</t>
+  </si>
+  <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
     <t>integrationConsumeSettingMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
   </si>
   <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
-    <t>cancelOrderSender</t>
+    <t>orderItemDao</t>
   </si>
   <si>
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
-    <t>portalOrderDao</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressService</t>
-  </si>
-  <si>
-    <t>orderItemDao</t>
+    <t>productList</t>
+  </si>
+  <si>
+    <t>nextStartTime</t>
+  </si>
+  <si>
+    <t>nextEndTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
   </si>
   <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>nextEndTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>nextStartTime</t>
-  </si>
-  <si>
-    <t>productList</t>
+    <t>realStock</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>integration</t>
@@ -2235,21 +2241,24 @@
     <t>promotionMessage</t>
   </si>
   <si>
-    <t>realStock</t>
-  </si>
-  <si>
     <t>reduceAmount</t>
   </si>
   <si>
-    <t>growth</t>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>signType</t>
+  </si>
+  <si>
+    <t>appPrivateKey</t>
   </si>
   <si>
     <t>returnUrl</t>
   </si>
   <si>
-    <t>appId</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -2259,16 +2268,7 @@
     <t>gatewayUrl</t>
   </si>
   <si>
-    <t>appPrivateKey</t>
-  </si>
-  <si>
     <t>alipayPublicKey</t>
-  </si>
-  <si>
-    <t>signType</t>
-  </si>
-  <si>
-    <t>charset</t>
   </si>
   <si>
     <t>flashPromotionMapper</t>
@@ -21226,7 +21226,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C598"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21589,10 +21589,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34">
@@ -21600,7 +21600,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>772</v>
@@ -21611,7 +21611,7 @@
         <v>52</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>772</v>
@@ -21622,7 +21622,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>772</v>
@@ -21633,7 +21633,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>772</v>
@@ -21644,7 +21644,7 @@
         <v>52</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>772</v>
@@ -21652,13 +21652,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40">
@@ -21666,7 +21666,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>768</v>
@@ -21677,7 +21677,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>768</v>
@@ -21688,7 +21688,7 @@
         <v>61</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>768</v>
@@ -21699,7 +21699,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>768</v>
@@ -21707,13 +21707,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45">
@@ -21721,10 +21721,10 @@
         <v>68</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46">
@@ -21732,7 +21732,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>772</v>
@@ -21743,7 +21743,7 @@
         <v>68</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>772</v>
@@ -21754,7 +21754,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>772</v>
@@ -21765,7 +21765,7 @@
         <v>68</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>772</v>
@@ -21776,7 +21776,7 @@
         <v>68</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>772</v>
@@ -21787,7 +21787,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>772</v>
@@ -21798,7 +21798,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>772</v>
@@ -21809,7 +21809,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>772</v>
@@ -21820,7 +21820,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>772</v>
@@ -21831,7 +21831,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>772</v>
@@ -21842,7 +21842,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>772</v>
@@ -21853,7 +21853,7 @@
         <v>68</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>772</v>
@@ -21864,7 +21864,7 @@
         <v>68</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>772</v>
@@ -21875,7 +21875,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>772</v>
@@ -21883,24 +21883,24 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62">
@@ -21908,10 +21908,10 @@
         <v>88</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>805</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63">
@@ -21919,10 +21919,10 @@
         <v>88</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>837</v>
+        <v>807</v>
       </c>
     </row>
     <row r="64">
@@ -21930,10 +21930,10 @@
         <v>88</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>779</v>
+        <v>805</v>
       </c>
     </row>
     <row r="65">
@@ -21941,10 +21941,10 @@
         <v>88</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>768</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66">
@@ -21952,10 +21952,10 @@
         <v>88</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67">
@@ -21963,7 +21963,7 @@
         <v>88</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>768</v>
@@ -21974,7 +21974,7 @@
         <v>88</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>768</v>
@@ -21982,21 +21982,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>801</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>768</v>
@@ -22004,10 +22004,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>768</v>
@@ -22015,13 +22015,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73">
@@ -22029,7 +22029,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>768</v>
@@ -22040,7 +22040,7 @@
         <v>102</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>768</v>
@@ -22051,7 +22051,7 @@
         <v>102</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>768</v>
@@ -22062,7 +22062,7 @@
         <v>102</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>768</v>
@@ -22073,7 +22073,7 @@
         <v>102</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>768</v>
@@ -22084,7 +22084,7 @@
         <v>102</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>768</v>
@@ -22092,10 +22092,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>542</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>768</v>
@@ -22103,24 +22103,24 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>496</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82">
@@ -22128,10 +22128,10 @@
         <v>541</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83">
@@ -22139,7 +22139,7 @@
         <v>541</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>796</v>
@@ -22150,7 +22150,7 @@
         <v>541</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>796</v>
@@ -22161,7 +22161,7 @@
         <v>541</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>796</v>
@@ -22169,21 +22169,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>120</v>
+        <v>498</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>121</v>
+        <v>497</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>796</v>
@@ -22191,13 +22191,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>119</v>
+        <v>500</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89">
@@ -22205,10 +22205,10 @@
         <v>117</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90">
@@ -22216,54 +22216,54 @@
         <v>117</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="95">
@@ -22271,7 +22271,7 @@
         <v>123</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>768</v>
@@ -22279,32 +22279,32 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>768</v>
@@ -22312,35 +22312,35 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>803</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>816</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="102">
@@ -22348,10 +22348,10 @@
         <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>838</v>
+        <v>768</v>
       </c>
     </row>
     <row r="103">
@@ -22359,10 +22359,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104">
@@ -22370,10 +22370,10 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>796</v>
+        <v>816</v>
       </c>
     </row>
     <row r="105">
@@ -22381,10 +22381,10 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>782</v>
+        <v>836</v>
       </c>
     </row>
     <row r="106">
@@ -22392,10 +22392,10 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="107">
@@ -22403,161 +22403,161 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>836</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>768</v>
+        <v>836</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>768</v>
+        <v>836</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>544</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>176</v>
+        <v>544</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>768</v>
@@ -22565,98 +22565,98 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>772</v>
@@ -22664,13 +22664,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="132">
@@ -22678,10 +22678,10 @@
         <v>184</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="133">
@@ -22689,7 +22689,7 @@
         <v>184</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>772</v>
@@ -22697,54 +22697,54 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>546</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>772</v>
@@ -22752,10 +22752,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>772</v>
@@ -22763,10 +22763,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>772</v>
@@ -22774,46 +22774,46 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>209</v>
+        <v>546</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="145">
@@ -22821,10 +22821,10 @@
         <v>178</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146">
@@ -22832,7 +22832,7 @@
         <v>178</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>772</v>
@@ -22843,7 +22843,7 @@
         <v>178</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>772</v>
@@ -22854,7 +22854,7 @@
         <v>178</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>772</v>
@@ -22865,7 +22865,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>772</v>
@@ -22876,7 +22876,7 @@
         <v>178</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>772</v>
@@ -22887,7 +22887,7 @@
         <v>178</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>772</v>
@@ -22898,7 +22898,7 @@
         <v>178</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>772</v>
@@ -22909,7 +22909,7 @@
         <v>178</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>772</v>
@@ -22920,7 +22920,7 @@
         <v>178</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>772</v>
@@ -22931,7 +22931,7 @@
         <v>178</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>772</v>
@@ -22939,98 +22939,98 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>549</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>548</v>
+        <v>201</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>119</v>
+        <v>549</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>768</v>
@@ -23038,65 +23038,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>216</v>
+        <v>547</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>216</v>
+        <v>547</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>49</v>
+        <v>548</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>218</v>
+        <v>547</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>768</v>
@@ -23104,10 +23104,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>768</v>
@@ -23115,10 +23115,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>768</v>
@@ -23126,10 +23126,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>768</v>
@@ -23137,10 +23137,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>768</v>
@@ -23148,76 +23148,76 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>768</v>
@@ -23225,10 +23225,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>768</v>
@@ -23236,145 +23236,145 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196">
@@ -23382,10 +23382,10 @@
         <v>233</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="197">
@@ -23393,7 +23393,7 @@
         <v>233</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>772</v>
@@ -23404,7 +23404,7 @@
         <v>233</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>772</v>
@@ -23415,7 +23415,7 @@
         <v>233</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>772</v>
@@ -23426,7 +23426,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>772</v>
@@ -23437,7 +23437,7 @@
         <v>233</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>772</v>
@@ -23448,7 +23448,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>772</v>
@@ -23459,7 +23459,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>772</v>
@@ -23470,7 +23470,7 @@
         <v>233</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>772</v>
@@ -23481,7 +23481,7 @@
         <v>233</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>772</v>
@@ -23492,7 +23492,7 @@
         <v>233</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>772</v>
@@ -23503,7 +23503,7 @@
         <v>233</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>772</v>
@@ -23514,7 +23514,7 @@
         <v>233</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>772</v>
@@ -23522,76 +23522,76 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>551</v>
+        <v>234</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>772</v>
@@ -23599,10 +23599,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>772</v>
@@ -23610,57 +23610,57 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>256</v>
+        <v>551</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="222">
@@ -23668,10 +23668,10 @@
         <v>245</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223">
@@ -23679,7 +23679,7 @@
         <v>245</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>772</v>
@@ -23690,7 +23690,7 @@
         <v>245</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>772</v>
@@ -23701,7 +23701,7 @@
         <v>245</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>772</v>
@@ -23712,7 +23712,7 @@
         <v>245</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>772</v>
@@ -23720,21 +23720,21 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>772</v>
@@ -23742,10 +23742,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>772</v>
@@ -23753,10 +23753,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>772</v>
@@ -23764,10 +23764,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>772</v>
@@ -23775,10 +23775,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>772</v>
@@ -23786,10 +23786,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>772</v>
@@ -23797,13 +23797,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>824</v>
+        <v>772</v>
       </c>
     </row>
     <row r="235">
@@ -23811,10 +23811,10 @@
         <v>261</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236">
@@ -23822,10 +23822,10 @@
         <v>261</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>800</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237">
@@ -23833,7 +23833,7 @@
         <v>261</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>772</v>
@@ -23841,21 +23841,21 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>772</v>
@@ -23863,10 +23863,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>772</v>
@@ -23874,10 +23874,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>772</v>
@@ -23885,21 +23885,21 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>772</v>
+        <v>824</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>772</v>
@@ -23907,21 +23907,21 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>772</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>772</v>
@@ -23932,10 +23932,10 @@
         <v>268</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="247">
@@ -23943,7 +23943,7 @@
         <v>268</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>772</v>
@@ -23954,7 +23954,7 @@
         <v>268</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>772</v>
@@ -23965,7 +23965,7 @@
         <v>268</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>772</v>
@@ -23976,7 +23976,7 @@
         <v>268</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>772</v>
@@ -23987,7 +23987,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>772</v>
@@ -23998,7 +23998,7 @@
         <v>268</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>772</v>
@@ -24009,7 +24009,7 @@
         <v>268</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>772</v>
@@ -24020,7 +24020,7 @@
         <v>268</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>772</v>
@@ -24031,7 +24031,7 @@
         <v>268</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>772</v>
@@ -24042,7 +24042,7 @@
         <v>268</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>772</v>
@@ -24053,7 +24053,7 @@
         <v>268</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>772</v>
@@ -24064,7 +24064,7 @@
         <v>268</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>772</v>
@@ -24075,7 +24075,7 @@
         <v>268</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>772</v>
@@ -24086,7 +24086,7 @@
         <v>268</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>772</v>
@@ -24097,7 +24097,7 @@
         <v>268</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>772</v>
@@ -24108,7 +24108,7 @@
         <v>268</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>772</v>
@@ -24119,7 +24119,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>772</v>
@@ -24130,7 +24130,7 @@
         <v>268</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>772</v>
@@ -24141,7 +24141,7 @@
         <v>268</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>772</v>
@@ -24152,7 +24152,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>772</v>
@@ -24163,7 +24163,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>772</v>
@@ -24174,7 +24174,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>772</v>
@@ -24185,7 +24185,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>772</v>
@@ -24196,7 +24196,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>772</v>
@@ -24204,32 +24204,32 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>772</v>
@@ -24237,32 +24237,32 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>772</v>
@@ -24270,32 +24270,32 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>768</v>
@@ -24303,43 +24303,43 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>768</v>
@@ -24347,21 +24347,21 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>768</v>
@@ -24369,10 +24369,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>768</v>
@@ -24380,10 +24380,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>768</v>
@@ -24391,10 +24391,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>768</v>
@@ -24402,10 +24402,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>768</v>
@@ -24416,7 +24416,7 @@
         <v>305</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>768</v>
@@ -24427,7 +24427,7 @@
         <v>305</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>768</v>
@@ -24438,7 +24438,7 @@
         <v>305</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>768</v>
@@ -24446,10 +24446,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>768</v>
@@ -24457,65 +24457,65 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>829</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>553</v>
+        <v>308</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>768</v>
@@ -24523,43 +24523,43 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>796</v>
+        <v>829</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>796</v>
@@ -24567,43 +24567,43 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>319</v>
+        <v>552</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>297</v>
+        <v>553</v>
       </c>
       <c r="C307" t="s" s="0">
         <v>768</v>
@@ -24611,65 +24611,65 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>556</v>
+        <v>121</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>805</v>
+        <v>779</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>557</v>
+        <v>119</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>782</v>
+        <v>796</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>560</v>
+        <v>296</v>
       </c>
       <c r="C313" t="s" s="0">
         <v>768</v>
@@ -24677,21 +24677,21 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>768</v>
@@ -24699,65 +24699,65 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>222</v>
+        <v>558</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>219</v>
+        <v>556</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>220</v>
+        <v>557</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>221</v>
+        <v>555</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>322</v>
+        <v>559</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>323</v>
+        <v>560</v>
       </c>
       <c r="C321" t="s" s="0">
         <v>768</v>
@@ -24765,90 +24765,90 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>48</v>
+        <v>559</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="330">
@@ -24856,10 +24856,10 @@
         <v>48</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="331">
@@ -24867,7 +24867,7 @@
         <v>48</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C331" t="s" s="0">
         <v>772</v>
@@ -24878,7 +24878,7 @@
         <v>48</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>772</v>
@@ -24889,7 +24889,7 @@
         <v>48</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>772</v>
@@ -24900,7 +24900,7 @@
         <v>48</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>772</v>
@@ -24911,7 +24911,7 @@
         <v>48</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>772</v>
@@ -24922,7 +24922,7 @@
         <v>48</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>772</v>
@@ -24933,7 +24933,7 @@
         <v>48</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>772</v>
@@ -24944,7 +24944,7 @@
         <v>48</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>772</v>
@@ -24955,7 +24955,7 @@
         <v>48</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>772</v>
@@ -24966,7 +24966,7 @@
         <v>48</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>772</v>
@@ -24977,7 +24977,7 @@
         <v>48</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>772</v>
@@ -24988,7 +24988,7 @@
         <v>48</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>772</v>
@@ -24996,87 +24996,87 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>772</v>
@@ -25084,57 +25084,57 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>819</v>
+        <v>768</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>839</v>
+        <v>768</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>829</v>
+        <v>768</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356">
@@ -25142,10 +25142,10 @@
         <v>332</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="357">
@@ -25153,10 +25153,10 @@
         <v>332</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>835</v>
+        <v>801</v>
       </c>
     </row>
     <row r="358">
@@ -25164,128 +25164,128 @@
         <v>332</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>768</v>
+        <v>819</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>768</v>
+        <v>839</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>768</v>
+        <v>829</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>345</v>
+        <v>109</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>768</v>
+        <v>836</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>794</v>
+        <v>835</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>768</v>
@@ -25293,10 +25293,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>768</v>
@@ -25304,65 +25304,65 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>812</v>
+        <v>768</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>818</v>
+        <v>768</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>834</v>
+        <v>794</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>812</v>
+        <v>772</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>772</v>
@@ -25370,68 +25370,68 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>772</v>
+        <v>812</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>772</v>
+        <v>818</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>772</v>
+        <v>834</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>772</v>
+        <v>812</v>
       </c>
     </row>
     <row r="383">
@@ -25439,10 +25439,10 @@
         <v>360</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="384">
@@ -25450,7 +25450,7 @@
         <v>360</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>772</v>
@@ -25461,7 +25461,7 @@
         <v>360</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>772</v>
@@ -25472,7 +25472,7 @@
         <v>360</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>772</v>
@@ -25483,10 +25483,10 @@
         <v>360</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="C387" t="s" s="0">
-        <v>840</v>
+        <v>772</v>
       </c>
     </row>
     <row r="388">
@@ -25494,7 +25494,7 @@
         <v>360</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>772</v>
@@ -25505,29 +25505,29 @@
         <v>360</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>839</v>
+        <v>772</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>772</v>
@@ -25535,10 +25535,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>772</v>
@@ -25546,10 +25546,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>772</v>
@@ -25557,10 +25557,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>772</v>
@@ -25568,21 +25568,21 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="C395" t="s" s="0">
-        <v>772</v>
+        <v>840</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="C396" t="s" s="0">
         <v>772</v>
@@ -25590,109 +25590,109 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="0">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>768</v>
+        <v>839</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="0">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C398" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="0">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C399" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s" s="0">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C400" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>563</v>
+        <v>375</v>
       </c>
       <c r="C401" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="C402" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="C403" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>562</v>
+        <v>376</v>
       </c>
       <c r="C404" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>564</v>
+        <v>381</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="0">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>18</v>
+        <v>382</v>
       </c>
       <c r="C406" t="s" s="0">
         <v>796</v>
@@ -25700,24 +25700,24 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>561</v>
+        <v>383</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>31</v>
+        <v>386</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>561</v>
+        <v>383</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="409">
@@ -25725,98 +25725,98 @@
         <v>561</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>122</v>
+        <v>563</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>395</v>
+        <v>24</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="C411" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>397</v>
+        <v>562</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>388</v>
+        <v>564</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>399</v>
+        <v>18</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>400</v>
+        <v>31</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>398</v>
+        <v>122</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="418">
@@ -25824,10 +25824,10 @@
         <v>387</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="419">
@@ -25835,7 +25835,7 @@
         <v>387</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C419" t="s" s="0">
         <v>772</v>
@@ -25846,7 +25846,7 @@
         <v>387</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C420" t="s" s="0">
         <v>772</v>
@@ -25857,7 +25857,7 @@
         <v>387</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>772</v>
@@ -25868,7 +25868,7 @@
         <v>387</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C422" t="s" s="0">
         <v>772</v>
@@ -25876,109 +25876,109 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>93</v>
+        <v>400</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>119</v>
+        <v>393</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="0">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>408</v>
+        <v>92</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>768</v>
@@ -25986,10 +25986,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="C433" t="s" s="0">
         <v>768</v>
@@ -25997,79 +25997,79 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>810</v>
+        <v>768</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>841</v>
+        <v>768</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>800</v>
+        <v>836</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>315</v>
+        <v>119</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>314</v>
+        <v>408</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>829</v>
+        <v>768</v>
       </c>
     </row>
     <row r="441">
@@ -26077,10 +26077,10 @@
         <v>409</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>843</v>
+        <v>768</v>
       </c>
     </row>
     <row r="442">
@@ -26088,10 +26088,10 @@
         <v>409</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>836</v>
+        <v>810</v>
       </c>
     </row>
     <row r="443">
@@ -26099,10 +26099,10 @@
         <v>409</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="444">
@@ -26110,10 +26110,10 @@
         <v>409</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="445">
@@ -26121,10 +26121,10 @@
         <v>409</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>420</v>
+        <v>182</v>
       </c>
       <c r="C445" t="s" s="0">
-        <v>816</v>
+        <v>842</v>
       </c>
     </row>
     <row r="446">
@@ -26132,10 +26132,10 @@
         <v>409</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>779</v>
+        <v>809</v>
       </c>
     </row>
     <row r="447">
@@ -26143,10 +26143,10 @@
         <v>409</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>430</v>
+        <v>307</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="448">
@@ -26154,10 +26154,10 @@
         <v>409</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>779</v>
+        <v>829</v>
       </c>
     </row>
     <row r="449">
@@ -26165,10 +26165,10 @@
         <v>409</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>829</v>
+        <v>843</v>
       </c>
     </row>
     <row r="450">
@@ -26176,10 +26176,10 @@
         <v>409</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>410</v>
+        <v>89</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>805</v>
+        <v>836</v>
       </c>
     </row>
     <row r="451">
@@ -26187,10 +26187,10 @@
         <v>409</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>426</v>
+        <v>308</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="452">
@@ -26198,10 +26198,10 @@
         <v>409</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453">
@@ -26209,10 +26209,10 @@
         <v>409</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C453" t="s" s="0">
-        <v>801</v>
+        <v>816</v>
       </c>
     </row>
     <row r="454">
@@ -26220,10 +26220,10 @@
         <v>409</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="455">
@@ -26231,10 +26231,10 @@
         <v>409</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="456">
@@ -26242,10 +26242,10 @@
         <v>409</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C456" t="s" s="0">
-        <v>844</v>
+        <v>779</v>
       </c>
     </row>
     <row r="457">
@@ -26253,7 +26253,7 @@
         <v>409</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C457" t="s" s="0">
         <v>829</v>
@@ -26264,10 +26264,10 @@
         <v>409</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>779</v>
+        <v>805</v>
       </c>
     </row>
     <row r="459">
@@ -26275,10 +26275,10 @@
         <v>409</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>803</v>
+        <v>835</v>
       </c>
     </row>
     <row r="460">
@@ -26286,10 +26286,10 @@
         <v>409</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="461">
@@ -26297,10 +26297,10 @@
         <v>409</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="462">
@@ -26308,10 +26308,10 @@
         <v>409</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C462" t="s" s="0">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="463">
@@ -26319,10 +26319,10 @@
         <v>409</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C463" t="s" s="0">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="464">
@@ -26330,10 +26330,10 @@
         <v>409</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="465">
@@ -26341,95 +26341,95 @@
         <v>409</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>768</v>
+        <v>829</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>24</v>
+        <v>418</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>15</v>
+        <v>413</v>
       </c>
       <c r="C467" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>17</v>
+        <v>423</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C469" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="C470" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>18</v>
+        <v>427</v>
       </c>
       <c r="C471" t="s" s="0">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>31</v>
+        <v>419</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>768</v>
+        <v>829</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="C473" t="s" s="0">
         <v>768</v>
@@ -26437,10 +26437,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>440</v>
+        <v>24</v>
       </c>
       <c r="C474" t="s" s="0">
         <v>768</v>
@@ -26448,79 +26448,79 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="C475" t="s" s="0">
-        <v>845</v>
+        <v>768</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="C476" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>438</v>
+        <v>22</v>
       </c>
       <c r="C477" t="s" s="0">
-        <v>839</v>
+        <v>768</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>442</v>
+        <v>34</v>
       </c>
       <c r="C478" t="s" s="0">
-        <v>800</v>
+        <v>768</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>437</v>
+        <v>18</v>
       </c>
       <c r="C479" t="s" s="0">
-        <v>839</v>
+        <v>768</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>806</v>
+        <v>768</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>435</v>
+        <v>33</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>800</v>
+        <v>768</v>
       </c>
     </row>
     <row r="482">
@@ -26528,10 +26528,10 @@
         <v>432</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>806</v>
+        <v>768</v>
       </c>
     </row>
     <row r="483">
@@ -26539,10 +26539,10 @@
         <v>432</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>439</v>
+        <v>180</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>779</v>
+        <v>845</v>
       </c>
     </row>
     <row r="484">
@@ -26550,10 +26550,10 @@
         <v>432</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="485">
@@ -26561,10 +26561,10 @@
         <v>432</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>782</v>
+        <v>839</v>
       </c>
     </row>
     <row r="486">
@@ -26572,98 +26572,98 @@
         <v>432</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>768</v>
+        <v>839</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>772</v>
+        <v>806</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>772</v>
+        <v>800</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>772</v>
+        <v>806</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C494" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="495">
@@ -26671,10 +26671,10 @@
         <v>389</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="496">
@@ -26682,7 +26682,7 @@
         <v>389</v>
       </c>
       <c r="B496" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C496" t="s" s="0">
         <v>772</v>
@@ -26693,7 +26693,7 @@
         <v>389</v>
       </c>
       <c r="B497" t="s" s="0">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C497" t="s" s="0">
         <v>772</v>
@@ -26701,32 +26701,32 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="0">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="B498" t="s" s="0">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C498" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C499" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B500" t="s" s="0">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C500" t="s" s="0">
         <v>772</v>
@@ -26734,10 +26734,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B501" t="s" s="0">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C501" t="s" s="0">
         <v>772</v>
@@ -26745,10 +26745,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B502" t="s" s="0">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="C502" t="s" s="0">
         <v>772</v>
@@ -26756,10 +26756,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B503" t="s" s="0">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C503" t="s" s="0">
         <v>772</v>
@@ -26767,10 +26767,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C504" t="s" s="0">
         <v>772</v>
@@ -26778,10 +26778,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B505" t="s" s="0">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C505" t="s" s="0">
         <v>772</v>
@@ -26789,13 +26789,13 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="0">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B506" t="s" s="0">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C506" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="507">
@@ -26803,10 +26803,10 @@
         <v>460</v>
       </c>
       <c r="B507" t="s" s="0">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C507" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="508">
@@ -26814,7 +26814,7 @@
         <v>460</v>
       </c>
       <c r="B508" t="s" s="0">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C508" t="s" s="0">
         <v>772</v>
@@ -26825,7 +26825,7 @@
         <v>460</v>
       </c>
       <c r="B509" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C509" t="s" s="0">
         <v>772</v>
@@ -26833,32 +26833,32 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="0">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B510" t="s" s="0">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C510" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B511" t="s" s="0">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C511" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B512" t="s" s="0">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="C512" t="s" s="0">
         <v>772</v>
@@ -26866,10 +26866,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B513" t="s" s="0">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="C513" t="s" s="0">
         <v>772</v>
@@ -26877,10 +26877,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B514" t="s" s="0">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="C514" t="s" s="0">
         <v>772</v>
@@ -26888,10 +26888,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B515" t="s" s="0">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="C515" t="s" s="0">
         <v>772</v>
@@ -26899,21 +26899,21 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="0">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B516" t="s" s="0">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C516" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s" s="0">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B517" t="s" s="0">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C517" t="s" s="0">
         <v>772</v>
@@ -26921,32 +26921,32 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="0">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B518" t="s" s="0">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C518" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B519" t="s" s="0">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C519" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B520" t="s" s="0">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="C520" t="s" s="0">
         <v>772</v>
@@ -26954,10 +26954,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B521" t="s" s="0">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="C521" t="s" s="0">
         <v>772</v>
@@ -26965,10 +26965,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B522" t="s" s="0">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="C522" t="s" s="0">
         <v>772</v>
@@ -26976,10 +26976,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>487</v>
+        <v>83</v>
       </c>
       <c r="C523" t="s" s="0">
         <v>772</v>
@@ -26990,10 +26990,10 @@
         <v>475</v>
       </c>
       <c r="B524" t="s" s="0">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C524" t="s" s="0">
-        <v>772</v>
+        <v>794</v>
       </c>
     </row>
     <row r="525">
@@ -27001,7 +27001,7 @@
         <v>475</v>
       </c>
       <c r="B525" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C525" t="s" s="0">
         <v>772</v>
@@ -27012,7 +27012,7 @@
         <v>475</v>
       </c>
       <c r="B526" t="s" s="0">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C526" t="s" s="0">
         <v>772</v>
@@ -27023,7 +27023,7 @@
         <v>475</v>
       </c>
       <c r="B527" t="s" s="0">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C527" t="s" s="0">
         <v>772</v>
@@ -27034,7 +27034,7 @@
         <v>475</v>
       </c>
       <c r="B528" t="s" s="0">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C528" t="s" s="0">
         <v>772</v>
@@ -27045,7 +27045,7 @@
         <v>475</v>
       </c>
       <c r="B529" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C529" t="s" s="0">
         <v>772</v>
@@ -27056,7 +27056,7 @@
         <v>475</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C530" t="s" s="0">
         <v>772</v>
@@ -27067,7 +27067,7 @@
         <v>475</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C531" t="s" s="0">
         <v>772</v>
@@ -27078,7 +27078,7 @@
         <v>475</v>
       </c>
       <c r="B532" t="s" s="0">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C532" t="s" s="0">
         <v>772</v>
@@ -27089,7 +27089,7 @@
         <v>475</v>
       </c>
       <c r="B533" t="s" s="0">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C533" t="s" s="0">
         <v>772</v>
@@ -27100,7 +27100,7 @@
         <v>475</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C534" t="s" s="0">
         <v>772</v>
@@ -27108,156 +27108,156 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B535" t="s" s="0">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C535" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B536" t="s" s="0">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C536" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B537" t="s" s="0">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="C537" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B538" t="s" s="0">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C538" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C539" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B540" t="s" s="0">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C540" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="0">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B541" t="s" s="0">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C541" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="0">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B542" t="s" s="0">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C542" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B543" t="s" s="0">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C543" t="s" s="0">
-        <v>805</v>
+        <v>768</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B544" t="s" s="0">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C544" t="s" s="0">
-        <v>805</v>
+        <v>768</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B545" t="s" s="0">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C545" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C546" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B547" t="s" s="0">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C547" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B548" t="s" s="0">
-        <v>388</v>
+        <v>500</v>
       </c>
       <c r="C548" t="s" s="0">
-        <v>821</v>
+        <v>768</v>
       </c>
     </row>
     <row r="549">
@@ -27265,10 +27265,10 @@
         <v>502</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C549" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="550">
@@ -27276,10 +27276,10 @@
         <v>502</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C550" t="s" s="0">
-        <v>805</v>
+        <v>836</v>
       </c>
     </row>
     <row r="551">
@@ -27287,10 +27287,10 @@
         <v>502</v>
       </c>
       <c r="B551" t="s" s="0">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C551" t="s" s="0">
-        <v>836</v>
+        <v>805</v>
       </c>
     </row>
     <row r="552">
@@ -27298,29 +27298,29 @@
         <v>502</v>
       </c>
       <c r="B552" t="s" s="0">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C552" t="s" s="0">
-        <v>836</v>
+        <v>805</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B553" t="s" s="0">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="C553" t="s" s="0">
-        <v>768</v>
+        <v>836</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B554" t="s" s="0">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="C554" t="s" s="0">
         <v>796</v>
@@ -27328,153 +27328,153 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B555" t="s" s="0">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="C555" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B556" t="s" s="0">
-        <v>566</v>
+        <v>388</v>
       </c>
       <c r="C556" t="s" s="0">
-        <v>796</v>
+        <v>821</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B557" t="s" s="0">
-        <v>223</v>
+        <v>507</v>
       </c>
       <c r="C557" t="s" s="0">
-        <v>796</v>
+        <v>836</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B558" t="s" s="0">
-        <v>106</v>
+        <v>506</v>
       </c>
       <c r="C558" t="s" s="0">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B559" t="s" s="0">
-        <v>113</v>
+        <v>503</v>
       </c>
       <c r="C559" t="s" s="0">
-        <v>772</v>
+        <v>836</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s" s="0">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="B560" t="s" s="0">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C560" t="s" s="0">
-        <v>768</v>
+        <v>836</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s" s="0">
-        <v>66</v>
+        <v>565</v>
       </c>
       <c r="B561" t="s" s="0">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="C561" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s" s="0">
-        <v>66</v>
+        <v>565</v>
       </c>
       <c r="B562" t="s" s="0">
-        <v>510</v>
+        <v>105</v>
       </c>
       <c r="C562" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B563" t="s" s="0">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="C563" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B564" t="s" s="0">
-        <v>121</v>
+        <v>566</v>
       </c>
       <c r="C564" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B565" t="s" s="0">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C565" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B566" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C566" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s" s="0">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C567" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B568" t="s" s="0">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C568" t="s" s="0">
         <v>768</v>
@@ -27482,10 +27482,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B569" t="s" s="0">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C569" t="s" s="0">
         <v>772</v>
@@ -27493,10 +27493,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B570" t="s" s="0">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C570" t="s" s="0">
         <v>772</v>
@@ -27504,54 +27504,54 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B571" t="s" s="0">
-        <v>524</v>
+        <v>318</v>
       </c>
       <c r="C571" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B572" t="s" s="0">
-        <v>520</v>
+        <v>121</v>
       </c>
       <c r="C572" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B573" t="s" s="0">
-        <v>517</v>
+        <v>119</v>
       </c>
       <c r="C573" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B574" t="s" s="0">
-        <v>522</v>
+        <v>89</v>
       </c>
       <c r="C574" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s" s="0">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B575" t="s" s="0">
-        <v>527</v>
+        <v>122</v>
       </c>
       <c r="C575" t="s" s="0">
         <v>768</v>
@@ -27559,87 +27559,87 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="0">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B576" t="s" s="0">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C576" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B577" t="s" s="0">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C577" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B578" t="s" s="0">
-        <v>125</v>
+        <v>519</v>
       </c>
       <c r="C578" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B579" t="s" s="0">
-        <v>121</v>
+        <v>524</v>
       </c>
       <c r="C579" t="s" s="0">
-        <v>805</v>
+        <v>772</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B580" t="s" s="0">
-        <v>124</v>
+        <v>520</v>
       </c>
       <c r="C580" t="s" s="0">
-        <v>829</v>
+        <v>772</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B581" t="s" s="0">
-        <v>126</v>
+        <v>517</v>
       </c>
       <c r="C581" t="s" s="0">
-        <v>805</v>
+        <v>772</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B582" t="s" s="0">
-        <v>127</v>
+        <v>522</v>
       </c>
       <c r="C582" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s" s="0">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B583" t="s" s="0">
-        <v>569</v>
+        <v>527</v>
       </c>
       <c r="C583" t="s" s="0">
         <v>768</v>
@@ -27647,98 +27647,98 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="0">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B584" t="s" s="0">
-        <v>120</v>
+        <v>526</v>
       </c>
       <c r="C584" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B585" t="s" s="0">
-        <v>121</v>
+        <v>529</v>
       </c>
       <c r="C585" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B586" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C586" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B587" t="s" s="0">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C587" t="s" s="0">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B588" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C588" t="s" s="0">
-        <v>796</v>
+        <v>829</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s" s="0">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="B589" t="s" s="0">
-        <v>571</v>
+        <v>126</v>
       </c>
       <c r="C589" t="s" s="0">
-        <v>768</v>
+        <v>805</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s" s="0">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="B590" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C590" t="s" s="0">
-        <v>779</v>
+        <v>836</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B591" t="s" s="0">
-        <v>121</v>
+        <v>569</v>
       </c>
       <c r="C591" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B592" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C592" t="s" s="0">
         <v>779</v>
@@ -27746,21 +27746,21 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B593" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C593" t="s" s="0">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B594" t="s" s="0">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C594" t="s" s="0">
         <v>796</v>
@@ -27768,32 +27768,32 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="0">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="B595" t="s" s="0">
-        <v>531</v>
+        <v>89</v>
       </c>
       <c r="C595" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s" s="0">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="B596" t="s" s="0">
-        <v>532</v>
+        <v>122</v>
       </c>
       <c r="C596" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s" s="0">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B597" t="s" s="0">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="C597" t="s" s="0">
         <v>768</v>
@@ -27801,12 +27801,100 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
         <v>533</v>
       </c>
-      <c r="B598" t="s" s="0">
+      <c r="B605" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B606" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="C598" t="s" s="0">
+      <c r="C606" t="s" s="0">
         <v>779</v>
       </c>
     </row>
@@ -28981,7 +29069,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>577</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -28989,13 +29077,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>102</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -29037,7 +29125,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -29065,7 +29153,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -29079,7 +29167,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -29121,7 +29209,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -29135,7 +29223,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -29163,7 +29251,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -29219,7 +29307,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>329</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21">
@@ -29227,13 +29315,13 @@
         <v>88</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22">
@@ -29241,13 +29329,13 @@
         <v>88</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>600</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23">
@@ -29353,13 +29441,13 @@
         <v>117</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -29367,13 +29455,13 @@
         <v>117</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -29395,13 +29483,13 @@
         <v>132</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>530</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34">
@@ -29409,13 +29497,13 @@
         <v>132</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>102</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35">
@@ -29437,13 +29525,13 @@
         <v>132</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>593</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37">
@@ -29451,13 +29539,13 @@
         <v>132</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>620</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -29653,7 +29741,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -29667,7 +29755,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -29695,7 +29783,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55">
@@ -29723,7 +29811,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
@@ -29759,7 +29847,7 @@
         <v>547</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -29779,7 +29867,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>304</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61">
@@ -29793,7 +29881,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>431</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62">
@@ -29801,7 +29889,7 @@
         <v>224</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -29815,7 +29903,7 @@
         <v>224</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -29849,7 +29937,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
@@ -29857,7 +29945,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -29871,13 +29959,13 @@
         <v>233</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68">
@@ -29885,13 +29973,13 @@
         <v>233</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -29899,7 +29987,7 @@
         <v>233</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -29913,13 +30001,13 @@
         <v>233</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
@@ -29927,7 +30015,7 @@
         <v>233</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -29941,7 +30029,7 @@
         <v>233</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -29955,7 +30043,7 @@
         <v>233</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -30003,7 +30091,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
@@ -30031,7 +30119,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -30045,7 +30133,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80">
@@ -30059,7 +30147,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -30073,7 +30161,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>184</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82">
@@ -30081,13 +30169,13 @@
         <v>261</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -30095,7 +30183,7 @@
         <v>261</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -30109,13 +30197,13 @@
         <v>261</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
@@ -30123,7 +30211,7 @@
         <v>268</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
@@ -30137,7 +30225,7 @@
         <v>268</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
@@ -30151,13 +30239,13 @@
         <v>268</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -30185,7 +30273,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -30199,7 +30287,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
@@ -30207,13 +30295,13 @@
         <v>268</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -30241,7 +30329,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94">
@@ -30255,7 +30343,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -30297,7 +30385,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
@@ -30305,7 +30393,7 @@
         <v>268</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -30347,13 +30435,13 @@
         <v>295</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>669</v>
+        <v>596</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>39</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102">
@@ -30361,13 +30449,13 @@
         <v>295</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>606</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103">
@@ -30403,7 +30491,7 @@
         <v>316</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
@@ -30479,7 +30567,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -30493,7 +30581,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>195</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112">
@@ -30501,13 +30589,13 @@
         <v>320</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>678</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -30521,7 +30609,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114">
@@ -30535,7 +30623,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
@@ -30557,7 +30645,7 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -30571,7 +30659,7 @@
         <v>48</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -30585,13 +30673,13 @@
         <v>48</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119">
@@ -30599,7 +30687,7 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
@@ -30613,13 +30701,13 @@
         <v>48</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -30627,13 +30715,13 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122">
@@ -30641,13 +30729,13 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -30655,7 +30743,7 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
@@ -30669,7 +30757,7 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
@@ -30683,13 +30771,13 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126">
@@ -30697,13 +30785,13 @@
         <v>325</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>152</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>99</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127">
@@ -30711,13 +30799,13 @@
         <v>325</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>682</v>
+        <v>625</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>152</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>683</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
@@ -30725,13 +30813,13 @@
         <v>332</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>610</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129">
@@ -30739,13 +30827,13 @@
         <v>332</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130">
@@ -30753,13 +30841,13 @@
         <v>332</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131">
@@ -30767,13 +30855,13 @@
         <v>332</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>218</v>
+        <v>689</v>
       </c>
     </row>
     <row r="132">
@@ -30781,13 +30869,13 @@
         <v>332</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>689</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -30795,13 +30883,13 @@
         <v>332</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134">
@@ -30809,13 +30897,13 @@
         <v>332</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>691</v>
+        <v>609</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>692</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135">
@@ -30823,13 +30911,13 @@
         <v>332</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>21</v>
+        <v>693</v>
       </c>
     </row>
     <row r="136">
@@ -30840,10 +30928,10 @@
         <v>694</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>21</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137">
@@ -30854,10 +30942,10 @@
         <v>695</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>340</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
@@ -30882,10 +30970,10 @@
         <v>697</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140">
@@ -30896,10 +30984,10 @@
         <v>698</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141">
@@ -30921,13 +31009,13 @@
         <v>358</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>475</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143">
@@ -30935,13 +31023,13 @@
         <v>358</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>701</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144">
@@ -30949,13 +31037,13 @@
         <v>358</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>303</v>
+        <v>702</v>
       </c>
     </row>
     <row r="145">
@@ -30963,13 +31051,13 @@
         <v>358</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>610</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146">
@@ -30977,13 +31065,13 @@
         <v>358</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>580</v>
+        <v>703</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147">
@@ -30997,7 +31085,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -31011,7 +31099,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149">
@@ -31025,7 +31113,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>195</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150">
@@ -31039,7 +31127,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>251</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151">
@@ -31067,7 +31155,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
@@ -31081,7 +31169,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154">
@@ -31103,13 +31191,13 @@
         <v>380</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156">
@@ -31117,13 +31205,13 @@
         <v>380</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="157">
@@ -31131,13 +31219,13 @@
         <v>561</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>102</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158">
@@ -31145,13 +31233,13 @@
         <v>561</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>431</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159">
@@ -31179,7 +31267,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>389</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
@@ -31193,7 +31281,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>16</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162">
@@ -31243,13 +31331,13 @@
         <v>405</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>102</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166">
@@ -31257,13 +31345,13 @@
         <v>405</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>718</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
@@ -31271,13 +31359,13 @@
         <v>409</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>719</v>
+        <v>576</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>720</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
@@ -31285,13 +31373,13 @@
         <v>409</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="169">
@@ -31299,13 +31387,13 @@
         <v>409</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>721</v>
+        <v>605</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>722</v>
+        <v>606</v>
       </c>
     </row>
     <row r="170">
@@ -31313,13 +31401,13 @@
         <v>409</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>679</v>
+        <v>642</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>21</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171">
@@ -31327,13 +31415,13 @@
         <v>409</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>678</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172">
@@ -31341,13 +31429,13 @@
         <v>409</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>601</v>
+        <v>719</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>602</v>
+        <v>720</v>
       </c>
     </row>
     <row r="173">
@@ -31355,13 +31443,13 @@
         <v>409</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>723</v>
+        <v>616</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>724</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174">
@@ -31369,13 +31457,13 @@
         <v>409</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175">
@@ -31383,13 +31471,13 @@
         <v>409</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="176">
@@ -31397,13 +31485,13 @@
         <v>409</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>431</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177">
@@ -31411,13 +31499,13 @@
         <v>409</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>578</v>
+        <v>722</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>102</v>
+        <v>723</v>
       </c>
     </row>
     <row r="178">
@@ -31425,13 +31513,13 @@
         <v>409</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>304</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179">
@@ -31439,13 +31527,13 @@
         <v>409</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180">
@@ -31453,13 +31541,13 @@
         <v>409</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>61</v>
+        <v>727</v>
       </c>
     </row>
     <row r="181">
@@ -31473,7 +31561,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>123</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182">
@@ -31481,13 +31569,13 @@
         <v>409</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>616</v>
+        <v>676</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>530</v>
+        <v>677</v>
       </c>
     </row>
     <row r="183">
@@ -31501,7 +31589,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -31509,7 +31597,7 @@
         <v>432</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -31529,7 +31617,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
@@ -31585,7 +31673,7 @@
         <v>6</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190">
@@ -31613,7 +31701,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192">
@@ -31641,7 +31729,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -31655,7 +31743,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="195">
@@ -31663,7 +31751,7 @@
         <v>19</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -31677,7 +31765,7 @@
         <v>19</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -31817,13 +31905,13 @@
         <v>502</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>39</v>
+        <v>750</v>
       </c>
     </row>
     <row r="207">
@@ -31831,13 +31919,13 @@
         <v>502</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="208">
@@ -31845,13 +31933,13 @@
         <v>502</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>592</v>
+        <v>753</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>593</v>
+        <v>754</v>
       </c>
     </row>
     <row r="209">
@@ -31859,13 +31947,13 @@
         <v>502</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>751</v>
+        <v>596</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>752</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210">
@@ -31873,13 +31961,13 @@
         <v>502</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>600</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211">
@@ -31887,13 +31975,13 @@
         <v>502</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="212">
@@ -31901,13 +31989,13 @@
         <v>502</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>755</v>
+        <v>607</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>756</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213">
@@ -31915,7 +32003,7 @@
         <v>565</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -31943,7 +32031,7 @@
         <v>528</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
@@ -31985,7 +32073,7 @@
         <v>570</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -39037,7 +39125,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>778</v>
@@ -39054,7 +39142,7 @@
         <v>340</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>768</v>
@@ -39071,7 +39159,7 @@
         <v>340</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>778</v>
@@ -39088,7 +39176,7 @@
         <v>340</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>768</v>
@@ -39105,7 +39193,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>768</v>
@@ -39122,7 +39210,7 @@
         <v>340</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>768</v>
@@ -39139,7 +39227,7 @@
         <v>340</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>768</v>
@@ -39156,7 +39244,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>768</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10832" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="847">
   <si>
     <t>Class Name</t>
   </si>
@@ -2431,6 +2431,9 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>32</t>
@@ -20616,7 +20619,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14">
@@ -20624,7 +20627,7 @@
         <v>117</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15">
@@ -20648,7 +20651,7 @@
         <v>132</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18">
@@ -20672,7 +20675,7 @@
         <v>169</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21">
@@ -20680,7 +20683,7 @@
         <v>543</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22">
@@ -20712,7 +20715,7 @@
         <v>184</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26">
@@ -20720,7 +20723,7 @@
         <v>545</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="27">
@@ -20728,7 +20731,7 @@
         <v>178</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28">
@@ -20736,7 +20739,7 @@
         <v>547</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29">
@@ -20784,7 +20787,7 @@
         <v>229</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35">
@@ -20792,7 +20795,7 @@
         <v>233</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36">
@@ -20800,7 +20803,7 @@
         <v>550</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37">
@@ -20808,7 +20811,7 @@
         <v>245</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38">
@@ -20816,7 +20819,7 @@
         <v>261</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39">
@@ -20824,7 +20827,7 @@
         <v>268</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40">
@@ -20832,7 +20835,7 @@
         <v>295</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41">
@@ -20864,7 +20867,7 @@
         <v>316</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45">
@@ -20872,7 +20875,7 @@
         <v>552</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46">
@@ -20904,7 +20907,7 @@
         <v>320</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50">
@@ -20912,7 +20915,7 @@
         <v>322</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51">
@@ -20920,7 +20923,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="52">
@@ -20928,7 +20931,7 @@
         <v>325</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53">
@@ -20944,7 +20947,7 @@
         <v>332</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55">
@@ -20960,7 +20963,7 @@
         <v>340</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57">
@@ -20968,7 +20971,7 @@
         <v>358</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58">
@@ -20976,7 +20979,7 @@
         <v>360</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59">
@@ -20992,7 +20995,7 @@
         <v>380</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61">
@@ -21008,7 +21011,7 @@
         <v>561</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63">
@@ -21016,7 +21019,7 @@
         <v>387</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="64">
@@ -21040,7 +21043,7 @@
         <v>405</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67">
@@ -21048,7 +21051,7 @@
         <v>407</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68">
@@ -21056,7 +21059,7 @@
         <v>409</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69">
@@ -21072,7 +21075,7 @@
         <v>432</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71">
@@ -21080,7 +21083,7 @@
         <v>389</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="72">
@@ -21096,7 +21099,7 @@
         <v>460</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="74">
@@ -21112,7 +21115,7 @@
         <v>19</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="76">
@@ -21120,7 +21123,7 @@
         <v>475</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77">
@@ -21128,7 +21131,7 @@
         <v>495</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="78">
@@ -21136,7 +21139,7 @@
         <v>502</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79">
@@ -21144,7 +21147,7 @@
         <v>565</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80">
@@ -21168,7 +21171,7 @@
         <v>514</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83">
@@ -21184,7 +21187,7 @@
         <v>528</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="85">
@@ -21192,7 +21195,7 @@
         <v>568</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86">
@@ -21200,7 +21203,7 @@
         <v>570</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="87">
@@ -21226,7 +21229,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C598"/>
+  <dimension ref="A1:C607"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21251,7 +21254,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3">
@@ -21262,7 +21265,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4">
@@ -21273,7 +21276,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5">
@@ -21339,7 +21342,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11">
@@ -21361,7 +21364,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13">
@@ -21427,7 +21430,7 @@
         <v>540</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19">
@@ -21589,10 +21592,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34">
@@ -21600,7 +21603,7 @@
         <v>52</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>772</v>
@@ -21611,7 +21614,7 @@
         <v>52</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>772</v>
@@ -21622,7 +21625,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>772</v>
@@ -21633,7 +21636,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>772</v>
@@ -21644,7 +21647,7 @@
         <v>52</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>772</v>
@@ -21652,13 +21655,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40">
@@ -21666,7 +21669,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>768</v>
@@ -21677,7 +21680,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>768</v>
@@ -21688,7 +21691,7 @@
         <v>61</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>768</v>
@@ -21699,7 +21702,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>768</v>
@@ -21707,13 +21710,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45">
@@ -21721,10 +21724,10 @@
         <v>68</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46">
@@ -21732,7 +21735,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>772</v>
@@ -21743,7 +21746,7 @@
         <v>68</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>772</v>
@@ -21754,7 +21757,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>772</v>
@@ -21765,7 +21768,7 @@
         <v>68</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>772</v>
@@ -21776,7 +21779,7 @@
         <v>68</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>772</v>
@@ -21787,7 +21790,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>772</v>
@@ -21798,7 +21801,7 @@
         <v>68</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>772</v>
@@ -21809,7 +21812,7 @@
         <v>68</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>772</v>
@@ -21820,7 +21823,7 @@
         <v>68</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>772</v>
@@ -21831,7 +21834,7 @@
         <v>68</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>772</v>
@@ -21842,7 +21845,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>772</v>
@@ -21853,7 +21856,7 @@
         <v>68</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>772</v>
@@ -21864,7 +21867,7 @@
         <v>68</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>772</v>
@@ -21875,7 +21878,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>772</v>
@@ -21883,24 +21886,24 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>807</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62">
@@ -21908,10 +21911,10 @@
         <v>88</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63">
@@ -21919,10 +21922,10 @@
         <v>88</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>837</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64">
@@ -21930,10 +21933,10 @@
         <v>88</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>779</v>
+        <v>806</v>
       </c>
     </row>
     <row r="65">
@@ -21941,10 +21944,10 @@
         <v>88</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>768</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66">
@@ -21952,10 +21955,10 @@
         <v>88</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67">
@@ -21963,10 +21966,10 @@
         <v>88</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68">
@@ -21974,54 +21977,54 @@
         <v>88</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73">
@@ -22029,7 +22032,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>768</v>
@@ -22040,7 +22043,7 @@
         <v>102</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>768</v>
@@ -22051,7 +22054,7 @@
         <v>102</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>768</v>
@@ -22062,7 +22065,7 @@
         <v>102</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>768</v>
@@ -22073,7 +22076,7 @@
         <v>102</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>768</v>
@@ -22084,7 +22087,7 @@
         <v>102</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>768</v>
@@ -22092,10 +22095,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>542</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>768</v>
@@ -22103,24 +22106,24 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>496</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>541</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82">
@@ -22128,10 +22131,10 @@
         <v>541</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="83">
@@ -22139,7 +22142,7 @@
         <v>541</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>796</v>
@@ -22150,7 +22153,7 @@
         <v>541</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>796</v>
@@ -22161,7 +22164,7 @@
         <v>541</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>796</v>
@@ -22169,21 +22172,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>120</v>
+        <v>498</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>121</v>
+        <v>497</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>796</v>
@@ -22191,13 +22194,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>117</v>
+        <v>541</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>119</v>
+        <v>500</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89">
@@ -22205,10 +22208,10 @@
         <v>117</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90">
@@ -22216,54 +22219,54 @@
         <v>117</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>796</v>
+        <v>807</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="95">
@@ -22271,7 +22274,7 @@
         <v>123</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>768</v>
@@ -22279,32 +22282,32 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>768</v>
@@ -22312,46 +22315,46 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>803</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>838</v>
+        <v>772</v>
       </c>
     </row>
     <row r="103">
@@ -22359,10 +22362,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="104">
@@ -22370,10 +22373,10 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="105">
@@ -22381,10 +22384,10 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>782</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106">
@@ -22392,10 +22395,10 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="107">
@@ -22403,84 +22406,84 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>768</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>768</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>772</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>772</v>
@@ -22488,120 +22491,120 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>544</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>50</v>
+        <v>544</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>181</v>
+        <v>543</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>796</v>
@@ -22609,65 +22612,65 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>772</v>
@@ -22675,13 +22678,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="133">
@@ -22689,62 +22692,62 @@
         <v>184</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>546</v>
+        <v>193</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>772</v>
@@ -22752,10 +22755,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>772</v>
@@ -22763,10 +22766,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>772</v>
@@ -22774,10 +22777,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>772</v>
@@ -22785,46 +22788,46 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>200</v>
+        <v>546</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>178</v>
+        <v>545</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="146">
@@ -22832,10 +22835,10 @@
         <v>178</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147">
@@ -22843,7 +22846,7 @@
         <v>178</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>772</v>
@@ -22854,7 +22857,7 @@
         <v>178</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>772</v>
@@ -22865,7 +22868,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>772</v>
@@ -22876,7 +22879,7 @@
         <v>178</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>772</v>
@@ -22887,7 +22890,7 @@
         <v>178</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>772</v>
@@ -22898,7 +22901,7 @@
         <v>178</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>772</v>
@@ -22909,7 +22912,7 @@
         <v>178</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>772</v>
@@ -22920,7 +22923,7 @@
         <v>178</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>772</v>
@@ -22931,7 +22934,7 @@
         <v>178</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>772</v>
@@ -22939,175 +22942,175 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>549</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>548</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>547</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>89</v>
+        <v>549</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>216</v>
+        <v>547</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>216</v>
+        <v>547</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>218</v>
+        <v>547</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>222</v>
+        <v>548</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>218</v>
+        <v>547</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>768</v>
@@ -23115,10 +23118,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>768</v>
@@ -23126,10 +23129,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>768</v>
@@ -23137,10 +23140,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>768</v>
@@ -23148,76 +23151,76 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>768</v>
@@ -23225,10 +23228,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>768</v>
@@ -23236,76 +23239,76 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>772</v>
@@ -23313,79 +23316,79 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="197">
@@ -23393,10 +23396,10 @@
         <v>233</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="198">
@@ -23404,7 +23407,7 @@
         <v>233</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>772</v>
@@ -23415,7 +23418,7 @@
         <v>233</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>772</v>
@@ -23426,7 +23429,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>772</v>
@@ -23437,7 +23440,7 @@
         <v>233</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>772</v>
@@ -23448,7 +23451,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>772</v>
@@ -23459,7 +23462,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>772</v>
@@ -23470,7 +23473,7 @@
         <v>233</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>772</v>
@@ -23481,7 +23484,7 @@
         <v>233</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>772</v>
@@ -23492,7 +23495,7 @@
         <v>233</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>772</v>
@@ -23503,7 +23506,7 @@
         <v>233</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>772</v>
@@ -23514,7 +23517,7 @@
         <v>233</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>772</v>
@@ -23522,76 +23525,76 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>772</v>
@@ -23599,10 +23602,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>772</v>
@@ -23610,10 +23613,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>772</v>
@@ -23621,57 +23624,57 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>254</v>
+        <v>551</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="223">
@@ -23679,10 +23682,10 @@
         <v>245</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="224">
@@ -23690,7 +23693,7 @@
         <v>245</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>772</v>
@@ -23701,7 +23704,7 @@
         <v>245</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>772</v>
@@ -23712,7 +23715,7 @@
         <v>245</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>772</v>
@@ -23720,21 +23723,21 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>772</v>
@@ -23742,10 +23745,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>772</v>
@@ -23753,10 +23756,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>772</v>
@@ -23764,10 +23767,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>772</v>
@@ -23775,10 +23778,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>772</v>
@@ -23786,10 +23789,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>772</v>
@@ -23797,21 +23800,21 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>824</v>
+        <v>772</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>772</v>
@@ -23822,10 +23825,10 @@
         <v>261</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237">
@@ -23833,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>772</v>
@@ -23841,21 +23844,21 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>772</v>
@@ -23863,10 +23866,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>772</v>
@@ -23874,10 +23877,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>772</v>
@@ -23885,10 +23888,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>772</v>
@@ -23896,21 +23899,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>772</v>
+        <v>825</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>772</v>
@@ -23918,21 +23921,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>772</v>
+        <v>800</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>772</v>
@@ -23943,10 +23946,10 @@
         <v>268</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248">
@@ -23954,7 +23957,7 @@
         <v>268</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>772</v>
@@ -23965,7 +23968,7 @@
         <v>268</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>772</v>
@@ -23976,7 +23979,7 @@
         <v>268</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>772</v>
@@ -23987,7 +23990,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>772</v>
@@ -23998,7 +24001,7 @@
         <v>268</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>772</v>
@@ -24009,7 +24012,7 @@
         <v>268</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>772</v>
@@ -24020,7 +24023,7 @@
         <v>268</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>772</v>
@@ -24031,7 +24034,7 @@
         <v>268</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>772</v>
@@ -24042,7 +24045,7 @@
         <v>268</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>772</v>
@@ -24053,7 +24056,7 @@
         <v>268</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>772</v>
@@ -24064,7 +24067,7 @@
         <v>268</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>772</v>
@@ -24075,7 +24078,7 @@
         <v>268</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>772</v>
@@ -24086,7 +24089,7 @@
         <v>268</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>772</v>
@@ -24097,7 +24100,7 @@
         <v>268</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>772</v>
@@ -24108,7 +24111,7 @@
         <v>268</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>772</v>
@@ -24119,7 +24122,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>772</v>
@@ -24130,7 +24133,7 @@
         <v>268</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>772</v>
@@ -24141,7 +24144,7 @@
         <v>268</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>772</v>
@@ -24152,7 +24155,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>772</v>
@@ -24163,7 +24166,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>772</v>
@@ -24174,7 +24177,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>772</v>
@@ -24185,7 +24188,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>772</v>
@@ -24196,7 +24199,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>772</v>
@@ -24204,32 +24207,32 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>772</v>
@@ -24237,32 +24240,32 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>772</v>
@@ -24270,109 +24273,109 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>315</v>
+        <v>141</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>768</v>
@@ -24380,10 +24383,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>768</v>
@@ -24391,10 +24394,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>768</v>
@@ -24402,10 +24405,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>768</v>
@@ -24413,10 +24416,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>768</v>
@@ -24427,7 +24430,7 @@
         <v>305</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>768</v>
@@ -24438,7 +24441,7 @@
         <v>305</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>768</v>
@@ -24446,10 +24449,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>768</v>
@@ -24457,65 +24460,65 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>829</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>553</v>
+        <v>89</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>768</v>
@@ -24523,54 +24526,54 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>552</v>
+        <v>305</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>796</v>
+        <v>830</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>796</v>
@@ -24578,120 +24581,120 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>768</v>
+        <v>794</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B306" t="s" s="0">
         <v>89</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>556</v>
+        <v>318</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>805</v>
+        <v>779</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>557</v>
+        <v>121</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>805</v>
+        <v>779</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>555</v>
+        <v>119</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>782</v>
+        <v>796</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>560</v>
+        <v>122</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>768</v>
@@ -24699,167 +24702,167 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>219</v>
+        <v>558</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>220</v>
+        <v>556</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>221</v>
+        <v>557</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>320</v>
+        <v>554</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>223</v>
+        <v>555</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>322</v>
+        <v>554</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>48</v>
+        <v>559</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>324</v>
+        <v>560</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>48</v>
+        <v>559</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>199</v>
+        <v>404</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="331">
@@ -24867,10 +24870,10 @@
         <v>48</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="332">
@@ -24878,7 +24881,7 @@
         <v>48</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>772</v>
@@ -24889,7 +24892,7 @@
         <v>48</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>772</v>
@@ -24900,7 +24903,7 @@
         <v>48</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>772</v>
@@ -24911,7 +24914,7 @@
         <v>48</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>772</v>
@@ -24922,7 +24925,7 @@
         <v>48</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>772</v>
@@ -24933,7 +24936,7 @@
         <v>48</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>772</v>
@@ -24944,7 +24947,7 @@
         <v>48</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>772</v>
@@ -24955,7 +24958,7 @@
         <v>48</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>772</v>
@@ -24966,7 +24969,7 @@
         <v>48</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>772</v>
@@ -24977,7 +24980,7 @@
         <v>48</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>772</v>
@@ -24988,7 +24991,7 @@
         <v>48</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>772</v>
@@ -24996,87 +24999,87 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>329</v>
+        <v>48</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>772</v>
@@ -25084,68 +25087,68 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>819</v>
+        <v>772</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>106</v>
+        <v>327</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>839</v>
+        <v>796</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>829</v>
+        <v>768</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="357">
@@ -25153,10 +25156,10 @@
         <v>332</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>835</v>
+        <v>803</v>
       </c>
     </row>
     <row r="358">
@@ -25164,128 +25167,128 @@
         <v>332</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>768</v>
+        <v>820</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>339</v>
+        <v>107</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>768</v>
+        <v>840</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>768</v>
+        <v>830</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>341</v>
+        <v>109</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>794</v>
+        <v>837</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>772</v>
+        <v>836</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>768</v>
@@ -25293,10 +25296,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>768</v>
@@ -25304,65 +25307,65 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>812</v>
+        <v>768</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>834</v>
+        <v>803</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>772</v>
@@ -25370,10 +25373,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>772</v>
@@ -25381,68 +25384,68 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>772</v>
+        <v>813</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>772</v>
+        <v>819</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>772</v>
+        <v>835</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>772</v>
+        <v>813</v>
       </c>
     </row>
     <row r="384">
@@ -25450,10 +25453,10 @@
         <v>360</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="385">
@@ -25461,7 +25464,7 @@
         <v>360</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>772</v>
@@ -25472,7 +25475,7 @@
         <v>360</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>772</v>
@@ -25483,10 +25486,10 @@
         <v>360</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>8</v>
+        <v>370</v>
       </c>
       <c r="C387" t="s" s="0">
-        <v>840</v>
+        <v>772</v>
       </c>
     </row>
     <row r="388">
@@ -25494,7 +25497,7 @@
         <v>360</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>772</v>
@@ -25505,29 +25508,29 @@
         <v>360</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>839</v>
+        <v>772</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>772</v>
@@ -25535,10 +25538,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>772</v>
@@ -25546,10 +25549,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>772</v>
@@ -25557,10 +25560,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>772</v>
@@ -25568,10 +25571,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="C395" t="s" s="0">
         <v>772</v>
@@ -25579,255 +25582,255 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>376</v>
+        <v>8</v>
       </c>
       <c r="C396" t="s" s="0">
-        <v>772</v>
+        <v>841</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="0">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="0">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>382</v>
+        <v>29</v>
       </c>
       <c r="C398" t="s" s="0">
-        <v>796</v>
+        <v>840</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="0">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C399" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s" s="0">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C400" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>563</v>
+        <v>374</v>
       </c>
       <c r="C401" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="C402" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>126</v>
+        <v>378</v>
       </c>
       <c r="C403" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>562</v>
+        <v>379</v>
       </c>
       <c r="C404" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>561</v>
+        <v>372</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="0">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>31</v>
+        <v>382</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="0">
-        <v>561</v>
+        <v>383</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="0">
-        <v>561</v>
+        <v>383</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>122</v>
+        <v>384</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>395</v>
+        <v>563</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>396</v>
+        <v>24</v>
       </c>
       <c r="C411" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>397</v>
+        <v>126</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>388</v>
+        <v>562</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="419">
@@ -25835,10 +25838,10 @@
         <v>387</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="420">
@@ -25846,7 +25849,7 @@
         <v>387</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C420" t="s" s="0">
         <v>772</v>
@@ -25857,7 +25860,7 @@
         <v>387</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>772</v>
@@ -25868,7 +25871,7 @@
         <v>387</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C422" t="s" s="0">
         <v>772</v>
@@ -25876,109 +25879,109 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s" s="0">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>227</v>
+        <v>390</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>228</v>
+        <v>392</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>119</v>
+        <v>401</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>122</v>
+        <v>393</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s" s="0">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>408</v>
+        <v>93</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>768</v>
@@ -25986,10 +25989,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="C433" t="s" s="0">
         <v>768</v>
@@ -25997,65 +26000,65 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>311</v>
+        <v>89</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>810</v>
+        <v>768</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>309</v>
+        <v>404</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>841</v>
+        <v>768</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>809</v>
+        <v>837</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="C439" t="s" s="0">
         <v>794</v>
@@ -26063,24 +26066,24 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>829</v>
+        <v>796</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>843</v>
+        <v>803</v>
       </c>
     </row>
     <row r="442">
@@ -26088,10 +26091,10 @@
         <v>409</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>836</v>
+        <v>803</v>
       </c>
     </row>
     <row r="443">
@@ -26099,10 +26102,10 @@
         <v>409</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="444">
@@ -26110,10 +26113,10 @@
         <v>409</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>801</v>
+        <v>842</v>
       </c>
     </row>
     <row r="445">
@@ -26121,10 +26124,10 @@
         <v>409</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="C445" t="s" s="0">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="446">
@@ -26132,10 +26135,10 @@
         <v>409</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>779</v>
+        <v>843</v>
       </c>
     </row>
     <row r="447">
@@ -26143,10 +26146,10 @@
         <v>409</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>779</v>
+        <v>810</v>
       </c>
     </row>
     <row r="448">
@@ -26154,10 +26157,10 @@
         <v>409</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>411</v>
+        <v>307</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="449">
@@ -26165,10 +26168,10 @@
         <v>409</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>417</v>
+        <v>314</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="450">
@@ -26176,10 +26179,10 @@
         <v>409</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>805</v>
+        <v>844</v>
       </c>
     </row>
     <row r="451">
@@ -26187,10 +26190,10 @@
         <v>409</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>426</v>
+        <v>89</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="452">
@@ -26198,10 +26201,10 @@
         <v>409</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>796</v>
+        <v>830</v>
       </c>
     </row>
     <row r="453">
@@ -26209,7 +26212,7 @@
         <v>409</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="C453" t="s" s="0">
         <v>801</v>
@@ -26220,10 +26223,10 @@
         <v>409</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>801</v>
+        <v>817</v>
       </c>
     </row>
     <row r="455">
@@ -26231,10 +26234,10 @@
         <v>409</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="456">
@@ -26242,10 +26245,10 @@
         <v>409</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C456" t="s" s="0">
-        <v>844</v>
+        <v>779</v>
       </c>
     </row>
     <row r="457">
@@ -26253,10 +26256,10 @@
         <v>409</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C457" t="s" s="0">
-        <v>829</v>
+        <v>779</v>
       </c>
     </row>
     <row r="458">
@@ -26264,10 +26267,10 @@
         <v>409</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>779</v>
+        <v>830</v>
       </c>
     </row>
     <row r="459">
@@ -26275,10 +26278,10 @@
         <v>409</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="460">
@@ -26286,10 +26289,10 @@
         <v>409</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>801</v>
+        <v>836</v>
       </c>
     </row>
     <row r="461">
@@ -26297,10 +26300,10 @@
         <v>409</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="462">
@@ -26308,10 +26311,10 @@
         <v>409</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C462" t="s" s="0">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="463">
@@ -26319,10 +26322,10 @@
         <v>409</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C463" t="s" s="0">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="464">
@@ -26330,10 +26333,10 @@
         <v>409</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>829</v>
+        <v>801</v>
       </c>
     </row>
     <row r="465">
@@ -26341,197 +26344,197 @@
         <v>409</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>768</v>
+        <v>845</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>24</v>
+        <v>422</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>768</v>
+        <v>830</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C467" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>768</v>
+        <v>804</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>22</v>
+        <v>423</v>
       </c>
       <c r="C469" t="s" s="0">
-        <v>768</v>
+        <v>801</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C470" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>18</v>
+        <v>412</v>
       </c>
       <c r="C471" t="s" s="0">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>31</v>
+        <v>427</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="0">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="C473" t="s" s="0">
-        <v>768</v>
+        <v>830</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s" s="0">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C474" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="C475" t="s" s="0">
-        <v>845</v>
+        <v>768</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="C476" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>438</v>
+        <v>17</v>
       </c>
       <c r="C477" t="s" s="0">
-        <v>839</v>
+        <v>768</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>442</v>
+        <v>22</v>
       </c>
       <c r="C478" t="s" s="0">
-        <v>800</v>
+        <v>768</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>437</v>
+        <v>34</v>
       </c>
       <c r="C479" t="s" s="0">
-        <v>839</v>
+        <v>768</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="C480" t="s" s="0">
-        <v>806</v>
+        <v>768</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="C481" t="s" s="0">
-        <v>800</v>
+        <v>768</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>433</v>
+        <v>33</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>806</v>
+        <v>768</v>
       </c>
     </row>
     <row r="483">
@@ -26539,10 +26542,10 @@
         <v>432</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="484">
@@ -26550,10 +26553,10 @@
         <v>432</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>436</v>
+        <v>180</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>801</v>
+        <v>846</v>
       </c>
     </row>
     <row r="485">
@@ -26561,10 +26564,10 @@
         <v>432</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="486">
@@ -26572,109 +26575,109 @@
         <v>432</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>782</v>
+        <v>840</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>768</v>
+        <v>800</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>772</v>
+        <v>840</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>772</v>
+        <v>800</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>772</v>
+        <v>807</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C494" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s" s="0">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="496">
@@ -26682,10 +26685,10 @@
         <v>389</v>
       </c>
       <c r="B496" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="497">
@@ -26693,7 +26696,7 @@
         <v>389</v>
       </c>
       <c r="B497" t="s" s="0">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C497" t="s" s="0">
         <v>772</v>
@@ -26701,32 +26704,32 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="0">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="B498" t="s" s="0">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C498" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C499" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B500" t="s" s="0">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C500" t="s" s="0">
         <v>772</v>
@@ -26734,10 +26737,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B501" t="s" s="0">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C501" t="s" s="0">
         <v>772</v>
@@ -26745,10 +26748,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B502" t="s" s="0">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C502" t="s" s="0">
         <v>772</v>
@@ -26756,10 +26759,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B503" t="s" s="0">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C503" t="s" s="0">
         <v>772</v>
@@ -26767,10 +26770,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C504" t="s" s="0">
         <v>772</v>
@@ -26778,10 +26781,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B505" t="s" s="0">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C505" t="s" s="0">
         <v>772</v>
@@ -26789,10 +26792,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="0">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="B506" t="s" s="0">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C506" t="s" s="0">
         <v>772</v>
@@ -26800,13 +26803,13 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="0">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B507" t="s" s="0">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C507" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="508">
@@ -26814,10 +26817,10 @@
         <v>460</v>
       </c>
       <c r="B508" t="s" s="0">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C508" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="509">
@@ -26825,7 +26828,7 @@
         <v>460</v>
       </c>
       <c r="B509" t="s" s="0">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C509" t="s" s="0">
         <v>772</v>
@@ -26833,32 +26836,32 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="0">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B510" t="s" s="0">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C510" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B511" t="s" s="0">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C511" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B512" t="s" s="0">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="C512" t="s" s="0">
         <v>772</v>
@@ -26866,10 +26869,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B513" t="s" s="0">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="C513" t="s" s="0">
         <v>772</v>
@@ -26877,10 +26880,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B514" t="s" s="0">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="C514" t="s" s="0">
         <v>772</v>
@@ -26888,10 +26891,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="0">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="B515" t="s" s="0">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="C515" t="s" s="0">
         <v>772</v>
@@ -26899,21 +26902,21 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="0">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B516" t="s" s="0">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="C516" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s" s="0">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B517" t="s" s="0">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C517" t="s" s="0">
         <v>772</v>
@@ -26921,10 +26924,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="0">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B518" t="s" s="0">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C518" t="s" s="0">
         <v>772</v>
@@ -26932,32 +26935,32 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="0">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B519" t="s" s="0">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C519" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B520" t="s" s="0">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C520" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B521" t="s" s="0">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="C521" t="s" s="0">
         <v>772</v>
@@ -26965,10 +26968,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B522" t="s" s="0">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="C522" t="s" s="0">
         <v>772</v>
@@ -26976,10 +26979,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="C523" t="s" s="0">
         <v>772</v>
@@ -26987,10 +26990,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="0">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="B524" t="s" s="0">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="C524" t="s" s="0">
         <v>772</v>
@@ -27001,10 +27004,10 @@
         <v>475</v>
       </c>
       <c r="B525" t="s" s="0">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C525" t="s" s="0">
-        <v>772</v>
+        <v>794</v>
       </c>
     </row>
     <row r="526">
@@ -27012,7 +27015,7 @@
         <v>475</v>
       </c>
       <c r="B526" t="s" s="0">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C526" t="s" s="0">
         <v>772</v>
@@ -27023,7 +27026,7 @@
         <v>475</v>
       </c>
       <c r="B527" t="s" s="0">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C527" t="s" s="0">
         <v>772</v>
@@ -27034,7 +27037,7 @@
         <v>475</v>
       </c>
       <c r="B528" t="s" s="0">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C528" t="s" s="0">
         <v>772</v>
@@ -27045,7 +27048,7 @@
         <v>475</v>
       </c>
       <c r="B529" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C529" t="s" s="0">
         <v>772</v>
@@ -27056,7 +27059,7 @@
         <v>475</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C530" t="s" s="0">
         <v>772</v>
@@ -27067,7 +27070,7 @@
         <v>475</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C531" t="s" s="0">
         <v>772</v>
@@ -27078,7 +27081,7 @@
         <v>475</v>
       </c>
       <c r="B532" t="s" s="0">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C532" t="s" s="0">
         <v>772</v>
@@ -27089,7 +27092,7 @@
         <v>475</v>
       </c>
       <c r="B533" t="s" s="0">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C533" t="s" s="0">
         <v>772</v>
@@ -27100,7 +27103,7 @@
         <v>475</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C534" t="s" s="0">
         <v>772</v>
@@ -27108,167 +27111,167 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B535" t="s" s="0">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C535" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B536" t="s" s="0">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C536" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B537" t="s" s="0">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C537" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B538" t="s" s="0">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C538" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C539" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s" s="0">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B540" t="s" s="0">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C540" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="0">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B541" t="s" s="0">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C541" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="0">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B542" t="s" s="0">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C542" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s" s="0">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B543" t="s" s="0">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C543" t="s" s="0">
-        <v>805</v>
+        <v>772</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B544" t="s" s="0">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C544" t="s" s="0">
-        <v>805</v>
+        <v>768</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B545" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C545" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C546" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B547" t="s" s="0">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C547" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B548" t="s" s="0">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="C548" t="s" s="0">
-        <v>821</v>
+        <v>768</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s" s="0">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C549" t="s" s="0">
-        <v>836</v>
+        <v>768</v>
       </c>
     </row>
     <row r="550">
@@ -27276,10 +27279,10 @@
         <v>502</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C550" t="s" s="0">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="551">
@@ -27287,10 +27290,10 @@
         <v>502</v>
       </c>
       <c r="B551" t="s" s="0">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C551" t="s" s="0">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="552">
@@ -27298,51 +27301,51 @@
         <v>502</v>
       </c>
       <c r="B552" t="s" s="0">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C552" t="s" s="0">
-        <v>836</v>
+        <v>806</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B553" t="s" s="0">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="C553" t="s" s="0">
-        <v>768</v>
+        <v>806</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B554" t="s" s="0">
-        <v>105</v>
+        <v>498</v>
       </c>
       <c r="C554" t="s" s="0">
-        <v>796</v>
+        <v>837</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B555" t="s" s="0">
-        <v>110</v>
+        <v>497</v>
       </c>
       <c r="C555" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B556" t="s" s="0">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="C556" t="s" s="0">
         <v>796</v>
@@ -27350,153 +27353,153 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B557" t="s" s="0">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="C557" t="s" s="0">
-        <v>796</v>
+        <v>822</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B558" t="s" s="0">
-        <v>106</v>
+        <v>507</v>
       </c>
       <c r="C558" t="s" s="0">
-        <v>796</v>
+        <v>837</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s" s="0">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="B559" t="s" s="0">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="C559" t="s" s="0">
-        <v>772</v>
+        <v>806</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s" s="0">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="B560" t="s" s="0">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C560" t="s" s="0">
-        <v>768</v>
+        <v>837</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s" s="0">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="B561" t="s" s="0">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C561" t="s" s="0">
-        <v>772</v>
+        <v>837</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s" s="0">
-        <v>66</v>
+        <v>565</v>
       </c>
       <c r="B562" t="s" s="0">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="C562" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B563" t="s" s="0">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="C563" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B564" t="s" s="0">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C564" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B565" t="s" s="0">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="C565" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B566" t="s" s="0">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="C566" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s" s="0">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s" s="0">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C567" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s" s="0">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="B568" t="s" s="0">
-        <v>523</v>
+        <v>113</v>
       </c>
       <c r="C568" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B569" t="s" s="0">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C569" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B570" t="s" s="0">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C570" t="s" s="0">
         <v>772</v>
@@ -27504,10 +27507,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="0">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="B571" t="s" s="0">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C571" t="s" s="0">
         <v>772</v>
@@ -27515,43 +27518,43 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B572" t="s" s="0">
-        <v>520</v>
+        <v>318</v>
       </c>
       <c r="C572" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B573" t="s" s="0">
-        <v>517</v>
+        <v>121</v>
       </c>
       <c r="C573" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s" s="0">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B574" t="s" s="0">
-        <v>522</v>
+        <v>119</v>
       </c>
       <c r="C574" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s" s="0">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B575" t="s" s="0">
-        <v>527</v>
+        <v>89</v>
       </c>
       <c r="C575" t="s" s="0">
         <v>768</v>
@@ -27559,254 +27562,353 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="0">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B576" t="s" s="0">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="C576" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B577" t="s" s="0">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C577" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B578" t="s" s="0">
-        <v>125</v>
+        <v>515</v>
       </c>
       <c r="C578" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B579" t="s" s="0">
-        <v>121</v>
+        <v>519</v>
       </c>
       <c r="C579" t="s" s="0">
-        <v>805</v>
+        <v>772</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B580" t="s" s="0">
-        <v>124</v>
+        <v>524</v>
       </c>
       <c r="C580" t="s" s="0">
-        <v>829</v>
+        <v>772</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B581" t="s" s="0">
-        <v>126</v>
+        <v>520</v>
       </c>
       <c r="C581" t="s" s="0">
-        <v>805</v>
+        <v>772</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s" s="0">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B582" t="s" s="0">
-        <v>127</v>
+        <v>517</v>
       </c>
       <c r="C582" t="s" s="0">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s" s="0">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="B583" t="s" s="0">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="C583" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s" s="0">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B584" t="s" s="0">
-        <v>120</v>
+        <v>527</v>
       </c>
       <c r="C584" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="0">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B585" t="s" s="0">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="C585" t="s" s="0">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B586" t="s" s="0">
-        <v>119</v>
+        <v>529</v>
       </c>
       <c r="C586" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B587" t="s" s="0">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C587" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s" s="0">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="B588" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C588" t="s" s="0">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s" s="0">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="B589" t="s" s="0">
-        <v>571</v>
+        <v>124</v>
       </c>
       <c r="C589" t="s" s="0">
-        <v>768</v>
+        <v>830</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s" s="0">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="B590" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C590" t="s" s="0">
-        <v>779</v>
+        <v>806</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s" s="0">
-        <v>570</v>
+        <v>528</v>
       </c>
       <c r="B591" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C591" t="s" s="0">
-        <v>779</v>
+        <v>837</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B592" t="s" s="0">
-        <v>124</v>
+        <v>569</v>
       </c>
       <c r="C592" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B593" t="s" s="0">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C593" t="s" s="0">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s" s="0">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B594" t="s" s="0">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C594" t="s" s="0">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s" s="0">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="B595" t="s" s="0">
-        <v>531</v>
+        <v>119</v>
       </c>
       <c r="C595" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s" s="0">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="B596" t="s" s="0">
-        <v>532</v>
+        <v>89</v>
       </c>
       <c r="C596" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s" s="0">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="B597" t="s" s="0">
-        <v>534</v>
+        <v>122</v>
       </c>
       <c r="C597" t="s" s="0">
-        <v>768</v>
+        <v>796</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
         <v>533</v>
       </c>
-      <c r="B598" t="s" s="0">
+      <c r="B606" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B607" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="C598" t="s" s="0">
+      <c r="C607" t="s" s="0">
         <v>779</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -1749,40 +1749,49 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>cartItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
+  </si>
+  <si>
     <t>promotionService</t>
   </si>
   <si>
     <t>memberService</t>
   </si>
   <si>
-    <t>cartItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsCartItemMapper</t>
-  </si>
-  <si>
     <t>productDao</t>
   </si>
   <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>coupon</t>
+  </si>
+  <si>
     <t>categoryRelationList</t>
   </si>
   <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>coupon</t>
+    <t>productAttributeList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
   </si>
   <si>
     <t>productLadderList</t>
   </si>
   <si>
+    <t>brand</t>
+  </si>
+  <si>
     <t>couponList</t>
   </si>
   <si>
-    <t>productAttributeList</t>
+    <t>productFullReductionList</t>
   </si>
   <si>
     <t>product</t>
@@ -1791,13 +1800,49 @@
     <t>skuStockList</t>
   </si>
   <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>productFullReductionList</t>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>productMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductMapper</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
+    <t>portalProductDao</t>
+  </si>
+  <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
     <t>brandMapper</t>
@@ -1806,49 +1851,10 @@
     <t>com.macro.mall.mapper.PmsBrandMapper</t>
   </si>
   <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>productMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>portalProductDao</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
+    <t>amqpTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.amqp.core.AmqpTemplate</t>
   </si>
   <si>
     <t>LOGGER</t>
@@ -1857,12 +1863,6 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>amqpTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.amqp.core.AmqpTemplate</t>
-  </si>
-  <si>
     <t>homeService</t>
   </si>
   <si>
@@ -1872,165 +1872,165 @@
     <t>children</t>
   </si>
   <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>couponHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
+  </si>
+  <si>
+    <t>couponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
     <t>couponHistoryDao</t>
   </si>
   <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>couponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>couponHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
-  </si>
-  <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
     <t>promotionAmount</t>
   </si>
   <si>
+    <t>payAmount</t>
+  </si>
+  <si>
     <t>totalAmount</t>
   </si>
   <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
-    <t>payAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>brandLogo</t>
   </si>
   <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>createTime</t>
+    <t>memberCouponService</t>
   </si>
   <si>
     <t>cartItemService</t>
   </si>
   <si>
-    <t>memberCouponService</t>
+    <t>productPrice</t>
   </si>
   <si>
     <t>productId</t>
   </si>
   <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
     <t>productName</t>
   </si>
   <si>
-    <t>productPrice</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>memberIntegration</t>
+  </si>
+  <si>
+    <t>cartPromotionItemList</t>
+  </si>
+  <si>
+    <t>integrationConsumeSetting</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
+    <t>couponHistoryDetailList</t>
+  </si>
+  <si>
     <t>calcAmount</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>cartPromotionItemList</t>
-  </si>
-  <si>
-    <t>memberIntegration</t>
-  </si>
-  <si>
-    <t>couponHistoryDetailList</t>
-  </si>
-  <si>
-    <t>integrationConsumeSetting</t>
+    <t>subject</t>
   </si>
   <si>
     <t>outTradeNo</t>
   </si>
   <si>
-    <t>subject</t>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>proofPics</t>
   </si>
   <si>
     <t>returnPhone</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>productAttr</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
     <t>orderSn</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -2040,33 +2040,33 @@
     <t>memberAttentionService</t>
   </si>
   <si>
+    <t>alipayService</t>
+  </si>
+  <si>
     <t>alipayConfig</t>
   </si>
   <si>
-    <t>alipayService</t>
-  </si>
-  <si>
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE_AUTH_CODE</t>
+  </si>
+  <si>
     <t>REDIS_KEY_MEMBER</t>
   </si>
   <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
     <t>com.macro.mall.common.service.RedisService</t>
   </si>
   <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE_AUTH_CODE</t>
-  </si>
-  <si>
     <t>REDIS_KEY_AUTH_CODE</t>
   </si>
   <si>
@@ -2076,52 +2076,55 @@
     <t>long</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
+    <t>memberCacheService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
     <t>authService</t>
   </si>
   <si>
-    <t>memberCacheService</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
-  </si>
-  <si>
     <t>memberMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMemberMapper</t>
   </si>
   <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>routeKey</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>QUEUE_TTL_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
   </si>
   <si>
     <t>QUEUE_ORDER_CANCEL</t>
   </si>
   <si>
-    <t>routeKey</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>QUEUE_TTL_ORDER_CANCEL</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>alipayClient</t>
   </si>
   <si>
     <t>log</t>
@@ -2133,166 +2136,163 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
-    <t>alipayClient</t>
+    <t>payType</t>
+  </si>
+  <si>
+    <t>couponId</t>
   </si>
   <si>
     <t>cartIds</t>
   </si>
   <si>
+    <t>memberReceiveAddressId</t>
+  </si>
+  <si>
     <t>useIntegration</t>
   </si>
   <si>
-    <t>payType</t>
-  </si>
-  <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressId</t>
+    <t>flashPromotionLimit</t>
+  </si>
+  <si>
+    <t>flashPromotionCount</t>
   </si>
   <si>
     <t>flashPromotionPrice</t>
   </si>
   <si>
-    <t>flashPromotionCount</t>
-  </si>
-  <si>
-    <t>flashPromotionLimit</t>
-  </si>
-  <si>
     <t>newProductList</t>
   </si>
   <si>
+    <t>hotProductList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
+  </si>
+  <si>
+    <t>subjectList</t>
+  </si>
+  <si>
+    <t>brandList</t>
+  </si>
+  <si>
     <t>advertiseList</t>
   </si>
   <si>
-    <t>homeFlashPromotion</t>
-  </si>
-  <si>
-    <t>brandList</t>
-  </si>
-  <si>
-    <t>hotProductList</t>
-  </si>
-  <si>
-    <t>subjectList</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
+    <t>orderItemDao</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressService</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
     <t>orderItemMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
   </si>
   <si>
+    <t>integrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
     <t>portalOrderDao</t>
   </si>
   <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressService</t>
-  </si>
-  <si>
-    <t>cancelOrderSender</t>
-  </si>
-  <si>
-    <t>integrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>orderItemDao</t>
-  </si>
-  <si>
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
+    <t>nextEndTime</t>
+  </si>
+  <si>
+    <t>nextStartTime</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
     <t>productList</t>
   </si>
   <si>
-    <t>nextStartTime</t>
-  </si>
-  <si>
-    <t>nextEndTime</t>
-  </si>
-  <si>
     <t>endTime</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
     <t>realStock</t>
   </si>
   <si>
+    <t>reduceAmount</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>integration</t>
-  </si>
-  <si>
     <t>promotionMessage</t>
   </si>
   <si>
-    <t>reduceAmount</t>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>gatewayUrl</t>
   </si>
   <si>
     <t>appId</t>
   </si>
   <si>
-    <t>charset</t>
-  </si>
-  <si>
     <t>signType</t>
   </si>
   <si>
     <t>appPrivateKey</t>
   </si>
   <si>
+    <t>alipayPublicKey</t>
+  </si>
+  <si>
+    <t>notifyUrl</t>
+  </si>
+  <si>
     <t>returnUrl</t>
   </si>
   <si>
     <t>format</t>
   </si>
   <si>
-    <t>notifyUrl</t>
-  </si>
-  <si>
-    <t>gatewayUrl</t>
-  </si>
-  <si>
-    <t>alipayPublicKey</t>
+    <t>advertiseMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
+  </si>
+  <si>
+    <t>subjectMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.CmsSubjectMapper</t>
+  </si>
+  <si>
+    <t>promotionSessionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
     <t>flashPromotionMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
-  </si>
-  <si>
-    <t>subjectMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
-    <t>advertiseMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
-  </si>
-  <si>
-    <t>promotionSessionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
     <t>orderItemList</t>
@@ -30707,7 +30707,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>179</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
@@ -30715,13 +30715,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -30729,13 +30729,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>578</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -30777,7 +30777,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -30805,7 +30805,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -30861,7 +30861,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -30903,7 +30903,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -30987,7 +30987,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>329</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23">
@@ -30995,13 +30995,13 @@
         <v>88</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>602</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24">
@@ -31107,7 +31107,7 @@
         <v>117</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -31155,7 +31155,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>530</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35">
@@ -31163,13 +31163,13 @@
         <v>132</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36">
@@ -31177,13 +31177,13 @@
         <v>132</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>620</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -31191,13 +31191,13 @@
         <v>132</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>102</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38">
@@ -31205,13 +31205,13 @@
         <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39">
@@ -31219,13 +31219,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>624</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40">
@@ -31275,13 +31275,13 @@
         <v>181</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>305</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44">
@@ -31289,13 +31289,13 @@
         <v>181</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45">
@@ -31449,7 +31449,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
@@ -31463,7 +31463,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -31477,7 +31477,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58">
@@ -31491,7 +31491,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -31499,7 +31499,7 @@
         <v>547</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -31519,7 +31519,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>431</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61">
@@ -31533,7 +31533,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>304</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62">
@@ -31541,7 +31541,7 @@
         <v>224</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -31555,7 +31555,7 @@
         <v>224</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -31569,7 +31569,7 @@
         <v>224</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -31589,7 +31589,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -31597,7 +31597,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -31611,7 +31611,7 @@
         <v>233</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -31625,7 +31625,7 @@
         <v>233</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -31639,13 +31639,13 @@
         <v>233</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70">
@@ -31653,7 +31653,7 @@
         <v>233</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -31681,13 +31681,13 @@
         <v>233</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73">
@@ -31695,7 +31695,7 @@
         <v>233</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -31709,13 +31709,13 @@
         <v>233</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -31743,7 +31743,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77">
@@ -31771,7 +31771,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79">
@@ -31785,7 +31785,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -31813,7 +31813,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>259</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82">
@@ -31849,7 +31849,7 @@
         <v>261</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
@@ -31863,13 +31863,13 @@
         <v>268</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86">
@@ -31883,7 +31883,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87">
@@ -31897,7 +31897,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -31905,7 +31905,7 @@
         <v>268</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
@@ -31919,13 +31919,13 @@
         <v>268</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -31933,13 +31933,13 @@
         <v>268</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -31947,7 +31947,7 @@
         <v>268</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
@@ -31961,13 +31961,13 @@
         <v>268</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
@@ -31981,7 +31981,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
@@ -31995,7 +31995,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -32017,7 +32017,7 @@
         <v>268</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -32031,13 +32031,13 @@
         <v>268</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -32045,13 +32045,13 @@
         <v>268</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -32087,13 +32087,13 @@
         <v>295</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>597</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
@@ -32101,13 +32101,13 @@
         <v>295</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>669</v>
+        <v>607</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>39</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103">
@@ -32115,13 +32115,13 @@
         <v>295</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104">
@@ -32143,7 +32143,7 @@
         <v>316</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
@@ -32177,7 +32177,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>475</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108">
@@ -32191,7 +32191,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>335</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109">
@@ -32233,7 +32233,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>677</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112">
@@ -32241,7 +32241,7 @@
         <v>320</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
@@ -32255,7 +32255,7 @@
         <v>320</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
@@ -32269,13 +32269,13 @@
         <v>320</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>195</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115">
@@ -32297,7 +32297,7 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -32325,13 +32325,13 @@
         <v>48</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
@@ -32339,13 +32339,13 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120">
@@ -32367,13 +32367,13 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
@@ -32381,13 +32381,13 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123">
@@ -32395,13 +32395,13 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124">
@@ -32409,7 +32409,7 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
@@ -32423,13 +32423,13 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
@@ -32437,13 +32437,13 @@
         <v>325</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>682</v>
+        <v>625</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>152</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>683</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127">
@@ -32451,13 +32451,13 @@
         <v>325</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>152</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>99</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128">
@@ -32471,7 +32471,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>472</v>
+        <v>685</v>
       </c>
     </row>
     <row r="129">
@@ -32479,13 +32479,13 @@
         <v>332</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130">
@@ -32493,13 +32493,13 @@
         <v>332</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>687</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131">
@@ -32513,7 +32513,7 @@
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>689</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
@@ -32521,13 +32521,13 @@
         <v>332</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>21</v>
+        <v>690</v>
       </c>
     </row>
     <row r="133">
@@ -32535,13 +32535,13 @@
         <v>332</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>691</v>
+        <v>611</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>195</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134">
@@ -32549,13 +32549,13 @@
         <v>332</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>609</v>
+        <v>691</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>610</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135">
@@ -32580,10 +32580,10 @@
         <v>694</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>340</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -32650,10 +32650,10 @@
         <v>699</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>21</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142">
@@ -32661,13 +32661,13 @@
         <v>358</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>610</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143">
@@ -32675,13 +32675,13 @@
         <v>358</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144">
@@ -32695,7 +32695,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>702</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145">
@@ -32703,13 +32703,13 @@
         <v>358</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>475</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146">
@@ -32717,13 +32717,13 @@
         <v>358</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>303</v>
+        <v>703</v>
       </c>
     </row>
     <row r="147">
@@ -32737,7 +32737,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148">
@@ -32751,7 +32751,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>251</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149">
@@ -32765,7 +32765,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -32793,7 +32793,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>195</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152">
@@ -32807,7 +32807,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153">
@@ -32835,7 +32835,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
@@ -32857,13 +32857,13 @@
         <v>380</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="157">
@@ -32871,13 +32871,13 @@
         <v>561</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>431</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
@@ -32885,13 +32885,13 @@
         <v>561</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>102</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159">
@@ -32997,7 +32997,7 @@
         <v>405</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
@@ -33011,13 +33011,13 @@
         <v>409</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168">
@@ -33025,13 +33025,13 @@
         <v>409</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>622</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169">
@@ -33039,13 +33039,13 @@
         <v>409</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
@@ -33053,13 +33053,13 @@
         <v>409</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>304</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171">
@@ -33067,13 +33067,13 @@
         <v>409</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>431</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172">
@@ -33081,13 +33081,13 @@
         <v>409</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>720</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173">
@@ -33095,13 +33095,13 @@
         <v>409</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>616</v>
+        <v>721</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>530</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174">
@@ -33109,13 +33109,13 @@
         <v>409</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>61</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175">
@@ -33123,13 +33123,13 @@
         <v>409</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>702</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176">
@@ -33137,13 +33137,13 @@
         <v>409</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>21</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177">
@@ -33151,13 +33151,13 @@
         <v>409</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>722</v>
+        <v>603</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>723</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178">
@@ -33165,13 +33165,13 @@
         <v>409</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>123</v>
+        <v>726</v>
       </c>
     </row>
     <row r="179">
@@ -33179,7 +33179,7 @@
         <v>409</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
@@ -33193,13 +33193,13 @@
         <v>409</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>727</v>
+        <v>703</v>
       </c>
     </row>
     <row r="181">
@@ -33207,13 +33207,13 @@
         <v>409</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>728</v>
+        <v>578</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>458</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182">
@@ -33221,13 +33221,13 @@
         <v>409</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>676</v>
+        <v>728</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>677</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183">
@@ -33249,7 +33249,7 @@
         <v>432</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -33269,7 +33269,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186">
@@ -33311,7 +33311,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -33353,7 +33353,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192">
@@ -33381,7 +33381,7 @@
         <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194">
@@ -33395,7 +33395,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
@@ -33403,7 +33403,7 @@
         <v>19</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -33417,7 +33417,7 @@
         <v>19</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -33571,13 +33571,13 @@
         <v>502</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>752</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208">
@@ -33585,13 +33585,13 @@
         <v>502</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>753</v>
+        <v>596</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>754</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209">
@@ -33599,13 +33599,13 @@
         <v>502</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>596</v>
+        <v>751</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>597</v>
+        <v>752</v>
       </c>
     </row>
     <row r="210">
@@ -33613,13 +33613,13 @@
         <v>502</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>39</v>
+        <v>754</v>
       </c>
     </row>
     <row r="211">
@@ -33641,13 +33641,13 @@
         <v>502</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>608</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213">
@@ -33655,7 +33655,7 @@
         <v>565</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -33683,7 +33683,7 @@
         <v>528</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
@@ -33725,7 +33725,7 @@
         <v>570</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -40794,7 +40794,7 @@
         <v>340</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>768</v>
@@ -40811,7 +40811,7 @@
         <v>340</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>778</v>
@@ -40879,7 +40879,7 @@
         <v>340</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>768</v>
@@ -40896,7 +40896,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>768</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -1755,25 +1755,31 @@
     <t>com.macro.mall.mapper.OmsCartItemMapper</t>
   </si>
   <si>
+    <t>productDao</t>
+  </si>
+  <si>
     <t>promotionService</t>
   </si>
   <si>
     <t>memberService</t>
   </si>
   <si>
-    <t>productDao</t>
-  </si>
-  <si>
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>productRelationList</t>
+  </si>
+  <si>
     <t>coupon</t>
   </si>
   <si>
     <t>categoryRelationList</t>
   </si>
   <si>
-    <t>productRelationList</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>couponList</t>
   </si>
   <si>
     <t>productAttributeList</t>
@@ -1782,22 +1788,43 @@
     <t>productAttributeValueList</t>
   </si>
   <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
     <t>productLadderList</t>
   </si>
   <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>couponList</t>
-  </si>
-  <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
+    <t>productMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductMapper</t>
+  </si>
+  <si>
+    <t>productAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
+  </si>
+  <si>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
+    <t>portalProductDao</t>
   </si>
   <si>
     <t>productAttributeMapper</t>
@@ -1806,63 +1833,36 @@
     <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
-    <t>productAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>productMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
     <t>productFullReductionMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
   </si>
   <si>
-    <t>portalProductDao</t>
-  </si>
-  <si>
     <t>skuStockMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
   </si>
   <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
-  </si>
-  <si>
     <t>brandMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsBrandMapper</t>
   </si>
   <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>amqpTemplate</t>
   </si>
   <si>
     <t>org.springframework.amqp.core.AmqpTemplate</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>homeService</t>
   </si>
   <si>
@@ -1872,120 +1872,120 @@
     <t>children</t>
   </si>
   <si>
+    <t>couponHistoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
+  </si>
+  <si>
+    <t>couponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
+  </si>
+  <si>
+    <t>couponHistoryDao</t>
+  </si>
+  <si>
+    <t>couponProductRelationMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
+  </si>
+  <si>
     <t>couponMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponMapper</t>
   </si>
   <si>
-    <t>couponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
-  </si>
-  <si>
-    <t>couponHistoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
-  </si>
-  <si>
-    <t>couponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
-  </si>
-  <si>
-    <t>couponHistoryDao</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>promotionAmount</t>
+  </si>
+  <si>
+    <t>payAmount</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
     <t>freightAmount</t>
   </si>
   <si>
-    <t>promotionAmount</t>
-  </si>
-  <si>
-    <t>payAmount</t>
-  </si>
-  <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
     <t>memberIcon</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandName</t>
+    <t>brandLogo</t>
   </si>
   <si>
     <t>createTime</t>
   </si>
   <si>
-    <t>brandLogo</t>
+    <t>cartItemService</t>
   </si>
   <si>
     <t>memberCouponService</t>
   </si>
   <si>
-    <t>cartItemService</t>
+    <t>productSubTitle</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productPic</t>
   </si>
   <si>
     <t>productPrice</t>
   </si>
   <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>cartPromotionItemList</t>
+  </si>
+  <si>
     <t>memberIntegration</t>
   </si>
   <si>
-    <t>cartPromotionItemList</t>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
+    <t>couponHistoryDetailList</t>
   </si>
   <si>
     <t>integrationConsumeSetting</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>couponHistoryDetailList</t>
-  </si>
-  <si>
     <t>calcAmount</t>
   </si>
   <si>
@@ -1995,42 +1995,42 @@
     <t>outTradeNo</t>
   </si>
   <si>
+    <t>productAttr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>proofPics</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
     <t>productCount</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>productAttr</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>orderSn</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -2040,90 +2040,90 @@
     <t>memberAttentionService</t>
   </si>
   <si>
+    <t>alipayConfig</t>
+  </si>
+  <si>
     <t>alipayService</t>
   </si>
   <si>
-    <t>alipayConfig</t>
-  </si>
-  <si>
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.macro.mall.common.service.RedisService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_MEMBER</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_AUTH_CODE</t>
+  </si>
+  <si>
     <t>REDIS_DATABASE</t>
   </si>
   <si>
-    <t>REDIS_EXPIRE_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_MEMBER</t>
-  </si>
-  <si>
     <t>REDIS_EXPIRE</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.macro.mall.common.service.RedisService</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_AUTH_CODE</t>
-  </si>
-  <si>
     <t>val$delayTimes</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>memberMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberMapper</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>authService</t>
+  </si>
+  <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
+    <t>memberCacheService</t>
+  </si>
+  <si>
     <t>request</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
-    <t>memberCacheService</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
-  </si>
-  <si>
-    <t>authService</t>
-  </si>
-  <si>
-    <t>memberMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberMapper</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>QUEUE_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>routeKey</t>
   </si>
   <si>
     <t>exchange</t>
   </si>
   <si>
-    <t>routeKey</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>QUEUE_TTL_ORDER_CANCEL</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>QUEUE_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>alipayClient</t>
   </si>
   <si>
@@ -2136,19 +2136,22 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
+    <t>useIntegration</t>
+  </si>
+  <si>
+    <t>cartIds</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressId</t>
+  </si>
+  <si>
     <t>payType</t>
   </si>
   <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>cartIds</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressId</t>
-  </si>
-  <si>
-    <t>useIntegration</t>
+    <t>flashPromotionPrice</t>
   </si>
   <si>
     <t>flashPromotionLimit</t>
@@ -2157,78 +2160,78 @@
     <t>flashPromotionCount</t>
   </si>
   <si>
-    <t>flashPromotionPrice</t>
+    <t>advertiseList</t>
+  </si>
+  <si>
+    <t>subjectList</t>
+  </si>
+  <si>
+    <t>hotProductList</t>
+  </si>
+  <si>
+    <t>brandList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
   </si>
   <si>
     <t>newProductList</t>
   </si>
   <si>
-    <t>hotProductList</t>
-  </si>
-  <si>
-    <t>homeFlashPromotion</t>
-  </si>
-  <si>
-    <t>subjectList</t>
-  </si>
-  <si>
-    <t>brandList</t>
-  </si>
-  <si>
-    <t>advertiseList</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
     <t>orderItemDao</t>
   </si>
   <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
     <t>memberReceiveAddressService</t>
   </si>
   <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
     <t>integrationConsumeSettingMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
   </si>
   <si>
-    <t>cancelOrderSender</t>
-  </si>
-  <si>
     <t>portalOrderDao</t>
   </si>
   <si>
     <t>REDIS_KEY_ORDER_ID</t>
   </si>
   <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>nextStartTime</t>
+  </si>
+  <si>
+    <t>productList</t>
+  </si>
+  <si>
     <t>nextEndTime</t>
   </si>
   <si>
-    <t>nextStartTime</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>productList</t>
-  </si>
-  <si>
     <t>endTime</t>
   </si>
   <si>
+    <t>promotionMessage</t>
+  </si>
+  <si>
     <t>realStock</t>
   </si>
   <si>
@@ -2241,58 +2244,55 @@
     <t>growth</t>
   </si>
   <si>
-    <t>promotionMessage</t>
+    <t>format</t>
+  </si>
+  <si>
+    <t>gatewayUrl</t>
+  </si>
+  <si>
+    <t>appPrivateKey</t>
+  </si>
+  <si>
+    <t>alipayPublicKey</t>
+  </si>
+  <si>
+    <t>returnUrl</t>
+  </si>
+  <si>
+    <t>signType</t>
   </si>
   <si>
     <t>charset</t>
   </si>
   <si>
-    <t>gatewayUrl</t>
+    <t>notifyUrl</t>
   </si>
   <si>
     <t>appId</t>
   </si>
   <si>
-    <t>signType</t>
-  </si>
-  <si>
-    <t>appPrivateKey</t>
-  </si>
-  <si>
-    <t>alipayPublicKey</t>
-  </si>
-  <si>
-    <t>notifyUrl</t>
-  </si>
-  <si>
-    <t>returnUrl</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>advertiseMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
   </si>
   <si>
+    <t>flashPromotionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
+  </si>
+  <si>
+    <t>promotionSessionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
+  </si>
+  <si>
     <t>subjectMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
-    <t>promotionSessionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
-  </si>
-  <si>
-    <t>flashPromotionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
   </si>
   <si>
     <t>orderItemList</t>
@@ -30721,7 +30721,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>179</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
@@ -30735,7 +30735,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -30749,7 +30749,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>329</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -30777,7 +30777,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -30791,7 +30791,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -30819,7 +30819,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -30861,7 +30861,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -30903,7 +30903,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -30917,7 +30917,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -30987,7 +30987,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>601</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23">
@@ -30995,13 +30995,13 @@
         <v>88</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>329</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24">
@@ -31107,7 +31107,7 @@
         <v>117</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -31135,13 +31135,13 @@
         <v>132</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>597</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -31177,13 +31177,13 @@
         <v>132</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>102</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37">
@@ -31197,7 +31197,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>621</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38">
@@ -31205,13 +31205,13 @@
         <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39">
@@ -31219,13 +31219,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>530</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40">
@@ -31275,13 +31275,13 @@
         <v>181</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44">
@@ -31393,7 +31393,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52">
@@ -31407,7 +31407,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -31435,7 +31435,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -31449,7 +31449,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -31477,7 +31477,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -31491,7 +31491,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
@@ -31499,13 +31499,13 @@
         <v>547</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>102</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60">
@@ -31513,13 +31513,13 @@
         <v>547</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
@@ -31533,7 +31533,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>431</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62">
@@ -31541,7 +31541,7 @@
         <v>224</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -31555,7 +31555,7 @@
         <v>224</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -31569,7 +31569,7 @@
         <v>224</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -31583,7 +31583,7 @@
         <v>233</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -31597,7 +31597,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -31611,7 +31611,7 @@
         <v>233</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -31625,13 +31625,13 @@
         <v>233</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69">
@@ -31639,13 +31639,13 @@
         <v>233</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -31667,13 +31667,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
@@ -31681,13 +31681,13 @@
         <v>233</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -31695,7 +31695,7 @@
         <v>233</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -31743,7 +31743,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -31757,7 +31757,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78">
@@ -31771,7 +31771,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -31799,7 +31799,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81">
@@ -31821,13 +31821,13 @@
         <v>261</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83">
@@ -31835,7 +31835,7 @@
         <v>261</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
@@ -31849,13 +31849,13 @@
         <v>261</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -31863,13 +31863,13 @@
         <v>268</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
@@ -31877,13 +31877,13 @@
         <v>268</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -31891,7 +31891,7 @@
         <v>268</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -31905,7 +31905,7 @@
         <v>268</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
@@ -31919,13 +31919,13 @@
         <v>268</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -31953,7 +31953,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
@@ -31961,7 +31961,7 @@
         <v>268</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
@@ -31975,7 +31975,7 @@
         <v>268</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
@@ -31989,13 +31989,13 @@
         <v>268</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>135</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
@@ -32017,7 +32017,7 @@
         <v>268</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -32031,7 +32031,7 @@
         <v>268</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
@@ -32045,7 +32045,7 @@
         <v>268</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -32059,13 +32059,13 @@
         <v>268</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100">
@@ -32073,13 +32073,13 @@
         <v>268</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
@@ -32101,13 +32101,13 @@
         <v>295</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103">
@@ -32115,13 +32115,13 @@
         <v>295</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104">
@@ -32129,13 +32129,13 @@
         <v>316</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
@@ -32143,13 +32143,13 @@
         <v>316</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>578</v>
+        <v>670</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106">
@@ -32177,7 +32177,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>335</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108">
@@ -32191,7 +32191,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>475</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109">
@@ -32219,7 +32219,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>21</v>
+        <v>676</v>
       </c>
     </row>
     <row r="111">
@@ -32227,13 +32227,13 @@
         <v>320</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
@@ -32241,13 +32241,13 @@
         <v>320</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113">
@@ -32255,13 +32255,13 @@
         <v>320</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -32269,13 +32269,13 @@
         <v>320</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>680</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -32289,7 +32289,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116">
@@ -32297,7 +32297,7 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -32311,7 +32311,7 @@
         <v>48</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -32325,13 +32325,13 @@
         <v>48</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119">
@@ -32339,13 +32339,13 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
@@ -32353,7 +32353,7 @@
         <v>48</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -32367,7 +32367,7 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
@@ -32381,7 +32381,7 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
@@ -32395,13 +32395,13 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
@@ -32409,13 +32409,13 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125">
@@ -32423,7 +32423,7 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -32485,7 +32485,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -32499,7 +32499,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>218</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131">
@@ -32507,13 +32507,13 @@
         <v>332</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>21</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132">
@@ -32521,13 +32521,13 @@
         <v>332</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>690</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133">
@@ -32535,13 +32535,13 @@
         <v>332</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>612</v>
+        <v>690</v>
       </c>
     </row>
     <row r="134">
@@ -32555,7 +32555,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>472</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135">
@@ -32583,7 +32583,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>21</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137">
@@ -32608,10 +32608,10 @@
         <v>696</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>21</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139">
@@ -32622,10 +32622,10 @@
         <v>697</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>340</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
@@ -32639,7 +32639,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>346</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
@@ -32661,7 +32661,7 @@
         <v>358</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
@@ -32675,13 +32675,13 @@
         <v>358</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144">
@@ -32689,13 +32689,13 @@
         <v>358</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>612</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145">
@@ -32703,13 +32703,13 @@
         <v>358</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>580</v>
+        <v>701</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146">
@@ -32751,7 +32751,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -32765,7 +32765,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150">
@@ -32807,7 +32807,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
@@ -32835,7 +32835,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155">
@@ -32843,13 +32843,13 @@
         <v>380</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="156">
@@ -32857,13 +32857,13 @@
         <v>380</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>612</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157">
@@ -32871,13 +32871,13 @@
         <v>561</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>102</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158">
@@ -32885,13 +32885,13 @@
         <v>561</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>431</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159">
@@ -32933,7 +32933,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>389</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -32961,7 +32961,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>16</v>
+        <v>389</v>
       </c>
     </row>
     <row r="164">
@@ -32983,13 +32983,13 @@
         <v>405</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>718</v>
+        <v>579</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166">
@@ -32997,13 +32997,13 @@
         <v>405</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>578</v>
+        <v>718</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>102</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167">
@@ -33011,7 +33011,7 @@
         <v>409</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
@@ -33025,13 +33025,13 @@
         <v>409</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>624</v>
+        <v>719</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>530</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169">
@@ -33039,13 +33039,13 @@
         <v>409</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170">
@@ -33053,13 +33053,13 @@
         <v>409</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>458</v>
+        <v>722</v>
       </c>
     </row>
     <row r="171">
@@ -33067,13 +33067,13 @@
         <v>409</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>123</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172">
@@ -33081,13 +33081,13 @@
         <v>409</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173">
@@ -33095,13 +33095,13 @@
         <v>409</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>721</v>
+        <v>620</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>722</v>
+        <v>530</v>
       </c>
     </row>
     <row r="174">
@@ -33109,13 +33109,13 @@
         <v>409</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>724</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175">
@@ -33123,13 +33123,13 @@
         <v>409</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>431</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176">
@@ -33137,13 +33137,13 @@
         <v>409</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>680</v>
+        <v>727</v>
       </c>
     </row>
     <row r="177">
@@ -33151,13 +33151,13 @@
         <v>409</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="178">
@@ -33165,13 +33165,13 @@
         <v>409</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>726</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179">
@@ -33179,13 +33179,13 @@
         <v>409</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180">
@@ -33193,13 +33193,13 @@
         <v>409</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>702</v>
+        <v>641</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>703</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181">
@@ -33207,13 +33207,13 @@
         <v>409</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>578</v>
+        <v>702</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>102</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182">
@@ -33221,13 +33221,13 @@
         <v>409</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
@@ -33235,13 +33235,13 @@
         <v>409</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>729</v>
+        <v>579</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184">
@@ -33249,7 +33249,7 @@
         <v>432</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -33297,7 +33297,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -33311,7 +33311,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189">
@@ -33339,7 +33339,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
@@ -33353,7 +33353,7 @@
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192">
@@ -33367,7 +33367,7 @@
         <v>6</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193">
@@ -33395,7 +33395,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195">
@@ -33403,7 +33403,7 @@
         <v>19</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -33417,7 +33417,7 @@
         <v>19</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -33571,13 +33571,13 @@
         <v>502</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>605</v>
+        <v>751</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>606</v>
+        <v>752</v>
       </c>
     </row>
     <row r="208">
@@ -33585,13 +33585,13 @@
         <v>502</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>596</v>
+        <v>753</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>597</v>
+        <v>754</v>
       </c>
     </row>
     <row r="209">
@@ -33599,13 +33599,13 @@
         <v>502</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>751</v>
+        <v>669</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>752</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210">
@@ -33613,13 +33613,13 @@
         <v>502</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>753</v>
+        <v>592</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>754</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211">
@@ -33641,13 +33641,13 @@
         <v>502</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>669</v>
+        <v>596</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>39</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213">
@@ -33655,7 +33655,7 @@
         <v>565</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
@@ -33683,7 +33683,7 @@
         <v>528</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
@@ -33725,7 +33725,7 @@
         <v>570</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -40777,7 +40777,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>778</v>
@@ -40794,7 +40794,7 @@
         <v>340</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>768</v>
@@ -40811,7 +40811,7 @@
         <v>340</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>778</v>
@@ -40828,7 +40828,7 @@
         <v>340</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>768</v>
@@ -40845,7 +40845,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>768</v>
@@ -40862,7 +40862,7 @@
         <v>340</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>768</v>
@@ -40879,7 +40879,7 @@
         <v>340</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>768</v>
@@ -40896,7 +40896,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>768</v>

--- a/data/mall-swarm/mall-portal_structure.xlsx
+++ b/data/mall-swarm/mall-portal_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10856" uniqueCount="847">
   <si>
     <t>Class Name</t>
   </si>
@@ -1749,15 +1749,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>productDao</t>
+  </si>
+  <si>
     <t>cartItemMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.OmsCartItemMapper</t>
   </si>
   <si>
-    <t>productDao</t>
-  </si>
-  <si>
     <t>promotionService</t>
   </si>
   <si>
@@ -1767,37 +1767,43 @@
     <t>portalOrderService</t>
   </si>
   <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>categoryRelationList</t>
+  </si>
+  <si>
     <t>productRelationList</t>
   </si>
   <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>categoryRelationList</t>
+    <t>brand</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>skuStockList</t>
+  </si>
+  <si>
+    <t>productAttributeList</t>
+  </si>
+  <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>productLadderList</t>
+  </si>
+  <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>couponList</t>
   </si>
   <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>skuStockList</t>
-  </si>
-  <si>
-    <t>productLadderList</t>
-  </si>
-  <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
   </si>
   <si>
     <t>productMapper</t>
@@ -1806,51 +1812,45 @@
     <t>com.macro.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>portalProductDao</t>
+  </si>
+  <si>
+    <t>brandMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsBrandMapper</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
+  </si>
+  <si>
+    <t>productAttributeMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
+  </si>
+  <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
     <t>productAttributeValueMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.PmsProductAttributeValueMapper</t>
   </si>
   <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductCategoryMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductLadderMapper</t>
-  </si>
-  <si>
-    <t>portalProductDao</t>
-  </si>
-  <si>
-    <t>productAttributeMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductAttributeMapper</t>
-  </si>
-  <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsProductFullReductionMapper</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>brandMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.PmsBrandMapper</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -1878,33 +1878,36 @@
     <t>com.macro.mall.mapper.SmsCouponHistoryMapper</t>
   </si>
   <si>
+    <t>couponMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsCouponMapper</t>
+  </si>
+  <si>
+    <t>couponHistoryDao</t>
+  </si>
+  <si>
     <t>couponProductCategoryRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductCategoryRelationMapper</t>
   </si>
   <si>
-    <t>couponHistoryDao</t>
-  </si>
-  <si>
     <t>couponProductRelationMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsCouponProductRelationMapper</t>
   </si>
   <si>
-    <t>couponMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsCouponMapper</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>homeBrandService</t>
   </si>
   <si>
+    <t>freightAmount</t>
+  </si>
+  <si>
     <t>promotionAmount</t>
   </si>
   <si>
@@ -1914,123 +1917,120 @@
     <t>totalAmount</t>
   </si>
   <si>
-    <t>freightAmount</t>
-  </si>
-  <si>
     <t>portalProductService</t>
   </si>
   <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>brandLogo</t>
+  </si>
+  <si>
+    <t>brandCity</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
     <t>memberNickname</t>
   </si>
   <si>
-    <t>memberId</t>
-  </si>
-  <si>
     <t>brandId</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>brandLogo</t>
-  </si>
-  <si>
-    <t>createTime</t>
+    <t>memberCouponService</t>
   </si>
   <si>
     <t>cartItemService</t>
   </si>
   <si>
-    <t>memberCouponService</t>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productPrice</t>
   </si>
   <si>
     <t>productSubTitle</t>
   </si>
   <si>
-    <t>productId</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
     <t>productPic</t>
   </si>
   <si>
-    <t>productPrice</t>
-  </si>
-  <si>
     <t>memberReadHistoryService</t>
   </si>
   <si>
+    <t>couponHistoryDetailList</t>
+  </si>
+  <si>
+    <t>calcAmount</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressList</t>
+  </si>
+  <si>
     <t>cartPromotionItemList</t>
   </si>
   <si>
+    <t>integrationConsumeSetting</t>
+  </si>
+  <si>
     <t>memberIntegration</t>
   </si>
   <si>
-    <t>memberReceiveAddressList</t>
-  </si>
-  <si>
-    <t>couponHistoryDetailList</t>
-  </si>
-  <si>
-    <t>integrationConsumeSetting</t>
-  </si>
-  <si>
-    <t>calcAmount</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
     <t>outTradeNo</t>
   </si>
   <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>returnName</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>productCount</t>
+  </si>
+  <si>
+    <t>productRealPrice</t>
+  </si>
+  <si>
+    <t>proofPics</t>
+  </si>
+  <si>
     <t>productAttr</t>
   </si>
   <si>
+    <t>productBrand</t>
+  </si>
+  <si>
+    <t>memberUsername</t>
+  </si>
+  <si>
+    <t>returnPhone</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>proofPics</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>productRealPrice</t>
-  </si>
-  <si>
-    <t>memberUsername</t>
-  </si>
-  <si>
-    <t>returnPhone</t>
-  </si>
-  <si>
-    <t>productBrand</t>
-  </si>
-  <si>
-    <t>returnName</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>productCount</t>
-  </si>
-  <si>
     <t>homeDao</t>
   </si>
   <si>
@@ -2049,81 +2049,81 @@
     <t>returnApplyService</t>
   </si>
   <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
     <t>redisService</t>
   </si>
   <si>
     <t>com.macro.mall.common.service.RedisService</t>
   </si>
   <si>
+    <t>REDIS_KEY_AUTH_CODE</t>
+  </si>
+  <si>
     <t>REDIS_KEY_MEMBER</t>
   </si>
   <si>
+    <t>REDIS_EXPIRE</t>
+  </si>
+  <si>
     <t>REDIS_EXPIRE_AUTH_CODE</t>
   </si>
   <si>
-    <t>REDIS_KEY_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE</t>
-  </si>
-  <si>
     <t>val$delayTimes</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
     <t>memberMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.UmsMemberMapper</t>
   </si>
   <si>
+    <t>memberCacheService</t>
+  </si>
+  <si>
     <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
   </si>
   <si>
+    <t>AUTH_CODE_EXPIRE_SECONDS</t>
+  </si>
+  <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
     <t>authService</t>
   </si>
   <si>
-    <t>AUTH_CODE_EXPIRE_SECONDS</t>
-  </si>
-  <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsMemberLevelMapper</t>
-  </si>
-  <si>
-    <t>memberCacheService</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>routeKey</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>QUEUE_ORDER_CANCEL</t>
+  </si>
+  <si>
+    <t>QUEUE_TTL_ORDER_CANCEL</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>QUEUE_ORDER_CANCEL</t>
-  </si>
-  <si>
-    <t>routeKey</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t>QUEUE_TTL_ORDER_CANCEL</t>
-  </si>
-  <si>
     <t>alipayClient</t>
   </si>
   <si>
@@ -2136,157 +2136,157 @@
     <t>com.macro.mall.mapper.OmsOrderMapper</t>
   </si>
   <si>
+    <t>memberReceiveAddressId</t>
+  </si>
+  <si>
+    <t>cartIds</t>
+  </si>
+  <si>
     <t>useIntegration</t>
   </si>
   <si>
-    <t>cartIds</t>
-  </si>
-  <si>
     <t>couponId</t>
   </si>
   <si>
-    <t>memberReceiveAddressId</t>
-  </si>
-  <si>
     <t>payType</t>
   </si>
   <si>
+    <t>flashPromotionLimit</t>
+  </si>
+  <si>
     <t>flashPromotionPrice</t>
   </si>
   <si>
-    <t>flashPromotionLimit</t>
-  </si>
-  <si>
     <t>flashPromotionCount</t>
   </si>
   <si>
+    <t>brandList</t>
+  </si>
+  <si>
     <t>advertiseList</t>
   </si>
   <si>
+    <t>hotProductList</t>
+  </si>
+  <si>
+    <t>newProductList</t>
+  </si>
+  <si>
     <t>subjectList</t>
   </si>
   <si>
-    <t>hotProductList</t>
-  </si>
-  <si>
-    <t>brandList</t>
-  </si>
-  <si>
     <t>homeFlashPromotion</t>
   </si>
   <si>
-    <t>newProductList</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
+    <t>REDIS_KEY_ORDER_ID</t>
+  </si>
+  <si>
+    <t>portalOrderDao</t>
+  </si>
+  <si>
+    <t>integrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
+  </si>
+  <si>
+    <t>cancelOrderSender</t>
+  </si>
+  <si>
+    <t>memberReceiveAddressService</t>
+  </si>
+  <si>
+    <t>orderItemMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
+  </si>
+  <si>
+    <t>orderSettingMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
+  </si>
+  <si>
     <t>orderItemDao</t>
   </si>
   <si>
-    <t>cancelOrderSender</t>
-  </si>
-  <si>
-    <t>orderItemMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderItemMapper</t>
-  </si>
-  <si>
-    <t>orderSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.OmsOrderSettingMapper</t>
-  </si>
-  <si>
-    <t>memberReceiveAddressService</t>
-  </si>
-  <si>
-    <t>integrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
-  </si>
-  <si>
-    <t>portalOrderDao</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_ORDER_ID</t>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>nextStartTime</t>
+  </si>
+  <si>
+    <t>nextEndTime</t>
+  </si>
+  <si>
+    <t>productList</t>
   </si>
   <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>nextStartTime</t>
-  </si>
-  <si>
-    <t>productList</t>
-  </si>
-  <si>
-    <t>nextEndTime</t>
-  </si>
-  <si>
-    <t>endTime</t>
+    <t>realStock</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>reduceAmount</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>promotionMessage</t>
   </si>
   <si>
-    <t>realStock</t>
-  </si>
-  <si>
-    <t>reduceAmount</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>alipayPublicKey</t>
   </si>
   <si>
     <t>format</t>
   </si>
   <si>
+    <t>signType</t>
+  </si>
+  <si>
     <t>gatewayUrl</t>
   </si>
   <si>
+    <t>charset</t>
+  </si>
+  <si>
+    <t>returnUrl</t>
+  </si>
+  <si>
+    <t>notifyUrl</t>
+  </si>
+  <si>
     <t>appPrivateKey</t>
   </si>
   <si>
-    <t>alipayPublicKey</t>
-  </si>
-  <si>
-    <t>returnUrl</t>
-  </si>
-  <si>
-    <t>signType</t>
-  </si>
-  <si>
-    <t>charset</t>
-  </si>
-  <si>
-    <t>notifyUrl</t>
-  </si>
-  <si>
-    <t>appId</t>
+    <t>flashPromotionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
+  </si>
+  <si>
+    <t>promotionSessionMapper</t>
+  </si>
+  <si>
+    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
     <t>advertiseMapper</t>
   </si>
   <si>
     <t>com.macro.mall.mapper.SmsHomeAdvertiseMapper</t>
-  </si>
-  <si>
-    <t>flashPromotionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionMapper</t>
-  </si>
-  <si>
-    <t>promotionSessionMapper</t>
-  </si>
-  <si>
-    <t>com.macro.mall.mapper.SmsFlashPromotionSessionMapper</t>
   </si>
   <si>
     <t>subjectMapper</t>
@@ -21229,7 +21229,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C607"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22329,10 +22329,10 @@
         <v>91</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101">
@@ -22340,7 +22340,7 @@
         <v>91</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>772</v>
@@ -22348,13 +22348,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103">
@@ -22362,10 +22362,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="104">
@@ -22373,10 +22373,10 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="105">
@@ -22384,10 +22384,10 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>817</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106">
@@ -22395,10 +22395,10 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107">
@@ -22406,10 +22406,10 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>839</v>
+        <v>802</v>
       </c>
     </row>
     <row r="108">
@@ -22417,10 +22417,10 @@
         <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="109">
@@ -22428,10 +22428,10 @@
         <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="110">
@@ -22439,10 +22439,10 @@
         <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>782</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111">
@@ -22450,7 +22450,7 @@
         <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>837</v>
@@ -22458,13 +22458,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="113">
@@ -22472,10 +22472,10 @@
         <v>144</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="114">
@@ -22483,18 +22483,18 @@
         <v>144</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>803</v>
@@ -22505,10 +22505,10 @@
         <v>166</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="117">
@@ -22516,18 +22516,18 @@
         <v>166</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>803</v>
@@ -22538,10 +22538,10 @@
         <v>169</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="120">
@@ -22549,7 +22549,7 @@
         <v>169</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>772</v>
@@ -22557,13 +22557,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>169</v>
+        <v>543</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>171</v>
+        <v>544</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="122">
@@ -22571,10 +22571,10 @@
         <v>543</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>544</v>
+        <v>296</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123">
@@ -22582,7 +22582,7 @@
         <v>543</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>796</v>
@@ -22593,7 +22593,7 @@
         <v>543</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>796</v>
@@ -22601,13 +22601,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>543</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="126">
@@ -22615,7 +22615,7 @@
         <v>175</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>768</v>
@@ -22626,7 +22626,7 @@
         <v>175</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>768</v>
@@ -22637,7 +22637,7 @@
         <v>175</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>768</v>
@@ -22645,10 +22645,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>768</v>
@@ -22656,13 +22656,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="131">
@@ -22670,21 +22670,21 @@
         <v>181</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="133">
@@ -22692,10 +22692,10 @@
         <v>184</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="134">
@@ -22703,7 +22703,7 @@
         <v>184</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>772</v>
@@ -22714,7 +22714,7 @@
         <v>184</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>772</v>
@@ -22725,7 +22725,7 @@
         <v>184</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>772</v>
@@ -22736,7 +22736,7 @@
         <v>184</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>772</v>
@@ -22747,7 +22747,7 @@
         <v>184</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>772</v>
@@ -22758,7 +22758,7 @@
         <v>184</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>772</v>
@@ -22769,7 +22769,7 @@
         <v>184</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>772</v>
@@ -22777,13 +22777,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>184</v>
+        <v>545</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>188</v>
+        <v>546</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="142">
@@ -22791,10 +22791,10 @@
         <v>545</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>546</v>
+        <v>93</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="143">
@@ -22802,7 +22802,7 @@
         <v>545</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>796</v>
@@ -22813,7 +22813,7 @@
         <v>545</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>796</v>
@@ -22821,13 +22821,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>545</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146">
@@ -22835,10 +22835,10 @@
         <v>178</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="147">
@@ -22846,7 +22846,7 @@
         <v>178</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>772</v>
@@ -22857,7 +22857,7 @@
         <v>178</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>772</v>
@@ -22868,7 +22868,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>772</v>
@@ -22879,7 +22879,7 @@
         <v>178</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>772</v>
@@ -22890,7 +22890,7 @@
         <v>178</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>772</v>
@@ -22901,7 +22901,7 @@
         <v>178</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>772</v>
@@ -22912,7 +22912,7 @@
         <v>178</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>772</v>
@@ -22923,7 +22923,7 @@
         <v>178</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>772</v>
@@ -22934,7 +22934,7 @@
         <v>178</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>772</v>
@@ -22945,7 +22945,7 @@
         <v>178</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>772</v>
@@ -22956,7 +22956,7 @@
         <v>178</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>772</v>
@@ -22967,7 +22967,7 @@
         <v>178</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>772</v>
@@ -22978,7 +22978,7 @@
         <v>178</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>772</v>
@@ -22989,7 +22989,7 @@
         <v>178</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>772</v>
@@ -23000,7 +23000,7 @@
         <v>178</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>772</v>
@@ -23011,7 +23011,7 @@
         <v>178</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>772</v>
@@ -23022,7 +23022,7 @@
         <v>178</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>772</v>
@@ -23030,13 +23030,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>178</v>
+        <v>547</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>202</v>
+        <v>549</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="165">
@@ -23044,10 +23044,10 @@
         <v>547</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>549</v>
+        <v>141</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="166">
@@ -23055,7 +23055,7 @@
         <v>547</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>796</v>
@@ -23066,7 +23066,7 @@
         <v>547</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>796</v>
@@ -23077,10 +23077,10 @@
         <v>547</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>139</v>
+        <v>548</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="169">
@@ -23088,21 +23088,21 @@
         <v>547</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>548</v>
+        <v>142</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>547</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="171">
@@ -23110,7 +23110,7 @@
         <v>215</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>768</v>
@@ -23121,7 +23121,7 @@
         <v>215</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>768</v>
@@ -23132,7 +23132,7 @@
         <v>215</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>768</v>
@@ -23143,7 +23143,7 @@
         <v>215</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>768</v>
@@ -23151,10 +23151,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>768</v>
@@ -23165,7 +23165,7 @@
         <v>216</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>768</v>
@@ -23173,10 +23173,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>768</v>
@@ -23187,7 +23187,7 @@
         <v>218</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>768</v>
@@ -23198,7 +23198,7 @@
         <v>218</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>768</v>
@@ -23209,7 +23209,7 @@
         <v>218</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>768</v>
@@ -23220,7 +23220,7 @@
         <v>218</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>768</v>
@@ -23228,13 +23228,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183">
@@ -23242,10 +23242,10 @@
         <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="184">
@@ -23253,7 +23253,7 @@
         <v>224</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>772</v>
@@ -23264,7 +23264,7 @@
         <v>224</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>772</v>
@@ -23275,7 +23275,7 @@
         <v>224</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>772</v>
@@ -23286,7 +23286,7 @@
         <v>224</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>772</v>
@@ -23297,7 +23297,7 @@
         <v>224</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>772</v>
@@ -23305,13 +23305,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="190">
@@ -23319,7 +23319,7 @@
         <v>226</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>768</v>
@@ -23330,7 +23330,7 @@
         <v>226</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>768</v>
@@ -23341,7 +23341,7 @@
         <v>226</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>768</v>
@@ -23349,13 +23349,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="194">
@@ -23363,10 +23363,10 @@
         <v>229</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="195">
@@ -23374,7 +23374,7 @@
         <v>229</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>782</v>
@@ -23382,13 +23382,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="197">
@@ -23396,10 +23396,10 @@
         <v>233</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="198">
@@ -23407,7 +23407,7 @@
         <v>233</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>772</v>
@@ -23418,7 +23418,7 @@
         <v>233</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>772</v>
@@ -23429,7 +23429,7 @@
         <v>233</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>772</v>
@@ -23440,7 +23440,7 @@
         <v>233</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>772</v>
@@ -23451,7 +23451,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>772</v>
@@ -23462,7 +23462,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>772</v>
@@ -23473,7 +23473,7 @@
         <v>233</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>772</v>
@@ -23484,7 +23484,7 @@
         <v>233</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>772</v>
@@ -23495,7 +23495,7 @@
         <v>233</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>772</v>
@@ -23506,7 +23506,7 @@
         <v>233</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>772</v>
@@ -23517,7 +23517,7 @@
         <v>233</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>772</v>
@@ -23528,7 +23528,7 @@
         <v>233</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>772</v>
@@ -23539,7 +23539,7 @@
         <v>233</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>772</v>
@@ -23550,7 +23550,7 @@
         <v>233</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>772</v>
@@ -23561,7 +23561,7 @@
         <v>233</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>772</v>
@@ -23572,7 +23572,7 @@
         <v>233</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>772</v>
@@ -23583,7 +23583,7 @@
         <v>233</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>772</v>
@@ -23594,7 +23594,7 @@
         <v>233</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>772</v>
@@ -23605,7 +23605,7 @@
         <v>233</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>772</v>
@@ -23613,13 +23613,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>233</v>
+        <v>550</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>202</v>
+        <v>551</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="218">
@@ -23627,10 +23627,10 @@
         <v>550</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>551</v>
+        <v>227</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="219">
@@ -23638,7 +23638,7 @@
         <v>550</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>779</v>
@@ -23649,10 +23649,10 @@
         <v>550</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="221">
@@ -23660,7 +23660,7 @@
         <v>550</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>796</v>
@@ -23668,13 +23668,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>550</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="223">
@@ -23682,10 +23682,10 @@
         <v>245</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="224">
@@ -23693,7 +23693,7 @@
         <v>245</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>772</v>
@@ -23704,7 +23704,7 @@
         <v>245</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>772</v>
@@ -23715,7 +23715,7 @@
         <v>245</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>772</v>
@@ -23726,7 +23726,7 @@
         <v>245</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>772</v>
@@ -23737,7 +23737,7 @@
         <v>245</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>772</v>
@@ -23748,7 +23748,7 @@
         <v>245</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>772</v>
@@ -23759,7 +23759,7 @@
         <v>245</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>772</v>
@@ -23770,7 +23770,7 @@
         <v>245</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>772</v>
@@ -23781,7 +23781,7 @@
         <v>245</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>772</v>
@@ -23792,7 +23792,7 @@
         <v>245</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>772</v>
@@ -23803,7 +23803,7 @@
         <v>245</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>772</v>
@@ -23811,13 +23811,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="236">
@@ -23825,10 +23825,10 @@
         <v>261</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="237">
@@ -23836,7 +23836,7 @@
         <v>261</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>772</v>
@@ -23847,7 +23847,7 @@
         <v>261</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>772</v>
@@ -23858,7 +23858,7 @@
         <v>261</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>772</v>
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>772</v>
@@ -23880,7 +23880,7 @@
         <v>261</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>772</v>
@@ -23891,10 +23891,10 @@
         <v>261</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>772</v>
+        <v>825</v>
       </c>
     </row>
     <row r="243">
@@ -23902,10 +23902,10 @@
         <v>261</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>825</v>
+        <v>772</v>
       </c>
     </row>
     <row r="244">
@@ -23913,10 +23913,10 @@
         <v>261</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>772</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245">
@@ -23924,21 +23924,21 @@
         <v>261</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>800</v>
+        <v>772</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="247">
@@ -23946,10 +23946,10 @@
         <v>268</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="248">
@@ -23957,7 +23957,7 @@
         <v>268</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>772</v>
@@ -23968,7 +23968,7 @@
         <v>268</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>772</v>
@@ -23979,7 +23979,7 @@
         <v>268</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>772</v>
@@ -23990,7 +23990,7 @@
         <v>268</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>772</v>
@@ -24001,7 +24001,7 @@
         <v>268</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>772</v>
@@ -24012,7 +24012,7 @@
         <v>268</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>772</v>
@@ -24023,7 +24023,7 @@
         <v>268</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>772</v>
@@ -24034,7 +24034,7 @@
         <v>268</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>772</v>
@@ -24045,7 +24045,7 @@
         <v>268</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>772</v>
@@ -24056,7 +24056,7 @@
         <v>268</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>772</v>
@@ -24067,7 +24067,7 @@
         <v>268</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>772</v>
@@ -24078,7 +24078,7 @@
         <v>268</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>772</v>
@@ -24089,7 +24089,7 @@
         <v>268</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>772</v>
@@ -24100,7 +24100,7 @@
         <v>268</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>772</v>
@@ -24111,7 +24111,7 @@
         <v>268</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>772</v>
@@ -24122,7 +24122,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>772</v>
@@ -24133,7 +24133,7 @@
         <v>268</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>772</v>
@@ -24144,7 +24144,7 @@
         <v>268</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>772</v>
@@ -24155,7 +24155,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>772</v>
@@ -24166,7 +24166,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>772</v>
@@ -24177,7 +24177,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>772</v>
@@ -24188,7 +24188,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>772</v>
@@ -24199,7 +24199,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>772</v>
@@ -24210,7 +24210,7 @@
         <v>268</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>772</v>
@@ -24221,7 +24221,7 @@
         <v>268</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>772</v>
@@ -24232,7 +24232,7 @@
         <v>268</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>772</v>
@@ -24243,7 +24243,7 @@
         <v>268</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>772</v>
@@ -24254,7 +24254,7 @@
         <v>268</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>772</v>
@@ -24265,7 +24265,7 @@
         <v>268</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>772</v>
@@ -24276,7 +24276,7 @@
         <v>268</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>772</v>
@@ -24287,7 +24287,7 @@
         <v>268</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>772</v>
@@ -24295,13 +24295,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="280">
@@ -24309,10 +24309,10 @@
         <v>295</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="281">
@@ -24320,10 +24320,10 @@
         <v>295</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="282">
@@ -24331,21 +24331,21 @@
         <v>295</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="284">
@@ -24353,21 +24353,21 @@
         <v>300</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286">
@@ -24375,7 +24375,7 @@
         <v>304</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>768</v>
@@ -24386,7 +24386,7 @@
         <v>304</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>768</v>
@@ -24397,7 +24397,7 @@
         <v>304</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>768</v>
@@ -24408,7 +24408,7 @@
         <v>304</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>768</v>
@@ -24416,10 +24416,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>768</v>
@@ -24430,7 +24430,7 @@
         <v>305</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>768</v>
@@ -24441,7 +24441,7 @@
         <v>305</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>768</v>
@@ -24452,7 +24452,7 @@
         <v>305</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>768</v>
@@ -24463,7 +24463,7 @@
         <v>305</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>768</v>
@@ -24474,7 +24474,7 @@
         <v>305</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>768</v>
@@ -24485,7 +24485,7 @@
         <v>305</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>768</v>
@@ -24496,7 +24496,7 @@
         <v>305</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>768</v>
@@ -24507,7 +24507,7 @@
         <v>305</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>768</v>
@@ -24518,7 +24518,7 @@
         <v>305</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>768</v>
@@ -24529,7 +24529,7 @@
         <v>305</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>768</v>
@@ -24537,13 +24537,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="302">
@@ -24551,10 +24551,10 @@
         <v>316</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>803</v>
+        <v>830</v>
       </c>
     </row>
     <row r="303">
@@ -24562,10 +24562,10 @@
         <v>316</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>830</v>
+        <v>796</v>
       </c>
     </row>
     <row r="304">
@@ -24573,10 +24573,10 @@
         <v>316</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="305">
@@ -24584,10 +24584,10 @@
         <v>316</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="306">
@@ -24595,7 +24595,7 @@
         <v>316</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>796</v>
@@ -24603,13 +24603,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>316</v>
+        <v>552</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>122</v>
+        <v>553</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="308">
@@ -24617,10 +24617,10 @@
         <v>552</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>553</v>
+        <v>318</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="309">
@@ -24628,7 +24628,7 @@
         <v>552</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="C309" t="s" s="0">
         <v>779</v>
@@ -24639,10 +24639,10 @@
         <v>552</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="311">
@@ -24650,7 +24650,7 @@
         <v>552</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C311" t="s" s="0">
         <v>796</v>
@@ -24661,7 +24661,7 @@
         <v>552</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C312" t="s" s="0">
         <v>796</v>
@@ -24669,13 +24669,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>552</v>
+        <v>319</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="314">
@@ -24683,7 +24683,7 @@
         <v>319</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>768</v>
@@ -24694,7 +24694,7 @@
         <v>319</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>768</v>
@@ -24702,13 +24702,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>319</v>
+        <v>554</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>297</v>
+        <v>558</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="317">
@@ -24716,10 +24716,10 @@
         <v>554</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="318">
@@ -24727,7 +24727,7 @@
         <v>554</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>806</v>
@@ -24738,10 +24738,10 @@
         <v>554</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>806</v>
+        <v>782</v>
       </c>
     </row>
     <row r="320">
@@ -24749,21 +24749,21 @@
         <v>554</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>555</v>
+        <v>339</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>339</v>
+        <v>560</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="322">
@@ -24771,21 +24771,21 @@
         <v>559</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>560</v>
+        <v>404</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>559</v>
+        <v>320</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="324">
@@ -24793,10 +24793,10 @@
         <v>320</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="325">
@@ -24804,7 +24804,7 @@
         <v>320</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C325" t="s" s="0">
         <v>796</v>
@@ -24815,7 +24815,7 @@
         <v>320</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C326" t="s" s="0">
         <v>796</v>
@@ -24826,7 +24826,7 @@
         <v>320</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>796</v>
@@ -24837,7 +24837,7 @@
         <v>320</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C328" t="s" s="0">
         <v>796</v>
@@ -24845,21 +24845,21 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" t="s" s="0">
         <v>803</v>
@@ -24870,10 +24870,10 @@
         <v>48</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="332">
@@ -24881,7 +24881,7 @@
         <v>48</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>772</v>
@@ -24892,7 +24892,7 @@
         <v>48</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C333" t="s" s="0">
         <v>772</v>
@@ -24903,7 +24903,7 @@
         <v>48</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C334" t="s" s="0">
         <v>772</v>
@@ -24914,7 +24914,7 @@
         <v>48</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C335" t="s" s="0">
         <v>772</v>
@@ -24925,7 +24925,7 @@
         <v>48</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C336" t="s" s="0">
         <v>772</v>
@@ -24936,7 +24936,7 @@
         <v>48</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C337" t="s" s="0">
         <v>772</v>
@@ -24947,7 +24947,7 @@
         <v>48</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C338" t="s" s="0">
         <v>772</v>
@@ -24958,7 +24958,7 @@
         <v>48</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C339" t="s" s="0">
         <v>772</v>
@@ -24969,7 +24969,7 @@
         <v>48</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C340" t="s" s="0">
         <v>772</v>
@@ -24980,7 +24980,7 @@
         <v>48</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C341" t="s" s="0">
         <v>772</v>
@@ -24991,7 +24991,7 @@
         <v>48</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C342" t="s" s="0">
         <v>772</v>
@@ -25002,7 +25002,7 @@
         <v>48</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C343" t="s" s="0">
         <v>772</v>
@@ -25013,7 +25013,7 @@
         <v>48</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>772</v>
@@ -25024,7 +25024,7 @@
         <v>48</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C345" t="s" s="0">
         <v>772</v>
@@ -25035,7 +25035,7 @@
         <v>48</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>772</v>
@@ -25046,7 +25046,7 @@
         <v>48</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C347" t="s" s="0">
         <v>772</v>
@@ -25057,7 +25057,7 @@
         <v>48</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>772</v>
@@ -25068,7 +25068,7 @@
         <v>48</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C349" t="s" s="0">
         <v>772</v>
@@ -25079,7 +25079,7 @@
         <v>48</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C350" t="s" s="0">
         <v>772</v>
@@ -25087,13 +25087,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="352">
@@ -25101,21 +25101,21 @@
         <v>325</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="354">
@@ -25123,7 +25123,7 @@
         <v>329</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="C354" t="s" s="0">
         <v>768</v>
@@ -25134,7 +25134,7 @@
         <v>329</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C355" t="s" s="0">
         <v>768</v>
@@ -25142,13 +25142,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="357">
@@ -25156,10 +25156,10 @@
         <v>332</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="358">
@@ -25167,10 +25167,10 @@
         <v>332</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="359">
@@ -25178,10 +25178,10 @@
         <v>332</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>772</v>
+        <v>820</v>
       </c>
     </row>
     <row r="360">
@@ -25189,10 +25189,10 @@
         <v>332</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>820</v>
+        <v>801</v>
       </c>
     </row>
     <row r="361">
@@ -25200,10 +25200,10 @@
         <v>332</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>801</v>
+        <v>840</v>
       </c>
     </row>
     <row r="362">
@@ -25211,10 +25211,10 @@
         <v>332</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C362" t="s" s="0">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="363">
@@ -25222,10 +25222,10 @@
         <v>332</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C363" t="s" s="0">
-        <v>830</v>
+        <v>779</v>
       </c>
     </row>
     <row r="364">
@@ -25233,10 +25233,10 @@
         <v>332</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C364" t="s" s="0">
-        <v>779</v>
+        <v>837</v>
       </c>
     </row>
     <row r="365">
@@ -25244,10 +25244,10 @@
         <v>332</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="366">
@@ -25255,21 +25255,21 @@
         <v>332</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>836</v>
+        <v>779</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="368">
@@ -25277,7 +25277,7 @@
         <v>335</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C368" t="s" s="0">
         <v>768</v>
@@ -25288,7 +25288,7 @@
         <v>335</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C369" t="s" s="0">
         <v>768</v>
@@ -25299,7 +25299,7 @@
         <v>335</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C370" t="s" s="0">
         <v>768</v>
@@ -25307,13 +25307,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="372">
@@ -25321,7 +25321,7 @@
         <v>340</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C372" t="s" s="0">
         <v>803</v>
@@ -25332,10 +25332,10 @@
         <v>340</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="374">
@@ -25343,10 +25343,10 @@
         <v>340</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="375">
@@ -25354,7 +25354,7 @@
         <v>340</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>772</v>
@@ -25365,7 +25365,7 @@
         <v>340</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>772</v>
@@ -25376,18 +25376,18 @@
         <v>340</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>803</v>
@@ -25398,10 +25398,10 @@
         <v>358</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="380">
@@ -25409,10 +25409,10 @@
         <v>358</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="381">
@@ -25420,10 +25420,10 @@
         <v>358</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>819</v>
+        <v>835</v>
       </c>
     </row>
     <row r="382">
@@ -25431,21 +25431,21 @@
         <v>358</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>835</v>
+        <v>813</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="384">
@@ -25453,10 +25453,10 @@
         <v>360</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="385">
@@ -25464,7 +25464,7 @@
         <v>360</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>772</v>
@@ -25475,7 +25475,7 @@
         <v>360</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>772</v>
@@ -25486,7 +25486,7 @@
         <v>360</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>772</v>
@@ -25497,7 +25497,7 @@
         <v>360</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>772</v>
@@ -25508,7 +25508,7 @@
         <v>360</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>772</v>
@@ -25519,7 +25519,7 @@
         <v>360</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C390" t="s" s="0">
         <v>772</v>
@@ -25530,7 +25530,7 @@
         <v>360</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>772</v>
@@ -25541,7 +25541,7 @@
         <v>360</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C392" t="s" s="0">
         <v>772</v>
@@ -25552,7 +25552,7 @@
         <v>360</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>772</v>
@@ -25563,7 +25563,7 @@
         <v>360</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="C394" t="s" s="0">
         <v>772</v>
@@ -25574,10 +25574,10 @@
         <v>360</v>
       </c>
       <c r="B395" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C395" t="s" s="0">
-        <v>772</v>
+        <v>841</v>
       </c>
     </row>
     <row r="396">
@@ -25585,10 +25585,10 @@
         <v>360</v>
       </c>
       <c r="B396" t="s" s="0">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="C396" t="s" s="0">
-        <v>841</v>
+        <v>772</v>
       </c>
     </row>
     <row r="397">
@@ -25596,21 +25596,21 @@
         <v>360</v>
       </c>
       <c r="B397" t="s" s="0">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="C397" t="s" s="0">
-        <v>772</v>
+        <v>840</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B398" t="s" s="0">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="C398" t="s" s="0">
-        <v>840</v>
+        <v>803</v>
       </c>
     </row>
     <row r="399">
@@ -25618,10 +25618,10 @@
         <v>372</v>
       </c>
       <c r="B399" t="s" s="0">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C399" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="400">
@@ -25629,7 +25629,7 @@
         <v>372</v>
       </c>
       <c r="B400" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C400" t="s" s="0">
         <v>772</v>
@@ -25640,7 +25640,7 @@
         <v>372</v>
       </c>
       <c r="B401" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C401" t="s" s="0">
         <v>772</v>
@@ -25651,7 +25651,7 @@
         <v>372</v>
       </c>
       <c r="B402" t="s" s="0">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C402" t="s" s="0">
         <v>772</v>
@@ -25662,7 +25662,7 @@
         <v>372</v>
       </c>
       <c r="B403" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C403" t="s" s="0">
         <v>772</v>
@@ -25673,7 +25673,7 @@
         <v>372</v>
       </c>
       <c r="B404" t="s" s="0">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C404" t="s" s="0">
         <v>772</v>
@@ -25681,13 +25681,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B405" t="s" s="0">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C405" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="406">
@@ -25695,21 +25695,21 @@
         <v>380</v>
       </c>
       <c r="B406" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B407" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="408">
@@ -25717,21 +25717,21 @@
         <v>383</v>
       </c>
       <c r="B408" t="s" s="0">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="0">
-        <v>383</v>
+        <v>561</v>
       </c>
       <c r="B409" t="s" s="0">
-        <v>384</v>
+        <v>563</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410">
@@ -25739,10 +25739,10 @@
         <v>561</v>
       </c>
       <c r="B410" t="s" s="0">
-        <v>563</v>
+        <v>24</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="411">
@@ -25750,10 +25750,10 @@
         <v>561</v>
       </c>
       <c r="B411" t="s" s="0">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C411" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="412">
@@ -25761,7 +25761,7 @@
         <v>561</v>
       </c>
       <c r="B412" t="s" s="0">
-        <v>126</v>
+        <v>562</v>
       </c>
       <c r="C412" t="s" s="0">
         <v>796</v>
@@ -25772,10 +25772,10 @@
         <v>561</v>
       </c>
       <c r="B413" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="414">
@@ -25783,10 +25783,10 @@
         <v>561</v>
       </c>
       <c r="B414" t="s" s="0">
-        <v>564</v>
+        <v>18</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="415">
@@ -25794,10 +25794,10 @@
         <v>561</v>
       </c>
       <c r="B415" t="s" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="416">
@@ -25805,7 +25805,7 @@
         <v>561</v>
       </c>
       <c r="B416" t="s" s="0">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="C416" t="s" s="0">
         <v>779</v>
@@ -25816,7 +25816,7 @@
         <v>561</v>
       </c>
       <c r="B417" t="s" s="0">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="C417" t="s" s="0">
         <v>779</v>
@@ -25824,13 +25824,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="0">
-        <v>561</v>
+        <v>387</v>
       </c>
       <c r="B418" t="s" s="0">
-        <v>122</v>
+        <v>395</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>779</v>
+        <v>803</v>
       </c>
     </row>
     <row r="419">
@@ -25838,10 +25838,10 @@
         <v>387</v>
       </c>
       <c r="B419" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="420">
@@ -25849,7 +25849,7 @@
         <v>387</v>
       </c>
       <c r="B420" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C420" t="s" s="0">
         <v>772</v>
@@ -25860,7 +25860,7 @@
         <v>387</v>
       </c>
       <c r="B421" t="s" s="0">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C421" t="s" s="0">
         <v>772</v>
@@ -25871,7 +25871,7 @@
         <v>387</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C422" t="s" s="0">
         <v>772</v>
@@ -25882,7 +25882,7 @@
         <v>387</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C423" t="s" s="0">
         <v>772</v>
@@ -25893,7 +25893,7 @@
         <v>387</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C424" t="s" s="0">
         <v>772</v>
@@ -25904,7 +25904,7 @@
         <v>387</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C425" t="s" s="0">
         <v>772</v>
@@ -25915,7 +25915,7 @@
         <v>387</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C426" t="s" s="0">
         <v>772</v>
@@ -25926,7 +25926,7 @@
         <v>387</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C427" t="s" s="0">
         <v>772</v>
@@ -25937,7 +25937,7 @@
         <v>387</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C428" t="s" s="0">
         <v>772</v>
@@ -25948,7 +25948,7 @@
         <v>387</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C429" t="s" s="0">
         <v>772</v>
@@ -25959,7 +25959,7 @@
         <v>387</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C430" t="s" s="0">
         <v>772</v>
@@ -25967,13 +25967,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="432">
@@ -25981,7 +25981,7 @@
         <v>402</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C432" t="s" s="0">
         <v>768</v>
@@ -25992,7 +25992,7 @@
         <v>402</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C433" t="s" s="0">
         <v>768</v>
@@ -26000,10 +26000,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>89</v>
+        <v>404</v>
       </c>
       <c r="C434" t="s" s="0">
         <v>768</v>
@@ -26011,13 +26011,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="436">
@@ -26025,10 +26025,10 @@
         <v>405</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>406</v>
+        <v>227</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>803</v>
+        <v>837</v>
       </c>
     </row>
     <row r="437">
@@ -26036,7 +26036,7 @@
         <v>405</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C437" t="s" s="0">
         <v>837</v>
@@ -26047,10 +26047,10 @@
         <v>405</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>837</v>
+        <v>794</v>
       </c>
     </row>
     <row r="439">
@@ -26058,29 +26058,29 @@
         <v>405</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>122</v>
+        <v>408</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C441" t="s" s="0">
         <v>803</v>
@@ -26091,10 +26091,10 @@
         <v>409</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="443">
@@ -26102,10 +26102,10 @@
         <v>409</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>811</v>
+        <v>842</v>
       </c>
     </row>
     <row r="444">
@@ -26113,10 +26113,10 @@
         <v>409</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>842</v>
+        <v>800</v>
       </c>
     </row>
     <row r="445">
@@ -26124,10 +26124,10 @@
         <v>409</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="C445" t="s" s="0">
-        <v>800</v>
+        <v>843</v>
       </c>
     </row>
     <row r="446">
@@ -26135,10 +26135,10 @@
         <v>409</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>843</v>
+        <v>810</v>
       </c>
     </row>
     <row r="447">
@@ -26146,10 +26146,10 @@
         <v>409</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="448">
@@ -26157,10 +26157,10 @@
         <v>409</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>794</v>
+        <v>830</v>
       </c>
     </row>
     <row r="449">
@@ -26168,10 +26168,10 @@
         <v>409</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
     <row r="450">
@@ -26179,10 +26179,10 @@
         <v>409</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="451">
@@ -26190,10 +26190,10 @@
         <v>409</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="452">
@@ -26201,10 +26201,10 @@
         <v>409</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>830</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453">
@@ -26212,10 +26212,10 @@
         <v>409</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="C453" t="s" s="0">
-        <v>801</v>
+        <v>817</v>
       </c>
     </row>
     <row r="454">
@@ -26223,10 +26223,10 @@
         <v>409</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>817</v>
+        <v>779</v>
       </c>
     </row>
     <row r="455">
@@ -26234,7 +26234,7 @@
         <v>409</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="C455" t="s" s="0">
         <v>779</v>
@@ -26245,7 +26245,7 @@
         <v>409</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="C456" t="s" s="0">
         <v>779</v>
@@ -26256,10 +26256,10 @@
         <v>409</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C457" t="s" s="0">
-        <v>779</v>
+        <v>830</v>
       </c>
     </row>
     <row r="458">
@@ -26267,10 +26267,10 @@
         <v>409</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>830</v>
+        <v>806</v>
       </c>
     </row>
     <row r="459">
@@ -26278,10 +26278,10 @@
         <v>409</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>806</v>
+        <v>836</v>
       </c>
     </row>
     <row r="460">
@@ -26289,10 +26289,10 @@
         <v>409</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>836</v>
+        <v>796</v>
       </c>
     </row>
     <row r="461">
@@ -26300,10 +26300,10 @@
         <v>409</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="462">
@@ -26311,7 +26311,7 @@
         <v>409</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C462" t="s" s="0">
         <v>801</v>
@@ -26322,7 +26322,7 @@
         <v>409</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C463" t="s" s="0">
         <v>801</v>
@@ -26333,10 +26333,10 @@
         <v>409</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>801</v>
+        <v>845</v>
       </c>
     </row>
     <row r="465">
@@ -26344,10 +26344,10 @@
         <v>409</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="466">
@@ -26355,10 +26355,10 @@
         <v>409</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>830</v>
+        <v>779</v>
       </c>
     </row>
     <row r="467">
@@ -26366,10 +26366,10 @@
         <v>409</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C467" t="s" s="0">
-        <v>779</v>
+        <v>804</v>
       </c>
     </row>
     <row r="468">
@@ -26377,10 +26377,10 @@
         <v>409</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="469">
@@ -26388,10 +26388,10 @@
         <v>409</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>423</v>
+        <v>134</v>
       </c>
       <c r="C469" t="s" s="0">
-        <v>801</v>
+        <v>779</v>
       </c>
     </row>
     <row r="470">
@@ -26399,7 +26399,7 @@
         <v>409</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="C470" t="s" s="0">
         <v>779</v>
@@ -26410,10 +26410,10 @@
         <v>409</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="C471" t="s" s="0">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="472">
@@ -26421,10 +26421,10 @@
         <v>409</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>782</v>
+        <v>830</v>
       </c>
     </row>
     <row r="473">
@@ -26432,21 +26432,21 @@
         <v>409</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C473" t="s" s="0">
-        <v>830</v>
+        <v>803</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s" s="0">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B474" t="s" s="0">
-        <v>424</v>
+        <v>24</v>
       </c>
       <c r="C474" t="s" s="0">
-        <v>803</v>
+        <v>768</v>
       </c>
     </row>
     <row r="475">
@@ -26454,7 +26454,7 @@
         <v>431</v>
       </c>
       <c r="B475" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C475" t="s" s="0">
         <v>768</v>
@@ -26465,7 +26465,7 @@
         <v>431</v>
       </c>
       <c r="B476" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C476" t="s" s="0">
         <v>768</v>
@@ -26476,7 +26476,7 @@
         <v>431</v>
       </c>
       <c r="B477" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C477" t="s" s="0">
         <v>768</v>
@@ -26487,7 +26487,7 @@
         <v>431</v>
       </c>
       <c r="B478" t="s" s="0">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C478" t="s" s="0">
         <v>768</v>
@@ -26498,7 +26498,7 @@
         <v>431</v>
       </c>
       <c r="B479" t="s" s="0">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C479" t="s" s="0">
         <v>768</v>
@@ -26509,7 +26509,7 @@
         <v>431</v>
       </c>
       <c r="B480" t="s" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C480" t="s" s="0">
         <v>768</v>
@@ -26520,7 +26520,7 @@
         <v>431</v>
       </c>
       <c r="B481" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C481" t="s" s="0">
         <v>768</v>
@@ -26528,13 +26528,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B482" t="s" s="0">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="C482" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="483">
@@ -26542,10 +26542,10 @@
         <v>432</v>
       </c>
       <c r="B483" t="s" s="0">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="C483" t="s" s="0">
-        <v>803</v>
+        <v>846</v>
       </c>
     </row>
     <row r="484">
@@ -26553,10 +26553,10 @@
         <v>432</v>
       </c>
       <c r="B484" t="s" s="0">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="C484" t="s" s="0">
-        <v>846</v>
+        <v>779</v>
       </c>
     </row>
     <row r="485">
@@ -26564,10 +26564,10 @@
         <v>432</v>
       </c>
       <c r="B485" t="s" s="0">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="C485" t="s" s="0">
-        <v>779</v>
+        <v>840</v>
       </c>
     </row>
     <row r="486">
@@ -26575,10 +26575,10 @@
         <v>432</v>
       </c>
       <c r="B486" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C486" t="s" s="0">
-        <v>840</v>
+        <v>800</v>
       </c>
     </row>
     <row r="487">
@@ -26586,10 +26586,10 @@
         <v>432</v>
       </c>
       <c r="B487" t="s" s="0">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C487" t="s" s="0">
-        <v>800</v>
+        <v>840</v>
       </c>
     </row>
     <row r="488">
@@ -26597,10 +26597,10 @@
         <v>432</v>
       </c>
       <c r="B488" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C488" t="s" s="0">
-        <v>840</v>
+        <v>807</v>
       </c>
     </row>
     <row r="489">
@@ -26608,10 +26608,10 @@
         <v>432</v>
       </c>
       <c r="B489" t="s" s="0">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C489" t="s" s="0">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="490">
@@ -26619,10 +26619,10 @@
         <v>432</v>
       </c>
       <c r="B490" t="s" s="0">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C490" t="s" s="0">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="491">
@@ -26630,10 +26630,10 @@
         <v>432</v>
       </c>
       <c r="B491" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C491" t="s" s="0">
-        <v>807</v>
+        <v>779</v>
       </c>
     </row>
     <row r="492">
@@ -26641,10 +26641,10 @@
         <v>432</v>
       </c>
       <c r="B492" t="s" s="0">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C492" t="s" s="0">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="493">
@@ -26652,10 +26652,10 @@
         <v>432</v>
       </c>
       <c r="B493" t="s" s="0">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C493" t="s" s="0">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="494">
@@ -26663,7 +26663,7 @@
         <v>432</v>
       </c>
       <c r="B494" t="s" s="0">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C494" t="s" s="0">
         <v>782</v>
@@ -26671,13 +26671,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="0">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="B495" t="s" s="0">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C495" t="s" s="0">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="496">
@@ -26685,10 +26685,10 @@
         <v>389</v>
       </c>
       <c r="B496" t="s" s="0">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C496" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="497">
@@ -26696,7 +26696,7 @@
         <v>389</v>
       </c>
       <c r="B497" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C497" t="s" s="0">
         <v>772</v>
@@ -26707,7 +26707,7 @@
         <v>389</v>
       </c>
       <c r="B498" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C498" t="s" s="0">
         <v>772</v>
@@ -26718,7 +26718,7 @@
         <v>389</v>
       </c>
       <c r="B499" t="s" s="0">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C499" t="s" s="0">
         <v>772</v>
@@ -26729,7 +26729,7 @@
         <v>389</v>
       </c>
       <c r="B500" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C500" t="s" s="0">
         <v>772</v>
@@ -26740,7 +26740,7 @@
         <v>389</v>
       </c>
       <c r="B501" t="s" s="0">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C501" t="s" s="0">
         <v>772</v>
@@ -26751,7 +26751,7 @@
         <v>389</v>
       </c>
       <c r="B502" t="s" s="0">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C502" t="s" s="0">
         <v>772</v>
@@ -26762,7 +26762,7 @@
         <v>389</v>
       </c>
       <c r="B503" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C503" t="s" s="0">
         <v>772</v>
@@ -26773,7 +26773,7 @@
         <v>389</v>
       </c>
       <c r="B504" t="s" s="0">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C504" t="s" s="0">
         <v>772</v>
@@ -26784,7 +26784,7 @@
         <v>389</v>
       </c>
       <c r="B505" t="s" s="0">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C505" t="s" s="0">
         <v>772</v>
@@ -26792,24 +26792,24 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="0">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="B506" t="s" s="0">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C506" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B507" t="s" s="0">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C507" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="508">
@@ -26817,10 +26817,10 @@
         <v>460</v>
       </c>
       <c r="B508" t="s" s="0">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C508" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="509">
@@ -26828,7 +26828,7 @@
         <v>460</v>
       </c>
       <c r="B509" t="s" s="0">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C509" t="s" s="0">
         <v>772</v>
@@ -26839,7 +26839,7 @@
         <v>460</v>
       </c>
       <c r="B510" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C510" t="s" s="0">
         <v>772</v>
@@ -26850,7 +26850,7 @@
         <v>460</v>
       </c>
       <c r="B511" t="s" s="0">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C511" t="s" s="0">
         <v>772</v>
@@ -26861,7 +26861,7 @@
         <v>460</v>
       </c>
       <c r="B512" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C512" t="s" s="0">
         <v>772</v>
@@ -26872,7 +26872,7 @@
         <v>460</v>
       </c>
       <c r="B513" t="s" s="0">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C513" t="s" s="0">
         <v>772</v>
@@ -26883,7 +26883,7 @@
         <v>460</v>
       </c>
       <c r="B514" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C514" t="s" s="0">
         <v>772</v>
@@ -26894,7 +26894,7 @@
         <v>460</v>
       </c>
       <c r="B515" t="s" s="0">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C515" t="s" s="0">
         <v>772</v>
@@ -26905,7 +26905,7 @@
         <v>460</v>
       </c>
       <c r="B516" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C516" t="s" s="0">
         <v>772</v>
@@ -26916,7 +26916,7 @@
         <v>460</v>
       </c>
       <c r="B517" t="s" s="0">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C517" t="s" s="0">
         <v>772</v>
@@ -26924,24 +26924,24 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="0">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B518" t="s" s="0">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C518" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s" s="0">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="B519" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C519" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="520">
@@ -26949,10 +26949,10 @@
         <v>19</v>
       </c>
       <c r="B520" t="s" s="0">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="C520" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="521">
@@ -26960,7 +26960,7 @@
         <v>19</v>
       </c>
       <c r="B521" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C521" t="s" s="0">
         <v>772</v>
@@ -26971,7 +26971,7 @@
         <v>19</v>
       </c>
       <c r="B522" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C522" t="s" s="0">
         <v>772</v>
@@ -26982,7 +26982,7 @@
         <v>19</v>
       </c>
       <c r="B523" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C523" t="s" s="0">
         <v>772</v>
@@ -26990,13 +26990,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="0">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="B524" t="s" s="0">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="C524" t="s" s="0">
-        <v>772</v>
+        <v>794</v>
       </c>
     </row>
     <row r="525">
@@ -27004,10 +27004,10 @@
         <v>475</v>
       </c>
       <c r="B525" t="s" s="0">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C525" t="s" s="0">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="526">
@@ -27015,7 +27015,7 @@
         <v>475</v>
       </c>
       <c r="B526" t="s" s="0">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C526" t="s" s="0">
         <v>772</v>
@@ -27026,7 +27026,7 @@
         <v>475</v>
       </c>
       <c r="B527" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C527" t="s" s="0">
         <v>772</v>
@@ -27037,7 +27037,7 @@
         <v>475</v>
       </c>
       <c r="B528" t="s" s="0">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C528" t="s" s="0">
         <v>772</v>
@@ -27048,7 +27048,7 @@
         <v>475</v>
       </c>
       <c r="B529" t="s" s="0">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C529" t="s" s="0">
         <v>772</v>
@@ -27059,7 +27059,7 @@
         <v>475</v>
       </c>
       <c r="B530" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C530" t="s" s="0">
         <v>772</v>
@@ -27070,7 +27070,7 @@
         <v>475</v>
       </c>
       <c r="B531" t="s" s="0">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C531" t="s" s="0">
         <v>772</v>
@@ -27081,7 +27081,7 @@
         <v>475</v>
       </c>
       <c r="B532" t="s" s="0">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C532" t="s" s="0">
         <v>772</v>
@@ -27092,7 +27092,7 @@
         <v>475</v>
       </c>
       <c r="B533" t="s" s="0">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C533" t="s" s="0">
         <v>772</v>
@@ -27103,7 +27103,7 @@
         <v>475</v>
       </c>
       <c r="B534" t="s" s="0">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C534" t="s" s="0">
         <v>772</v>
@@ -27114,7 +27114,7 @@
         <v>475</v>
       </c>
       <c r="B535" t="s" s="0">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C535" t="s" s="0">
         <v>772</v>
@@ -27125,7 +27125,7 @@
         <v>475</v>
       </c>
       <c r="B536" t="s" s="0">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C536" t="s" s="0">
         <v>772</v>
@@ -27136,7 +27136,7 @@
         <v>475</v>
       </c>
       <c r="B537" t="s" s="0">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C537" t="s" s="0">
         <v>772</v>
@@ -27147,7 +27147,7 @@
         <v>475</v>
       </c>
       <c r="B538" t="s" s="0">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C538" t="s" s="0">
         <v>772</v>
@@ -27158,7 +27158,7 @@
         <v>475</v>
       </c>
       <c r="B539" t="s" s="0">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C539" t="s" s="0">
         <v>772</v>
@@ -27169,7 +27169,7 @@
         <v>475</v>
       </c>
       <c r="B540" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C540" t="s" s="0">
         <v>772</v>
@@ -27180,7 +27180,7 @@
         <v>475</v>
       </c>
       <c r="B541" t="s" s="0">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C541" t="s" s="0">
         <v>772</v>
@@ -27191,7 +27191,7 @@
         <v>475</v>
       </c>
       <c r="B542" t="s" s="0">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C542" t="s" s="0">
         <v>772</v>
@@ -27199,13 +27199,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="0">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B543" t="s" s="0">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C543" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="544">
@@ -27213,7 +27213,7 @@
         <v>495</v>
       </c>
       <c r="B544" t="s" s="0">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C544" t="s" s="0">
         <v>768</v>
@@ -27224,7 +27224,7 @@
         <v>495</v>
       </c>
       <c r="B545" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C545" t="s" s="0">
         <v>768</v>
@@ -27235,7 +27235,7 @@
         <v>495</v>
       </c>
       <c r="B546" t="s" s="0">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C546" t="s" s="0">
         <v>768</v>
@@ -27246,7 +27246,7 @@
         <v>495</v>
       </c>
       <c r="B547" t="s" s="0">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C547" t="s" s="0">
         <v>768</v>
@@ -27257,7 +27257,7 @@
         <v>495</v>
       </c>
       <c r="B548" t="s" s="0">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C548" t="s" s="0">
         <v>768</v>
@@ -27265,13 +27265,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="0">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B549" t="s" s="0">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C549" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="550">
@@ -27279,10 +27279,10 @@
         <v>502</v>
       </c>
       <c r="B550" t="s" s="0">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C550" t="s" s="0">
-        <v>803</v>
+        <v>837</v>
       </c>
     </row>
     <row r="551">
@@ -27290,10 +27290,10 @@
         <v>502</v>
       </c>
       <c r="B551" t="s" s="0">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C551" t="s" s="0">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="552">
@@ -27301,7 +27301,7 @@
         <v>502</v>
       </c>
       <c r="B552" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C552" t="s" s="0">
         <v>806</v>
@@ -27312,10 +27312,10 @@
         <v>502</v>
       </c>
       <c r="B553" t="s" s="0">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C553" t="s" s="0">
-        <v>806</v>
+        <v>837</v>
       </c>
     </row>
     <row r="554">
@@ -27323,10 +27323,10 @@
         <v>502</v>
       </c>
       <c r="B554" t="s" s="0">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C554" t="s" s="0">
-        <v>837</v>
+        <v>796</v>
       </c>
     </row>
     <row r="555">
@@ -27334,7 +27334,7 @@
         <v>502</v>
       </c>
       <c r="B555" t="s" s="0">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C555" t="s" s="0">
         <v>796</v>
@@ -27345,10 +27345,10 @@
         <v>502</v>
       </c>
       <c r="B556" t="s" s="0">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="C556" t="s" s="0">
-        <v>796</v>
+        <v>822</v>
       </c>
     </row>
     <row r="557">
@@ -27356,10 +27356,10 @@
         <v>502</v>
       </c>
       <c r="B557" t="s" s="0">
-        <v>388</v>
+        <v>507</v>
       </c>
       <c r="C557" t="s" s="0">
-        <v>822</v>
+        <v>837</v>
       </c>
     </row>
     <row r="558">
@@ -27367,10 +27367,10 @@
         <v>502</v>
       </c>
       <c r="B558" t="s" s="0">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C558" t="s" s="0">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="559">
@@ -27378,10 +27378,10 @@
         <v>502</v>
       </c>
       <c r="B559" t="s" s="0">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C559" t="s" s="0">
-        <v>806</v>
+        <v>837</v>
       </c>
     </row>
     <row r="560">
@@ -27389,7 +27389,7 @@
         <v>502</v>
       </c>
       <c r="B560" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C560" t="s" s="0">
         <v>837</v>
@@ -27397,13 +27397,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="0">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="B561" t="s" s="0">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="C561" t="s" s="0">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="562">
@@ -27411,10 +27411,10 @@
         <v>565</v>
       </c>
       <c r="B562" t="s" s="0">
-        <v>567</v>
+        <v>105</v>
       </c>
       <c r="C562" t="s" s="0">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="563">
@@ -27422,10 +27422,10 @@
         <v>565</v>
       </c>
       <c r="B563" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C563" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="564">
@@ -27433,10 +27433,10 @@
         <v>565</v>
       </c>
       <c r="B564" t="s" s="0">
-        <v>110</v>
+        <v>566</v>
       </c>
       <c r="C564" t="s" s="0">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="565">
@@ -27444,7 +27444,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s" s="0">
-        <v>566</v>
+        <v>223</v>
       </c>
       <c r="C565" t="s" s="0">
         <v>796</v>
@@ -27455,7 +27455,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s" s="0">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="C566" t="s" s="0">
         <v>796</v>
@@ -27466,21 +27466,21 @@
         <v>565</v>
       </c>
       <c r="B567" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C567" t="s" s="0">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s" s="0">
-        <v>565</v>
+        <v>66</v>
       </c>
       <c r="B568" t="s" s="0">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="C568" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="569">
@@ -27488,10 +27488,10 @@
         <v>66</v>
       </c>
       <c r="B569" t="s" s="0">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C569" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="570">
@@ -27499,7 +27499,7 @@
         <v>66</v>
       </c>
       <c r="B570" t="s" s="0">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C570" t="s" s="0">
         <v>772</v>
@@ -27507,13 +27507,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="0">
-        <v>66</v>
+        <v>513</v>
       </c>
       <c r="B571" t="s" s="0">
-        <v>510</v>
+        <v>318</v>
       </c>
       <c r="C571" t="s" s="0">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="572">
@@ -27521,7 +27521,7 @@
         <v>513</v>
       </c>
       <c r="B572" t="s" s="0">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="C572" t="s" s="0">
         <v>768</v>
@@ -27532,7 +27532,7 @@
         <v>513</v>
       </c>
       <c r="B573" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C573" t="s" s="0">
         <v>768</v>
@@ -27543,7 +27543,7 @@
         <v>513</v>
       </c>
       <c r="B574" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C574" t="s" s="0">
         <v>768</v>
@@ -27554,7 +27554,7 @@
         <v>513</v>
       </c>
       <c r="B575" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C575" t="s" s="0">
         <v>768</v>
@@ -27562,13 +27562,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="0">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B576" t="s" s="0">
-        <v>122</v>
+        <v>523</v>
       </c>
       <c r="C576" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="577">
@@ -27576,10 +27576,10 @@
         <v>514</v>
       </c>
       <c r="B577" t="s" s="0">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C577" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="578">
@@ -27587,7 +27587,7 @@
         <v>514</v>
       </c>
       <c r="B578" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C578" t="s" s="0">
         <v>772</v>
@@ -27598,7 +27598,7 @@
         <v>514</v>
       </c>
       <c r="B579" t="s" s="0">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C579" t="s" s="0">
         <v>772</v>
@@ -27609,7 +27609,7 @@
         <v>514</v>
       </c>
       <c r="B580" t="s" s="0">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C580" t="s" s="0">
         <v>772</v>
@@ -27620,7 +27620,7 @@
         <v>514</v>
       </c>
       <c r="B581" t="s" s="0">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C581" t="s" s="0">
         <v>772</v>
@@ -27631,7 +27631,7 @@
         <v>514</v>
       </c>
       <c r="B582" t="s" s="0">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C582" t="s" s="0">
         <v>772</v>
@@ -27639,13 +27639,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="0">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B583" t="s" s="0">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C583" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="584">
@@ -27653,21 +27653,21 @@
         <v>525</v>
       </c>
       <c r="B584" t="s" s="0">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C584" t="s" s="0">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s" s="0">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B585" t="s" s="0">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C585" t="s" s="0">
-        <v>772</v>
+        <v>803</v>
       </c>
     </row>
     <row r="586">
@@ -27675,10 +27675,10 @@
         <v>528</v>
       </c>
       <c r="B586" t="s" s="0">
-        <v>529</v>
+        <v>125</v>
       </c>
       <c r="C586" t="s" s="0">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="587">
@@ -27686,10 +27686,10 @@
         <v>528</v>
       </c>
       <c r="B587" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C587" t="s" s="0">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="588">
@@ -27697,10 +27697,10 @@
         <v>528</v>
       </c>
       <c r="B588" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C588" t="s" s="0">
-        <v>806</v>
+        <v>830</v>
       </c>
     </row>
     <row r="589">
@@ -27708,10 +27708,10 @@
         <v>528</v>
       </c>
       <c r="B589" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C589" t="s" s="0">
-        <v>830</v>
+        <v>806</v>
       </c>
     </row>
     <row r="590">
@@ -27719,21 +27719,21 @@
         <v>528</v>
       </c>
       <c r="B590" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C590" t="s" s="0">
-        <v>806</v>
+        <v>837</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s" s="0">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="B591" t="s" s="0">
-        <v>127</v>
+        <v>569</v>
       </c>
       <c r="C591" t="s" s="0">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="592">
@@ -27741,10 +27741,10 @@
         <v>568</v>
       </c>
       <c r="B592" t="s" s="0">
-        <v>569</v>
+        <v>120</v>
       </c>
       <c r="C592" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="593">
@@ -27752,7 +27752,7 @@
         <v>568</v>
       </c>
       <c r="B593" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C593" t="s" s="0">
         <v>779</v>
@@ -27763,10 +27763,10 @@
         <v>568</v>
       </c>
       <c r="B594" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C594" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="595">
@@ -27774,7 +27774,7 @@
         <v>568</v>
       </c>
       <c r="B595" t="s" s="0">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C595" t="s" s="0">
         <v>796</v>
@@ -27785,7 +27785,7 @@
         <v>568</v>
       </c>
       <c r="B596" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C596" t="s" s="0">
         <v>796</v>
@@ -27793,13 +27793,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B597" t="s" s="0">
-        <v>122</v>
+        <v>571</v>
       </c>
       <c r="C597" t="s" s="0">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="598">
@@ -27807,10 +27807,10 @@
         <v>570</v>
       </c>
       <c r="B598" t="s" s="0">
-        <v>571</v>
+        <v>125</v>
       </c>
       <c r="C598" t="s" s="0">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="599">
@@ -27818,7 +27818,7 @@
         <v>570</v>
       </c>
       <c r="B599" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C599" t="s" s="0">
         <v>779</v>
@@ -27829,7 +27829,7 @@
         <v>570</v>
       </c>
       <c r="B600" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C600" t="s" s="0">
         <v>779</v>
@@ -27840,10 +27840,10 @@
         <v>570</v>
       </c>
       <c r="B601" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C601" t="s" s="0">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="602">
@@ -27851,7 +27851,7 @@
         <v>570</v>
       </c>
       <c r="B602" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C602" t="s" s="0">
         <v>796</v>
@@ -27859,13 +27859,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="0">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="B603" t="s" s="0">
-        <v>127</v>
+        <v>531</v>
       </c>
       <c r="C603" t="s" s="0">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="604">
@@ -27873,7 +27873,7 @@
         <v>530</v>
       </c>
       <c r="B604" t="s" s="0">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C604" t="s" s="0">
         <v>768</v>
@@ -27881,13 +27881,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="0">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B605" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C605" t="s" s="0">
-        <v>768</v>
+        <v>803</v>
       </c>
     </row>
     <row r="606">
@@ -27895,20 +27895,9 @@
         <v>533</v>
       </c>
       <c r="B606" t="s" s="0">
-        <v>534</v>
+        <v>404</v>
       </c>
       <c r="C606" t="s" s="0">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="s" s="0">
-        <v>533</v>
-      </c>
-      <c r="B607" t="s" s="0">
-        <v>404</v>
-      </c>
-      <c r="C607" t="s" s="0">
         <v>779</v>
       </c>
     </row>
@@ -30707,7 +30696,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>576</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
@@ -30715,13 +30704,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>329</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
@@ -30777,7 +30766,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -30791,7 +30780,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -30819,7 +30808,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -30833,7 +30822,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -30917,7 +30906,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -30973,7 +30962,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>599</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22">
@@ -30981,13 +30970,13 @@
         <v>88</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -31093,13 +31082,13 @@
         <v>117</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -31107,13 +31096,13 @@
         <v>117</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -31135,13 +31124,13 @@
         <v>132</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>102</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34">
@@ -31149,13 +31138,13 @@
         <v>132</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35">
@@ -31177,13 +31166,13 @@
         <v>132</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>593</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37">
@@ -31191,13 +31180,13 @@
         <v>132</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>530</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38">
@@ -31205,13 +31194,13 @@
         <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>622</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -31275,13 +31264,13 @@
         <v>181</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -31289,13 +31278,13 @@
         <v>181</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45">
@@ -31393,7 +31382,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52">
@@ -31407,7 +31396,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -31463,7 +31452,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57">
@@ -31491,7 +31480,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59">
@@ -31499,13 +31488,13 @@
         <v>547</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>641</v>
+        <v>579</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>431</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
@@ -31513,13 +31502,13 @@
         <v>547</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61">
@@ -31533,7 +31522,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>304</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62">
@@ -31555,7 +31544,7 @@
         <v>224</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -31569,7 +31558,7 @@
         <v>224</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -31583,13 +31572,13 @@
         <v>233</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
@@ -31597,7 +31586,7 @@
         <v>233</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -31611,13 +31600,13 @@
         <v>233</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -31625,13 +31614,13 @@
         <v>233</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -31639,13 +31628,13 @@
         <v>233</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
@@ -31653,13 +31642,13 @@
         <v>233</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71">
@@ -31667,13 +31656,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -31681,7 +31670,7 @@
         <v>233</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
@@ -31695,7 +31684,7 @@
         <v>233</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
@@ -31709,7 +31698,7 @@
         <v>233</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
@@ -31757,7 +31746,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
@@ -31813,7 +31802,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82">
@@ -31821,13 +31810,13 @@
         <v>261</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -31835,13 +31824,13 @@
         <v>261</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
@@ -31897,7 +31886,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -31905,7 +31894,7 @@
         <v>268</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
@@ -31919,7 +31908,7 @@
         <v>268</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
@@ -31933,13 +31922,13 @@
         <v>268</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91">
@@ -31947,13 +31936,13 @@
         <v>268</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>195</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92">
@@ -31975,13 +31964,13 @@
         <v>268</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
@@ -31989,13 +31978,13 @@
         <v>268</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -32003,7 +31992,7 @@
         <v>268</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
@@ -32017,7 +32006,7 @@
         <v>268</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -32031,7 +32020,7 @@
         <v>268</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
@@ -32045,7 +32034,7 @@
         <v>268</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
@@ -32059,13 +32048,13 @@
         <v>268</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -32073,13 +32062,13 @@
         <v>268</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -32087,13 +32076,13 @@
         <v>295</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>669</v>
+        <v>599</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>39</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102">
@@ -32101,13 +32090,13 @@
         <v>295</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103">
@@ -32115,13 +32104,13 @@
         <v>295</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>608</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
@@ -32129,13 +32118,13 @@
         <v>316</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>579</v>
+        <v>670</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105">
@@ -32143,13 +32132,13 @@
         <v>316</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>670</v>
+        <v>579</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
@@ -32219,7 +32208,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>676</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -32227,13 +32216,13 @@
         <v>320</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>21</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112">
@@ -32247,7 +32236,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -32275,7 +32264,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115">
@@ -32297,7 +32286,7 @@
         <v>48</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -32311,13 +32300,13 @@
         <v>48</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>21</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118">
@@ -32325,7 +32314,7 @@
         <v>48</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
@@ -32339,7 +32328,7 @@
         <v>48</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
@@ -32353,7 +32342,7 @@
         <v>48</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -32367,7 +32356,7 @@
         <v>48</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
@@ -32381,13 +32370,13 @@
         <v>48</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
@@ -32395,7 +32384,7 @@
         <v>48</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
@@ -32409,13 +32398,13 @@
         <v>48</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125">
@@ -32423,7 +32412,7 @@
         <v>48</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -32479,13 +32468,13 @@
         <v>332</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>686</v>
+        <v>609</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>21</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130">
@@ -32493,13 +32482,13 @@
         <v>332</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>472</v>
+        <v>687</v>
       </c>
     </row>
     <row r="131">
@@ -32507,13 +32496,13 @@
         <v>332</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>610</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132">
@@ -32521,13 +32510,13 @@
         <v>332</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -32535,13 +32524,13 @@
         <v>332</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>690</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134">
@@ -32555,7 +32544,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>218</v>
+        <v>692</v>
       </c>
     </row>
     <row r="135">
@@ -32563,13 +32552,13 @@
         <v>332</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>693</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136">
@@ -32583,7 +32572,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>346</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -32597,7 +32586,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>21</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138">
@@ -32608,10 +32597,10 @@
         <v>696</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>340</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
@@ -32622,10 +32611,10 @@
         <v>697</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>21</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140">
@@ -32636,10 +32625,10 @@
         <v>698</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>21</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141">
@@ -32650,10 +32639,10 @@
         <v>699</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>340</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
@@ -32661,13 +32650,13 @@
         <v>358</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>475</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143">
@@ -32675,13 +32664,13 @@
         <v>358</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>580</v>
+        <v>701</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144">
@@ -32689,13 +32678,13 @@
         <v>358</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>303</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145">
@@ -32703,13 +32692,13 @@
         <v>358</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>610</v>
+        <v>703</v>
       </c>
     </row>
     <row r="146">
@@ -32717,13 +32706,13 @@
         <v>358</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>702</v>
+        <v>580</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>703</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147">
@@ -32737,7 +32726,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>251</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148">
@@ -32765,7 +32754,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>195</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150">
@@ -32807,7 +32796,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153">
@@ -32821,7 +32810,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154">
@@ -32871,7 +32860,7 @@
         <v>561</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
@@ -32961,7 +32950,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>389</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
@@ -32975,7 +32964,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>16</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165">
@@ -32983,13 +32972,13 @@
         <v>405</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>579</v>
+        <v>718</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>102</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166">
@@ -32997,13 +32986,13 @@
         <v>405</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>718</v>
+        <v>579</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>216</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
@@ -33011,13 +33000,13 @@
         <v>409</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
@@ -33031,7 +33020,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169">
@@ -33039,13 +33028,13 @@
         <v>409</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>720</v>
+        <v>641</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>99</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170">
@@ -33053,13 +33042,13 @@
         <v>409</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>722</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171">
@@ -33067,13 +33056,13 @@
         <v>409</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172">
@@ -33081,13 +33070,13 @@
         <v>409</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>606</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173">
@@ -33109,13 +33098,13 @@
         <v>409</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>676</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175">
@@ -33123,13 +33112,13 @@
         <v>409</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>123</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176">
@@ -33137,13 +33126,13 @@
         <v>409</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>727</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177">
@@ -33165,13 +33154,13 @@
         <v>409</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>728</v>
+        <v>675</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179">
@@ -33179,13 +33168,13 @@
         <v>409</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>21</v>
+        <v>703</v>
       </c>
     </row>
     <row r="180">
@@ -33193,13 +33182,13 @@
         <v>409</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>431</v>
+        <v>726</v>
       </c>
     </row>
     <row r="181">
@@ -33207,13 +33196,13 @@
         <v>409</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>703</v>
+        <v>728</v>
       </c>
     </row>
     <row r="182">
@@ -33221,13 +33210,13 @@
         <v>409</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>729</v>
+        <v>596</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>21</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183">
@@ -33235,13 +33224,13 @@
         <v>409</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>579</v>
+        <v>729</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>102</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184">
@@ -33249,7 +33238,7 @@
         <v>432</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -33297,7 +33286,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188">
@@ -33311,7 +33300,7 @@
         <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -33339,7 +33328,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191">
@@ -33395,7 +33384,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195">
@@ -33403,7 +33392,7 @@
         <v>19</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
@@ -33417,7 +33406,7 @@
         <v>19</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
@@ -33571,13 +33560,13 @@
         <v>502</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>751</v>
+        <v>594</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>752</v>
+        <v>595</v>
       </c>
     </row>
     <row r="208">
@@ -33585,13 +33574,13 @@
         <v>502</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>753</v>
+        <v>669</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>754</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209">
@@ -33599,13 +33588,13 @@
         <v>502</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>39</v>
+        <v>752</v>
       </c>
     </row>
     <row r="210">
@@ -33613,13 +33602,13 @@
         <v>502</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>592</v>
+        <v>753</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>593</v>
+        <v>754</v>
       </c>
     </row>
     <row r="211">
@@ -33627,13 +33616,13 @@
         <v>502</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>755</v>
+        <v>592</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>756</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212">
@@ -33641,13 +33630,13 @@
         <v>502</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>596</v>
+        <v>755</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>597</v>
+        <v>756</v>
       </c>
     </row>
     <row r="213">
@@ -33683,13 +33672,13 @@
         <v>528</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>579</v>
+        <v>758</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>102</v>
+        <v>759</v>
       </c>
     </row>
     <row r="216">
@@ -33697,13 +33686,13 @@
         <v>528</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>758</v>
+        <v>579</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>759</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217">
@@ -33725,7 +33714,7 @@
         <v>570</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
@@ -40777,7 +40766,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>778</v>
@@ -40794,7 +40783,7 @@
         <v>340</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>768</v>
@@ -40811,7 +40800,7 @@
         <v>340</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>778</v>
@@ -40828,7 +40817,7 @@
         <v>340</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>768</v>
@@ -40845,7 +40834,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>768</v>
@@ -40862,7 +40851,7 @@
         <v>340</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>768</v>
@@ -40879,7 +40868,7 @@
         <v>340</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>768</v>
@@ -40896,7 +40885,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>768</v>
